--- a/020-内部_プログラミング設計/022-クラス仕様書/テンプレート/Servlet/Servletのクラス仕様書(SearchResultServlet).xlsx
+++ b/020-内部_プログラミング設計/022-クラス仕様書/テンプレート/Servlet/Servletのクラス仕様書(SearchResultServlet).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0014628A-FA0D-477D-B79D-EFC1399F85B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7302D291-7FD7-4D24-87EF-2C6D1486A107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'メソッド仕様（doGet）'!$A$1:$BI$53</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'メソッド仕様（doPost）'!$A$1:$BI$116</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'メソッド仕様（doPost）'!$A$1:$BI$115</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'メソッド仕様（SearchResultServlet）'!$A$1:$BI$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="162">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -227,52 +227,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品検索を行うServletクラスです。</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンケンサク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">WebServletアノテーションの引数は、自身のクラス名にすること。
-キーワード、カテゴリ、ページ数を受け取り、以下の処理を行う。
-・商品検索処理
-・ページング処理
-商品詳細画面へ転送する
-</t>
-    <rPh sb="52" eb="53">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="68" eb="74">
-      <t>ショウヒンケンサクショリ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="84" eb="90">
-      <t>ショウヒンショウサイガメン</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>テンソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>型：int</t>
   </si>
   <si>
@@ -402,19 +356,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品検索、ページング、画面遷移処理を行う</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンケンサク</t>
-    </rPh>
-    <rPh sb="11" eb="17">
-      <t>ガメンセンイショリ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>productsList</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -457,10 +398,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>SearchResultServiceImpl</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>コンストラクタ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -479,16 +416,6 @@
   <si>
     <t>iSearchResultService</t>
     <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>1. クラスフィールド iSearchResultService に引数で取得した値を設定</t>
-    <rPh sb="37" eb="39">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>型：String</t>
@@ -556,57 +483,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>8-3-4. return</t>
-  </si>
-  <si>
-    <t>② 第1引数：category. 第2引数：category</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③ 第1引数：currentPage. 第2引数：currentPage</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>① 第1引数：keyrord. 第2引数：keyword</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1. 文字コードの指定</t>
     <rPh sb="3" eb="5">
       <t>モジ</t>
@@ -660,36 +536,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6-1. 例外が発生しない時</t>
-    <rPh sb="5" eb="7">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>try句</t>
     <rPh sb="3" eb="4">
       <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リスト：productsList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6-1-1. iSearchResultServiceインタフェースのメソッドを呼び出し、戻り値をリストに格納</t>
-    <rPh sb="40" eb="41">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -849,10 +698,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>13-1. フォワード先のURLを宣言</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>13-2. RequestDispatcherクラスのインスタンスを取得</t>
     <rPh sb="34" eb="36">
       <t>シュトク</t>
@@ -1003,38 +848,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>④ 第1引数：pageSize. 第2引数：pageSize</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑤ 第1引数：productsDisplayList. 第2引数：productsDisplayList</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>productsDisplayList</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1047,22 +860,6 @@
   </si>
   <si>
     <t>第2引数：response</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6. 商品検索結果画面より取得したリクエストパラメータに参照する値があるとき</t>
-    <rPh sb="3" eb="11">
-      <t>ショウヒンケンサクケッカガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>アタイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1101,6 +898,249 @@
     <t>型変換：String → int</t>
     <rPh sb="0" eb="3">
       <t>カタヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーワードとカテゴリ情報を受け取り、該当する商品検索を行い、検索結果を転送するServletクラス</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>テンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. クラスフィールドに引数で取得した値を設定</t>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">フィールド名：iSearchResultService </t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>SearchResultServlet</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>商品検索、ページング、画面遷移処理を行うメソッド</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="17">
+      <t>ガメンセンイショリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1-3-4. return</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6. 商品検索結果画面より取得したリクエストパラメータに参照する値がある時</t>
+    <rPh sb="3" eb="11">
+      <t>ショウヒンケンサクケッカガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-1. 転送先のURLを宣言</t>
+    <rPh sb="6" eb="8">
+      <t>テンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-1. 例外が発生しない時</t>
+    <rPh sb="5" eb="7">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-1-1. iSearchResultServiceインタフェースのメソッドを呼び出し、戻り値をリストに格納</t>
+    <rPh sb="40" eb="41">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WebServletアノテーションの引数は、自身のクラス名にする。
+キーワード、カテゴリ、ページ数を受け取り、以下の処理を行う。
+・商品検索処理
+・ページング処理
+商品詳細画面へ転送する。
+</t>
+    <rPh sb="50" eb="51">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="66" eb="72">
+      <t>ショウヒンケンサクショリ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="82" eb="88">
+      <t>ショウヒンショウサイガメン</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>テンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iSearchResultService</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ISearchResultService</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>① 第1引数：keyrord, 第2引数：keyword</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>② 第1引数：category, 第2引数：category</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③ 第1引数：currentPage, 第2引数：currentPage</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④ 第1引数：pageSize, 第2引数：pageSize</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤ 第1引数：productsDisplayList, 第2引数：productsDisplayList</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒキスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1651,14 +1691,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1669,20 +1706,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1690,16 +1736,10 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2073,7 +2113,7 @@
   <dimension ref="A1:IX22"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:BI4"/>
+      <selection activeCell="AO10" sqref="AO10:BI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2082,85 +2122,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="96" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="95" t="s">
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="96" t="s">
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="95" t="s">
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="95"/>
-      <c r="AG1" s="95"/>
-      <c r="AH1" s="95"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="95"/>
-      <c r="AL1" s="95"/>
-      <c r="AM1" s="95"/>
-      <c r="AN1" s="95"/>
-      <c r="AO1" s="95"/>
-      <c r="AP1" s="95"/>
-      <c r="AQ1" s="96" t="s">
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="96"/>
-      <c r="AS1" s="96"/>
-      <c r="AT1" s="95" t="s">
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="95"/>
-      <c r="AV1" s="95"/>
-      <c r="AW1" s="95"/>
-      <c r="AX1" s="95"/>
-      <c r="AY1" s="95"/>
-      <c r="AZ1" s="95"/>
-      <c r="BA1" s="96" t="s">
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="90"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="96"/>
-      <c r="BC1" s="96"/>
-      <c r="BD1" s="92">
+      <c r="BB1" s="89"/>
+      <c r="BC1" s="89"/>
+      <c r="BD1" s="91">
         <v>45537</v>
       </c>
-      <c r="BE1" s="92"/>
-      <c r="BF1" s="92"/>
-      <c r="BG1" s="92"/>
-      <c r="BH1" s="92"/>
-      <c r="BI1" s="92"/>
+      <c r="BE1" s="91"/>
+      <c r="BF1" s="91"/>
+      <c r="BG1" s="91"/>
+      <c r="BH1" s="91"/>
+      <c r="BI1" s="91"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -2360,81 +2400,81 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="96" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="96" t="s">
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="95" t="s">
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="95"/>
-      <c r="AH2" s="95"/>
-      <c r="AI2" s="95"/>
-      <c r="AJ2" s="95"/>
-      <c r="AK2" s="95"/>
-      <c r="AL2" s="95"/>
-      <c r="AM2" s="95"/>
-      <c r="AN2" s="95"/>
-      <c r="AO2" s="95"/>
-      <c r="AP2" s="95"/>
-      <c r="AQ2" s="96" t="s">
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="96"/>
-      <c r="AS2" s="96"/>
-      <c r="AT2" s="95" t="s">
+      <c r="AR2" s="89"/>
+      <c r="AS2" s="89"/>
+      <c r="AT2" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="AU2" s="95"/>
-      <c r="AV2" s="95"/>
-      <c r="AW2" s="95"/>
-      <c r="AX2" s="95"/>
-      <c r="AY2" s="95"/>
-      <c r="AZ2" s="95"/>
-      <c r="BA2" s="96" t="s">
+      <c r="AU2" s="90"/>
+      <c r="AV2" s="90"/>
+      <c r="AW2" s="90"/>
+      <c r="AX2" s="90"/>
+      <c r="AY2" s="90"/>
+      <c r="AZ2" s="90"/>
+      <c r="BA2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="BB2" s="96"/>
-      <c r="BC2" s="96"/>
-      <c r="BD2" s="92">
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="89"/>
+      <c r="BD2" s="91">
         <v>45559</v>
       </c>
-      <c r="BE2" s="92"/>
-      <c r="BF2" s="92"/>
-      <c r="BG2" s="92"/>
-      <c r="BH2" s="92"/>
-      <c r="BI2" s="92"/>
+      <c r="BE2" s="91"/>
+      <c r="BF2" s="91"/>
+      <c r="BG2" s="91"/>
+      <c r="BH2" s="91"/>
+      <c r="BI2" s="91"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -2634,1122 +2674,1164 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="90" t="s">
-        <v>53</v>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97" t="s">
+        <v>143</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="90"/>
-      <c r="AZ4" s="90"/>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="90"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="90"/>
-      <c r="BG4" s="90"/>
-      <c r="BH4" s="90"/>
-      <c r="BI4" s="90"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="97"/>
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="97"/>
+      <c r="AW4" s="97"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="97"/>
+      <c r="AZ4" s="97"/>
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="97"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="97"/>
+      <c r="BG4" s="97"/>
+      <c r="BH4" s="97"/>
+      <c r="BI4" s="97"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="90" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90"/>
-      <c r="AD5" s="90"/>
-      <c r="AE5" s="90"/>
-      <c r="AF5" s="90"/>
-      <c r="AG5" s="90"/>
-      <c r="AH5" s="90"/>
-      <c r="AI5" s="90"/>
-      <c r="AJ5" s="90"/>
-      <c r="AK5" s="90"/>
-      <c r="AL5" s="90"/>
-      <c r="AM5" s="90"/>
-      <c r="AN5" s="90"/>
-      <c r="AO5" s="90"/>
-      <c r="AP5" s="90"/>
-      <c r="AQ5" s="90"/>
-      <c r="AR5" s="90"/>
-      <c r="AS5" s="90"/>
-      <c r="AT5" s="90"/>
-      <c r="AU5" s="90"/>
-      <c r="AV5" s="90"/>
-      <c r="AW5" s="90"/>
-      <c r="AX5" s="90"/>
-      <c r="AY5" s="90"/>
-      <c r="AZ5" s="90"/>
-      <c r="BA5" s="90"/>
-      <c r="BB5" s="90"/>
-      <c r="BC5" s="90"/>
-      <c r="BD5" s="90"/>
-      <c r="BE5" s="90"/>
-      <c r="BF5" s="90"/>
-      <c r="BG5" s="90"/>
-      <c r="BH5" s="90"/>
-      <c r="BI5" s="90"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="97"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="97"/>
+      <c r="AJ5" s="97"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="97"/>
+      <c r="AN5" s="97"/>
+      <c r="AO5" s="97"/>
+      <c r="AP5" s="97"/>
+      <c r="AQ5" s="97"/>
+      <c r="AR5" s="97"/>
+      <c r="AS5" s="97"/>
+      <c r="AT5" s="97"/>
+      <c r="AU5" s="97"/>
+      <c r="AV5" s="97"/>
+      <c r="AW5" s="97"/>
+      <c r="AX5" s="97"/>
+      <c r="AY5" s="97"/>
+      <c r="AZ5" s="97"/>
+      <c r="BA5" s="97"/>
+      <c r="BB5" s="97"/>
+      <c r="BC5" s="97"/>
+      <c r="BD5" s="97"/>
+      <c r="BE5" s="97"/>
+      <c r="BF5" s="97"/>
+      <c r="BG5" s="97"/>
+      <c r="BH5" s="97"/>
+      <c r="BI5" s="97"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="90" t="s">
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="90"/>
-      <c r="AD6" s="91" t="s">
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="AE6" s="91"/>
-      <c r="AF6" s="91"/>
-      <c r="AG6" s="91"/>
-      <c r="AH6" s="91"/>
-      <c r="AI6" s="91"/>
-      <c r="AJ6" s="90" t="s">
+      <c r="AE6" s="96"/>
+      <c r="AF6" s="96"/>
+      <c r="AG6" s="96"/>
+      <c r="AH6" s="96"/>
+      <c r="AI6" s="96"/>
+      <c r="AJ6" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="AK6" s="90"/>
-      <c r="AL6" s="90"/>
-      <c r="AM6" s="90"/>
-      <c r="AN6" s="90"/>
-      <c r="AO6" s="90"/>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="90"/>
-      <c r="AR6" s="90"/>
-      <c r="AS6" s="90"/>
-      <c r="AT6" s="90"/>
-      <c r="AU6" s="90"/>
-      <c r="AV6" s="90"/>
-      <c r="AW6" s="90"/>
-      <c r="AX6" s="90"/>
-      <c r="AY6" s="90"/>
-      <c r="AZ6" s="90"/>
-      <c r="BA6" s="90"/>
-      <c r="BB6" s="90"/>
-      <c r="BC6" s="90"/>
-      <c r="BD6" s="90"/>
-      <c r="BE6" s="90"/>
-      <c r="BF6" s="90"/>
-      <c r="BG6" s="90"/>
-      <c r="BH6" s="90"/>
-      <c r="BI6" s="90"/>
+      <c r="AK6" s="97"/>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="97"/>
+      <c r="AN6" s="97"/>
+      <c r="AO6" s="97"/>
+      <c r="AP6" s="97"/>
+      <c r="AQ6" s="97"/>
+      <c r="AR6" s="97"/>
+      <c r="AS6" s="97"/>
+      <c r="AT6" s="97"/>
+      <c r="AU6" s="97"/>
+      <c r="AV6" s="97"/>
+      <c r="AW6" s="97"/>
+      <c r="AX6" s="97"/>
+      <c r="AY6" s="97"/>
+      <c r="AZ6" s="97"/>
+      <c r="BA6" s="97"/>
+      <c r="BB6" s="97"/>
+      <c r="BC6" s="97"/>
+      <c r="BD6" s="97"/>
+      <c r="BE6" s="97"/>
+      <c r="BF6" s="97"/>
+      <c r="BG6" s="97"/>
+      <c r="BH6" s="97"/>
+      <c r="BI6" s="97"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91" t="s">
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="91" t="s">
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="91"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="91"/>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="91"/>
-      <c r="AC8" s="91"/>
-      <c r="AD8" s="91"/>
-      <c r="AE8" s="91" t="s">
+      <c r="V8" s="96"/>
+      <c r="W8" s="96"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="96"/>
+      <c r="AA8" s="96"/>
+      <c r="AB8" s="96"/>
+      <c r="AC8" s="96"/>
+      <c r="AD8" s="96"/>
+      <c r="AE8" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="AF8" s="91"/>
-      <c r="AG8" s="91"/>
-      <c r="AH8" s="91"/>
-      <c r="AI8" s="91"/>
-      <c r="AJ8" s="91"/>
-      <c r="AK8" s="91"/>
-      <c r="AL8" s="91"/>
-      <c r="AM8" s="91"/>
-      <c r="AN8" s="91"/>
-      <c r="AO8" s="91" t="s">
+      <c r="AF8" s="96"/>
+      <c r="AG8" s="96"/>
+      <c r="AH8" s="96"/>
+      <c r="AI8" s="96"/>
+      <c r="AJ8" s="96"/>
+      <c r="AK8" s="96"/>
+      <c r="AL8" s="96"/>
+      <c r="AM8" s="96"/>
+      <c r="AN8" s="96"/>
+      <c r="AO8" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="AP8" s="91"/>
-      <c r="AQ8" s="91"/>
-      <c r="AR8" s="91"/>
-      <c r="AS8" s="91"/>
-      <c r="AT8" s="91"/>
-      <c r="AU8" s="91"/>
-      <c r="AV8" s="91"/>
-      <c r="AW8" s="91"/>
-      <c r="AX8" s="91"/>
-      <c r="AY8" s="91"/>
-      <c r="AZ8" s="91"/>
-      <c r="BA8" s="91"/>
-      <c r="BB8" s="91"/>
-      <c r="BC8" s="91"/>
-      <c r="BD8" s="91"/>
-      <c r="BE8" s="91"/>
-      <c r="BF8" s="91"/>
-      <c r="BG8" s="91"/>
-      <c r="BH8" s="91"/>
-      <c r="BI8" s="91"/>
+      <c r="AP8" s="96"/>
+      <c r="AQ8" s="96"/>
+      <c r="AR8" s="96"/>
+      <c r="AS8" s="96"/>
+      <c r="AT8" s="96"/>
+      <c r="AU8" s="96"/>
+      <c r="AV8" s="96"/>
+      <c r="AW8" s="96"/>
+      <c r="AX8" s="96"/>
+      <c r="AY8" s="96"/>
+      <c r="AZ8" s="96"/>
+      <c r="BA8" s="96"/>
+      <c r="BB8" s="96"/>
+      <c r="BC8" s="96"/>
+      <c r="BD8" s="96"/>
+      <c r="BE8" s="96"/>
+      <c r="BF8" s="96"/>
+      <c r="BG8" s="96"/>
+      <c r="BH8" s="96"/>
+      <c r="BI8" s="96"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93" t="s">
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93" t="s">
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93" t="s">
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="93"/>
-      <c r="AJ9" s="93"/>
-      <c r="AK9" s="93"/>
-      <c r="AL9" s="93"/>
-      <c r="AM9" s="93"/>
-      <c r="AN9" s="93"/>
-      <c r="AO9" s="93"/>
-      <c r="AP9" s="93"/>
-      <c r="AQ9" s="93"/>
-      <c r="AR9" s="93"/>
-      <c r="AS9" s="93"/>
-      <c r="AT9" s="93"/>
-      <c r="AU9" s="93"/>
-      <c r="AV9" s="93"/>
-      <c r="AW9" s="93"/>
-      <c r="AX9" s="93"/>
-      <c r="AY9" s="93"/>
-      <c r="AZ9" s="93"/>
-      <c r="BA9" s="93"/>
-      <c r="BB9" s="93"/>
-      <c r="BC9" s="93"/>
-      <c r="BD9" s="93"/>
-      <c r="BE9" s="93"/>
-      <c r="BF9" s="93"/>
-      <c r="BG9" s="93"/>
-      <c r="BH9" s="93"/>
-      <c r="BI9" s="93"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="92"/>
+      <c r="AJ9" s="92"/>
+      <c r="AK9" s="92"/>
+      <c r="AL9" s="92"/>
+      <c r="AM9" s="92"/>
+      <c r="AN9" s="92"/>
+      <c r="AO9" s="92"/>
+      <c r="AP9" s="92"/>
+      <c r="AQ9" s="92"/>
+      <c r="AR9" s="92"/>
+      <c r="AS9" s="92"/>
+      <c r="AT9" s="92"/>
+      <c r="AU9" s="92"/>
+      <c r="AV9" s="92"/>
+      <c r="AW9" s="92"/>
+      <c r="AX9" s="92"/>
+      <c r="AY9" s="92"/>
+      <c r="AZ9" s="92"/>
+      <c r="BA9" s="92"/>
+      <c r="BB9" s="92"/>
+      <c r="BC9" s="92"/>
+      <c r="BD9" s="92"/>
+      <c r="BE9" s="92"/>
+      <c r="BF9" s="92"/>
+      <c r="BG9" s="92"/>
+      <c r="BH9" s="92"/>
+      <c r="BI9" s="92"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="89"/>
-      <c r="AM10" s="89"/>
-      <c r="AN10" s="89"/>
-      <c r="AO10" s="89"/>
-      <c r="AP10" s="89"/>
-      <c r="AQ10" s="89"/>
-      <c r="AR10" s="89"/>
-      <c r="AS10" s="89"/>
-      <c r="AT10" s="89"/>
-      <c r="AU10" s="89"/>
-      <c r="AV10" s="89"/>
-      <c r="AW10" s="89"/>
-      <c r="AX10" s="89"/>
-      <c r="AY10" s="89"/>
-      <c r="AZ10" s="89"/>
-      <c r="BA10" s="89"/>
-      <c r="BB10" s="89"/>
-      <c r="BC10" s="89"/>
-      <c r="BD10" s="89"/>
-      <c r="BE10" s="89"/>
-      <c r="BF10" s="89"/>
-      <c r="BG10" s="89"/>
-      <c r="BH10" s="89"/>
-      <c r="BI10" s="89"/>
+      <c r="A10" s="95" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="95"/>
+      <c r="AE10" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF10" s="95"/>
+      <c r="AG10" s="95"/>
+      <c r="AH10" s="95"/>
+      <c r="AI10" s="95"/>
+      <c r="AJ10" s="95"/>
+      <c r="AK10" s="95"/>
+      <c r="AL10" s="95"/>
+      <c r="AM10" s="95"/>
+      <c r="AN10" s="95"/>
+      <c r="AO10" s="95"/>
+      <c r="AP10" s="95"/>
+      <c r="AQ10" s="95"/>
+      <c r="AR10" s="95"/>
+      <c r="AS10" s="95"/>
+      <c r="AT10" s="95"/>
+      <c r="AU10" s="95"/>
+      <c r="AV10" s="95"/>
+      <c r="AW10" s="95"/>
+      <c r="AX10" s="95"/>
+      <c r="AY10" s="95"/>
+      <c r="AZ10" s="95"/>
+      <c r="BA10" s="95"/>
+      <c r="BB10" s="95"/>
+      <c r="BC10" s="95"/>
+      <c r="BD10" s="95"/>
+      <c r="BE10" s="95"/>
+      <c r="BF10" s="95"/>
+      <c r="BG10" s="95"/>
+      <c r="BH10" s="95"/>
+      <c r="BI10" s="95"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="89"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="89"/>
-      <c r="AE11" s="89"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="89"/>
-      <c r="AI11" s="89"/>
-      <c r="AJ11" s="89"/>
-      <c r="AK11" s="89"/>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="89"/>
-      <c r="AN11" s="89"/>
-      <c r="AO11" s="89"/>
-      <c r="AP11" s="89"/>
-      <c r="AQ11" s="89"/>
-      <c r="AR11" s="89"/>
-      <c r="AS11" s="89"/>
-      <c r="AT11" s="89"/>
-      <c r="AU11" s="89"/>
-      <c r="AV11" s="89"/>
-      <c r="AW11" s="89"/>
-      <c r="AX11" s="89"/>
-      <c r="AY11" s="89"/>
-      <c r="AZ11" s="89"/>
-      <c r="BA11" s="89"/>
-      <c r="BB11" s="89"/>
-      <c r="BC11" s="89"/>
-      <c r="BD11" s="89"/>
-      <c r="BE11" s="89"/>
-      <c r="BF11" s="89"/>
-      <c r="BG11" s="89"/>
-      <c r="BH11" s="89"/>
-      <c r="BI11" s="89"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="95"/>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="95"/>
+      <c r="AF11" s="95"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="95"/>
+      <c r="AJ11" s="95"/>
+      <c r="AK11" s="95"/>
+      <c r="AL11" s="95"/>
+      <c r="AM11" s="95"/>
+      <c r="AN11" s="95"/>
+      <c r="AO11" s="95"/>
+      <c r="AP11" s="95"/>
+      <c r="AQ11" s="95"/>
+      <c r="AR11" s="95"/>
+      <c r="AS11" s="95"/>
+      <c r="AT11" s="95"/>
+      <c r="AU11" s="95"/>
+      <c r="AV11" s="95"/>
+      <c r="AW11" s="95"/>
+      <c r="AX11" s="95"/>
+      <c r="AY11" s="95"/>
+      <c r="AZ11" s="95"/>
+      <c r="BA11" s="95"/>
+      <c r="BB11" s="95"/>
+      <c r="BC11" s="95"/>
+      <c r="BD11" s="95"/>
+      <c r="BE11" s="95"/>
+      <c r="BF11" s="95"/>
+      <c r="BG11" s="95"/>
+      <c r="BH11" s="95"/>
+      <c r="BI11" s="95"/>
     </row>
     <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="89"/>
-      <c r="AE12" s="89"/>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="89"/>
-      <c r="AI12" s="89"/>
-      <c r="AJ12" s="89"/>
-      <c r="AK12" s="89"/>
-      <c r="AL12" s="89"/>
-      <c r="AM12" s="89"/>
-      <c r="AN12" s="89"/>
-      <c r="AO12" s="89"/>
-      <c r="AP12" s="89"/>
-      <c r="AQ12" s="89"/>
-      <c r="AR12" s="89"/>
-      <c r="AS12" s="89"/>
-      <c r="AT12" s="89"/>
-      <c r="AU12" s="89"/>
-      <c r="AV12" s="89"/>
-      <c r="AW12" s="89"/>
-      <c r="AX12" s="89"/>
-      <c r="AY12" s="89"/>
-      <c r="AZ12" s="89"/>
-      <c r="BA12" s="89"/>
-      <c r="BB12" s="89"/>
-      <c r="BC12" s="89"/>
-      <c r="BD12" s="89"/>
-      <c r="BE12" s="89"/>
-      <c r="BF12" s="89"/>
-      <c r="BG12" s="89"/>
-      <c r="BH12" s="89"/>
-      <c r="BI12" s="89"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="95"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="95"/>
+      <c r="AJ12" s="95"/>
+      <c r="AK12" s="95"/>
+      <c r="AL12" s="95"/>
+      <c r="AM12" s="95"/>
+      <c r="AN12" s="95"/>
+      <c r="AO12" s="95"/>
+      <c r="AP12" s="95"/>
+      <c r="AQ12" s="95"/>
+      <c r="AR12" s="95"/>
+      <c r="AS12" s="95"/>
+      <c r="AT12" s="95"/>
+      <c r="AU12" s="95"/>
+      <c r="AV12" s="95"/>
+      <c r="AW12" s="95"/>
+      <c r="AX12" s="95"/>
+      <c r="AY12" s="95"/>
+      <c r="AZ12" s="95"/>
+      <c r="BA12" s="95"/>
+      <c r="BB12" s="95"/>
+      <c r="BC12" s="95"/>
+      <c r="BD12" s="95"/>
+      <c r="BE12" s="95"/>
+      <c r="BF12" s="95"/>
+      <c r="BG12" s="95"/>
+      <c r="BH12" s="95"/>
+      <c r="BI12" s="95"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="89"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="89"/>
-      <c r="AE13" s="89"/>
-      <c r="AF13" s="89"/>
-      <c r="AG13" s="89"/>
-      <c r="AH13" s="89"/>
-      <c r="AI13" s="89"/>
-      <c r="AJ13" s="89"/>
-      <c r="AK13" s="89"/>
-      <c r="AL13" s="89"/>
-      <c r="AM13" s="89"/>
-      <c r="AN13" s="89"/>
-      <c r="AO13" s="89"/>
-      <c r="AP13" s="89"/>
-      <c r="AQ13" s="89"/>
-      <c r="AR13" s="89"/>
-      <c r="AS13" s="89"/>
-      <c r="AT13" s="89"/>
-      <c r="AU13" s="89"/>
-      <c r="AV13" s="89"/>
-      <c r="AW13" s="89"/>
-      <c r="AX13" s="89"/>
-      <c r="AY13" s="89"/>
-      <c r="AZ13" s="89"/>
-      <c r="BA13" s="89"/>
-      <c r="BB13" s="89"/>
-      <c r="BC13" s="89"/>
-      <c r="BD13" s="89"/>
-      <c r="BE13" s="89"/>
-      <c r="BF13" s="89"/>
-      <c r="BG13" s="89"/>
-      <c r="BH13" s="89"/>
-      <c r="BI13" s="89"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="95"/>
+      <c r="AF13" s="95"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="95"/>
+      <c r="AJ13" s="95"/>
+      <c r="AK13" s="95"/>
+      <c r="AL13" s="95"/>
+      <c r="AM13" s="95"/>
+      <c r="AN13" s="95"/>
+      <c r="AO13" s="95"/>
+      <c r="AP13" s="95"/>
+      <c r="AQ13" s="95"/>
+      <c r="AR13" s="95"/>
+      <c r="AS13" s="95"/>
+      <c r="AT13" s="95"/>
+      <c r="AU13" s="95"/>
+      <c r="AV13" s="95"/>
+      <c r="AW13" s="95"/>
+      <c r="AX13" s="95"/>
+      <c r="AY13" s="95"/>
+      <c r="AZ13" s="95"/>
+      <c r="BA13" s="95"/>
+      <c r="BB13" s="95"/>
+      <c r="BC13" s="95"/>
+      <c r="BD13" s="95"/>
+      <c r="BE13" s="95"/>
+      <c r="BF13" s="95"/>
+      <c r="BG13" s="95"/>
+      <c r="BH13" s="95"/>
+      <c r="BI13" s="95"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="89"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="89"/>
-      <c r="AE14" s="89"/>
-      <c r="AF14" s="89"/>
-      <c r="AG14" s="89"/>
-      <c r="AH14" s="89"/>
-      <c r="AI14" s="89"/>
-      <c r="AJ14" s="89"/>
-      <c r="AK14" s="89"/>
-      <c r="AL14" s="89"/>
-      <c r="AM14" s="89"/>
-      <c r="AN14" s="89"/>
-      <c r="AO14" s="89"/>
-      <c r="AP14" s="89"/>
-      <c r="AQ14" s="89"/>
-      <c r="AR14" s="89"/>
-      <c r="AS14" s="89"/>
-      <c r="AT14" s="89"/>
-      <c r="AU14" s="89"/>
-      <c r="AV14" s="89"/>
-      <c r="AW14" s="89"/>
-      <c r="AX14" s="89"/>
-      <c r="AY14" s="89"/>
-      <c r="AZ14" s="89"/>
-      <c r="BA14" s="89"/>
-      <c r="BB14" s="89"/>
-      <c r="BC14" s="89"/>
-      <c r="BD14" s="89"/>
-      <c r="BE14" s="89"/>
-      <c r="BF14" s="89"/>
-      <c r="BG14" s="89"/>
-      <c r="BH14" s="89"/>
-      <c r="BI14" s="89"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="95"/>
+      <c r="AF14" s="95"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="95"/>
+      <c r="AJ14" s="95"/>
+      <c r="AK14" s="95"/>
+      <c r="AL14" s="95"/>
+      <c r="AM14" s="95"/>
+      <c r="AN14" s="95"/>
+      <c r="AO14" s="95"/>
+      <c r="AP14" s="95"/>
+      <c r="AQ14" s="95"/>
+      <c r="AR14" s="95"/>
+      <c r="AS14" s="95"/>
+      <c r="AT14" s="95"/>
+      <c r="AU14" s="95"/>
+      <c r="AV14" s="95"/>
+      <c r="AW14" s="95"/>
+      <c r="AX14" s="95"/>
+      <c r="AY14" s="95"/>
+      <c r="AZ14" s="95"/>
+      <c r="BA14" s="95"/>
+      <c r="BB14" s="95"/>
+      <c r="BC14" s="95"/>
+      <c r="BD14" s="95"/>
+      <c r="BE14" s="95"/>
+      <c r="BF14" s="95"/>
+      <c r="BG14" s="95"/>
+      <c r="BH14" s="95"/>
+      <c r="BI14" s="95"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="91"/>
-      <c r="S16" s="91"/>
-      <c r="T16" s="91"/>
-      <c r="U16" s="91"/>
-      <c r="V16" s="91"/>
-      <c r="W16" s="91"/>
-      <c r="X16" s="91"/>
-      <c r="Y16" s="91"/>
-      <c r="Z16" s="91"/>
-      <c r="AA16" s="91"/>
-      <c r="AB16" s="91"/>
-      <c r="AC16" s="91"/>
-      <c r="AD16" s="91"/>
-      <c r="AE16" s="91"/>
-      <c r="AF16" s="91"/>
-      <c r="AG16" s="91"/>
-      <c r="AH16" s="91"/>
-      <c r="AI16" s="91"/>
-      <c r="AJ16" s="91"/>
-      <c r="AK16" s="91"/>
-      <c r="AL16" s="91"/>
-      <c r="AM16" s="91"/>
-      <c r="AN16" s="91"/>
-      <c r="AO16" s="91"/>
-      <c r="AP16" s="91"/>
-      <c r="AQ16" s="91"/>
-      <c r="AR16" s="91"/>
-      <c r="AS16" s="91"/>
-      <c r="AT16" s="91"/>
-      <c r="AU16" s="91"/>
-      <c r="AV16" s="91"/>
-      <c r="AW16" s="91"/>
-      <c r="AX16" s="91"/>
-      <c r="AY16" s="91"/>
-      <c r="AZ16" s="91"/>
-      <c r="BA16" s="91"/>
-      <c r="BB16" s="91"/>
-      <c r="BC16" s="91"/>
-      <c r="BD16" s="91"/>
-      <c r="BE16" s="91"/>
-      <c r="BF16" s="91"/>
-      <c r="BG16" s="91"/>
-      <c r="BH16" s="91"/>
-      <c r="BI16" s="91"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="96"/>
+      <c r="W16" s="96"/>
+      <c r="X16" s="96"/>
+      <c r="Y16" s="96"/>
+      <c r="Z16" s="96"/>
+      <c r="AA16" s="96"/>
+      <c r="AB16" s="96"/>
+      <c r="AC16" s="96"/>
+      <c r="AD16" s="96"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="96"/>
+      <c r="AG16" s="96"/>
+      <c r="AH16" s="96"/>
+      <c r="AI16" s="96"/>
+      <c r="AJ16" s="96"/>
+      <c r="AK16" s="96"/>
+      <c r="AL16" s="96"/>
+      <c r="AM16" s="96"/>
+      <c r="AN16" s="96"/>
+      <c r="AO16" s="96"/>
+      <c r="AP16" s="96"/>
+      <c r="AQ16" s="96"/>
+      <c r="AR16" s="96"/>
+      <c r="AS16" s="96"/>
+      <c r="AT16" s="96"/>
+      <c r="AU16" s="96"/>
+      <c r="AV16" s="96"/>
+      <c r="AW16" s="96"/>
+      <c r="AX16" s="96"/>
+      <c r="AY16" s="96"/>
+      <c r="AZ16" s="96"/>
+      <c r="BA16" s="96"/>
+      <c r="BB16" s="96"/>
+      <c r="BC16" s="96"/>
+      <c r="BD16" s="96"/>
+      <c r="BE16" s="96"/>
+      <c r="BF16" s="96"/>
+      <c r="BG16" s="96"/>
+      <c r="BH16" s="96"/>
+      <c r="BI16" s="96"/>
     </row>
     <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="90" t="s">
-        <v>54</v>
+      <c r="A17" s="97" t="s">
+        <v>153</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="89"/>
-      <c r="AD17" s="89"/>
-      <c r="AE17" s="89"/>
-      <c r="AF17" s="89"/>
-      <c r="AG17" s="89"/>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="89"/>
-      <c r="AJ17" s="89"/>
-      <c r="AK17" s="89"/>
-      <c r="AL17" s="89"/>
-      <c r="AM17" s="89"/>
-      <c r="AN17" s="89"/>
-      <c r="AO17" s="89"/>
-      <c r="AP17" s="89"/>
-      <c r="AQ17" s="89"/>
-      <c r="AR17" s="89"/>
-      <c r="AS17" s="89"/>
-      <c r="AT17" s="89"/>
-      <c r="AU17" s="89"/>
-      <c r="AV17" s="89"/>
-      <c r="AW17" s="89"/>
-      <c r="AX17" s="89"/>
-      <c r="AY17" s="89"/>
-      <c r="AZ17" s="89"/>
-      <c r="BA17" s="89"/>
-      <c r="BB17" s="89"/>
-      <c r="BC17" s="89"/>
-      <c r="BD17" s="89"/>
-      <c r="BE17" s="89"/>
-      <c r="BF17" s="89"/>
-      <c r="BG17" s="89"/>
-      <c r="BH17" s="89"/>
-      <c r="BI17" s="89"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="95"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="95"/>
+      <c r="AJ17" s="95"/>
+      <c r="AK17" s="95"/>
+      <c r="AL17" s="95"/>
+      <c r="AM17" s="95"/>
+      <c r="AN17" s="95"/>
+      <c r="AO17" s="95"/>
+      <c r="AP17" s="95"/>
+      <c r="AQ17" s="95"/>
+      <c r="AR17" s="95"/>
+      <c r="AS17" s="95"/>
+      <c r="AT17" s="95"/>
+      <c r="AU17" s="95"/>
+      <c r="AV17" s="95"/>
+      <c r="AW17" s="95"/>
+      <c r="AX17" s="95"/>
+      <c r="AY17" s="95"/>
+      <c r="AZ17" s="95"/>
+      <c r="BA17" s="95"/>
+      <c r="BB17" s="95"/>
+      <c r="BC17" s="95"/>
+      <c r="BD17" s="95"/>
+      <c r="BE17" s="95"/>
+      <c r="BF17" s="95"/>
+      <c r="BG17" s="95"/>
+      <c r="BH17" s="95"/>
+      <c r="BI17" s="95"/>
     </row>
     <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="89"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="89"/>
-      <c r="AO18" s="89"/>
-      <c r="AP18" s="89"/>
-      <c r="AQ18" s="89"/>
-      <c r="AR18" s="89"/>
-      <c r="AS18" s="89"/>
-      <c r="AT18" s="89"/>
-      <c r="AU18" s="89"/>
-      <c r="AV18" s="89"/>
-      <c r="AW18" s="89"/>
-      <c r="AX18" s="89"/>
-      <c r="AY18" s="89"/>
-      <c r="AZ18" s="89"/>
-      <c r="BA18" s="89"/>
-      <c r="BB18" s="89"/>
-      <c r="BC18" s="89"/>
-      <c r="BD18" s="89"/>
-      <c r="BE18" s="89"/>
-      <c r="BF18" s="89"/>
-      <c r="BG18" s="89"/>
-      <c r="BH18" s="89"/>
-      <c r="BI18" s="89"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="95"/>
+      <c r="AF18" s="95"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="95"/>
+      <c r="AJ18" s="95"/>
+      <c r="AK18" s="95"/>
+      <c r="AL18" s="95"/>
+      <c r="AM18" s="95"/>
+      <c r="AN18" s="95"/>
+      <c r="AO18" s="95"/>
+      <c r="AP18" s="95"/>
+      <c r="AQ18" s="95"/>
+      <c r="AR18" s="95"/>
+      <c r="AS18" s="95"/>
+      <c r="AT18" s="95"/>
+      <c r="AU18" s="95"/>
+      <c r="AV18" s="95"/>
+      <c r="AW18" s="95"/>
+      <c r="AX18" s="95"/>
+      <c r="AY18" s="95"/>
+      <c r="AZ18" s="95"/>
+      <c r="BA18" s="95"/>
+      <c r="BB18" s="95"/>
+      <c r="BC18" s="95"/>
+      <c r="BD18" s="95"/>
+      <c r="BE18" s="95"/>
+      <c r="BF18" s="95"/>
+      <c r="BG18" s="95"/>
+      <c r="BH18" s="95"/>
+      <c r="BI18" s="95"/>
     </row>
     <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="89"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="89"/>
-      <c r="AF19" s="89"/>
-      <c r="AG19" s="89"/>
-      <c r="AH19" s="89"/>
-      <c r="AI19" s="89"/>
-      <c r="AJ19" s="89"/>
-      <c r="AK19" s="89"/>
-      <c r="AL19" s="89"/>
-      <c r="AM19" s="89"/>
-      <c r="AN19" s="89"/>
-      <c r="AO19" s="89"/>
-      <c r="AP19" s="89"/>
-      <c r="AQ19" s="89"/>
-      <c r="AR19" s="89"/>
-      <c r="AS19" s="89"/>
-      <c r="AT19" s="89"/>
-      <c r="AU19" s="89"/>
-      <c r="AV19" s="89"/>
-      <c r="AW19" s="89"/>
-      <c r="AX19" s="89"/>
-      <c r="AY19" s="89"/>
-      <c r="AZ19" s="89"/>
-      <c r="BA19" s="89"/>
-      <c r="BB19" s="89"/>
-      <c r="BC19" s="89"/>
-      <c r="BD19" s="89"/>
-      <c r="BE19" s="89"/>
-      <c r="BF19" s="89"/>
-      <c r="BG19" s="89"/>
-      <c r="BH19" s="89"/>
-      <c r="BI19" s="89"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="95"/>
+      <c r="AJ19" s="95"/>
+      <c r="AK19" s="95"/>
+      <c r="AL19" s="95"/>
+      <c r="AM19" s="95"/>
+      <c r="AN19" s="95"/>
+      <c r="AO19" s="95"/>
+      <c r="AP19" s="95"/>
+      <c r="AQ19" s="95"/>
+      <c r="AR19" s="95"/>
+      <c r="AS19" s="95"/>
+      <c r="AT19" s="95"/>
+      <c r="AU19" s="95"/>
+      <c r="AV19" s="95"/>
+      <c r="AW19" s="95"/>
+      <c r="AX19" s="95"/>
+      <c r="AY19" s="95"/>
+      <c r="AZ19" s="95"/>
+      <c r="BA19" s="95"/>
+      <c r="BB19" s="95"/>
+      <c r="BC19" s="95"/>
+      <c r="BD19" s="95"/>
+      <c r="BE19" s="95"/>
+      <c r="BF19" s="95"/>
+      <c r="BG19" s="95"/>
+      <c r="BH19" s="95"/>
+      <c r="BI19" s="95"/>
     </row>
     <row r="20" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="89"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="89"/>
-      <c r="AD20" s="89"/>
-      <c r="AE20" s="89"/>
-      <c r="AF20" s="89"/>
-      <c r="AG20" s="89"/>
-      <c r="AH20" s="89"/>
-      <c r="AI20" s="89"/>
-      <c r="AJ20" s="89"/>
-      <c r="AK20" s="89"/>
-      <c r="AL20" s="89"/>
-      <c r="AM20" s="89"/>
-      <c r="AN20" s="89"/>
-      <c r="AO20" s="89"/>
-      <c r="AP20" s="89"/>
-      <c r="AQ20" s="89"/>
-      <c r="AR20" s="89"/>
-      <c r="AS20" s="89"/>
-      <c r="AT20" s="89"/>
-      <c r="AU20" s="89"/>
-      <c r="AV20" s="89"/>
-      <c r="AW20" s="89"/>
-      <c r="AX20" s="89"/>
-      <c r="AY20" s="89"/>
-      <c r="AZ20" s="89"/>
-      <c r="BA20" s="89"/>
-      <c r="BB20" s="89"/>
-      <c r="BC20" s="89"/>
-      <c r="BD20" s="89"/>
-      <c r="BE20" s="89"/>
-      <c r="BF20" s="89"/>
-      <c r="BG20" s="89"/>
-      <c r="BH20" s="89"/>
-      <c r="BI20" s="89"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="95"/>
+      <c r="AF20" s="95"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="95"/>
+      <c r="AJ20" s="95"/>
+      <c r="AK20" s="95"/>
+      <c r="AL20" s="95"/>
+      <c r="AM20" s="95"/>
+      <c r="AN20" s="95"/>
+      <c r="AO20" s="95"/>
+      <c r="AP20" s="95"/>
+      <c r="AQ20" s="95"/>
+      <c r="AR20" s="95"/>
+      <c r="AS20" s="95"/>
+      <c r="AT20" s="95"/>
+      <c r="AU20" s="95"/>
+      <c r="AV20" s="95"/>
+      <c r="AW20" s="95"/>
+      <c r="AX20" s="95"/>
+      <c r="AY20" s="95"/>
+      <c r="AZ20" s="95"/>
+      <c r="BA20" s="95"/>
+      <c r="BB20" s="95"/>
+      <c r="BC20" s="95"/>
+      <c r="BD20" s="95"/>
+      <c r="BE20" s="95"/>
+      <c r="BF20" s="95"/>
+      <c r="BG20" s="95"/>
+      <c r="BH20" s="95"/>
+      <c r="BI20" s="95"/>
     </row>
     <row r="21" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="89"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="89"/>
-      <c r="AE21" s="89"/>
-      <c r="AF21" s="89"/>
-      <c r="AG21" s="89"/>
-      <c r="AH21" s="89"/>
-      <c r="AI21" s="89"/>
-      <c r="AJ21" s="89"/>
-      <c r="AK21" s="89"/>
-      <c r="AL21" s="89"/>
-      <c r="AM21" s="89"/>
-      <c r="AN21" s="89"/>
-      <c r="AO21" s="89"/>
-      <c r="AP21" s="89"/>
-      <c r="AQ21" s="89"/>
-      <c r="AR21" s="89"/>
-      <c r="AS21" s="89"/>
-      <c r="AT21" s="89"/>
-      <c r="AU21" s="89"/>
-      <c r="AV21" s="89"/>
-      <c r="AW21" s="89"/>
-      <c r="AX21" s="89"/>
-      <c r="AY21" s="89"/>
-      <c r="AZ21" s="89"/>
-      <c r="BA21" s="89"/>
-      <c r="BB21" s="89"/>
-      <c r="BC21" s="89"/>
-      <c r="BD21" s="89"/>
-      <c r="BE21" s="89"/>
-      <c r="BF21" s="89"/>
-      <c r="BG21" s="89"/>
-      <c r="BH21" s="89"/>
-      <c r="BI21" s="89"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="95"/>
+      <c r="AJ21" s="95"/>
+      <c r="AK21" s="95"/>
+      <c r="AL21" s="95"/>
+      <c r="AM21" s="95"/>
+      <c r="AN21" s="95"/>
+      <c r="AO21" s="95"/>
+      <c r="AP21" s="95"/>
+      <c r="AQ21" s="95"/>
+      <c r="AR21" s="95"/>
+      <c r="AS21" s="95"/>
+      <c r="AT21" s="95"/>
+      <c r="AU21" s="95"/>
+      <c r="AV21" s="95"/>
+      <c r="AW21" s="95"/>
+      <c r="AX21" s="95"/>
+      <c r="AY21" s="95"/>
+      <c r="AZ21" s="95"/>
+      <c r="BA21" s="95"/>
+      <c r="BB21" s="95"/>
+      <c r="BC21" s="95"/>
+      <c r="BD21" s="95"/>
+      <c r="BE21" s="95"/>
+      <c r="BF21" s="95"/>
+      <c r="BG21" s="95"/>
+      <c r="BH21" s="95"/>
+      <c r="BI21" s="95"/>
     </row>
     <row r="22" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="89"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="89"/>
-      <c r="AD22" s="89"/>
-      <c r="AE22" s="89"/>
-      <c r="AF22" s="89"/>
-      <c r="AG22" s="89"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="89"/>
-      <c r="AJ22" s="89"/>
-      <c r="AK22" s="89"/>
-      <c r="AL22" s="89"/>
-      <c r="AM22" s="89"/>
-      <c r="AN22" s="89"/>
-      <c r="AO22" s="89"/>
-      <c r="AP22" s="89"/>
-      <c r="AQ22" s="89"/>
-      <c r="AR22" s="89"/>
-      <c r="AS22" s="89"/>
-      <c r="AT22" s="89"/>
-      <c r="AU22" s="89"/>
-      <c r="AV22" s="89"/>
-      <c r="AW22" s="89"/>
-      <c r="AX22" s="89"/>
-      <c r="AY22" s="89"/>
-      <c r="AZ22" s="89"/>
-      <c r="BA22" s="89"/>
-      <c r="BB22" s="89"/>
-      <c r="BC22" s="89"/>
-      <c r="BD22" s="89"/>
-      <c r="BE22" s="89"/>
-      <c r="BF22" s="89"/>
-      <c r="BG22" s="89"/>
-      <c r="BH22" s="89"/>
-      <c r="BI22" s="89"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="95"/>
+      <c r="AF22" s="95"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="95"/>
+      <c r="AJ22" s="95"/>
+      <c r="AK22" s="95"/>
+      <c r="AL22" s="95"/>
+      <c r="AM22" s="95"/>
+      <c r="AN22" s="95"/>
+      <c r="AO22" s="95"/>
+      <c r="AP22" s="95"/>
+      <c r="AQ22" s="95"/>
+      <c r="AR22" s="95"/>
+      <c r="AS22" s="95"/>
+      <c r="AT22" s="95"/>
+      <c r="AU22" s="95"/>
+      <c r="AV22" s="95"/>
+      <c r="AW22" s="95"/>
+      <c r="AX22" s="95"/>
+      <c r="AY22" s="95"/>
+      <c r="AZ22" s="95"/>
+      <c r="BA22" s="95"/>
+      <c r="BB22" s="95"/>
+      <c r="BC22" s="95"/>
+      <c r="BD22" s="95"/>
+      <c r="BE22" s="95"/>
+      <c r="BF22" s="95"/>
+      <c r="BG22" s="95"/>
+      <c r="BH22" s="95"/>
+      <c r="BI22" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AO12:BI12"/>
+    <mergeCell ref="A17:BI22"/>
+    <mergeCell ref="A16:BI16"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE14:AN14"/>
+    <mergeCell ref="AO14:BI14"/>
+    <mergeCell ref="AE10:AN10"/>
+    <mergeCell ref="AO10:BI10"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="AE13:AN13"/>
+    <mergeCell ref="AO13:BI13"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AN11"/>
+    <mergeCell ref="AO11:BI11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="AE12:AN12"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:AC6"/>
+    <mergeCell ref="AD6:AI6"/>
+    <mergeCell ref="AJ6:BI6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AN8"/>
+    <mergeCell ref="AO8:BI8"/>
     <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="K9:T9"/>
@@ -3766,46 +3848,12 @@
     <mergeCell ref="AE2:AP2"/>
     <mergeCell ref="AQ2:AS2"/>
     <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:AC6"/>
-    <mergeCell ref="AD6:AI6"/>
-    <mergeCell ref="AJ6:BI6"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AN8"/>
-    <mergeCell ref="AO8:BI8"/>
-    <mergeCell ref="AE10:AN10"/>
-    <mergeCell ref="AO10:BI10"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="AE13:AN13"/>
-    <mergeCell ref="AO13:BI13"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AN11"/>
-    <mergeCell ref="AO11:BI11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="AE12:AN12"/>
-    <mergeCell ref="AO12:BI12"/>
-    <mergeCell ref="A17:BI22"/>
-    <mergeCell ref="A16:BI16"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE14:AN14"/>
-    <mergeCell ref="AO14:BI14"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -3820,7 +3868,7 @@
   <dimension ref="A1:IX35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="BD3" sqref="BD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3829,85 +3877,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="98" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="99" t="s">
-        <v>84</v>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="104" t="s">
+        <v>81</v>
       </c>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="98" t="s">
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="98"/>
-      <c r="AD1" s="98"/>
-      <c r="AE1" s="99" t="s">
-        <v>85</v>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="100"/>
+      <c r="AE1" s="104" t="s">
+        <v>82</v>
       </c>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99"/>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99"/>
-      <c r="AP1" s="99"/>
-      <c r="AQ1" s="98" t="s">
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104"/>
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="104"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="98"/>
-      <c r="AS1" s="98"/>
-      <c r="AT1" s="99" t="s">
-        <v>86</v>
+      <c r="AR1" s="100"/>
+      <c r="AS1" s="100"/>
+      <c r="AT1" s="104" t="s">
+        <v>83</v>
       </c>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="99"/>
-      <c r="AW1" s="99"/>
-      <c r="AX1" s="99"/>
-      <c r="AY1" s="99"/>
-      <c r="AZ1" s="99"/>
-      <c r="BA1" s="98" t="s">
+      <c r="AU1" s="104"/>
+      <c r="AV1" s="104"/>
+      <c r="AW1" s="104"/>
+      <c r="AX1" s="104"/>
+      <c r="AY1" s="104"/>
+      <c r="AZ1" s="104"/>
+      <c r="BA1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="98"/>
-      <c r="BC1" s="98"/>
-      <c r="BD1" s="101">
+      <c r="BB1" s="100"/>
+      <c r="BC1" s="100"/>
+      <c r="BD1" s="103">
         <v>45537</v>
       </c>
-      <c r="BE1" s="101"/>
-      <c r="BF1" s="101"/>
-      <c r="BG1" s="101"/>
-      <c r="BH1" s="101"/>
-      <c r="BI1" s="101"/>
+      <c r="BE1" s="103"/>
+      <c r="BF1" s="103"/>
+      <c r="BG1" s="103"/>
+      <c r="BH1" s="103"/>
+      <c r="BI1" s="103"/>
       <c r="BJ1"/>
       <c r="BK1"/>
       <c r="BL1"/>
@@ -4107,81 +4155,81 @@
       <c r="IX1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="98" t="s">
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="98" t="s">
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="99" t="s">
-        <v>87</v>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="104" t="s">
+        <v>146</v>
       </c>
-      <c r="AF2" s="99"/>
-      <c r="AG2" s="99"/>
-      <c r="AH2" s="99"/>
-      <c r="AI2" s="99"/>
-      <c r="AJ2" s="99"/>
-      <c r="AK2" s="99"/>
-      <c r="AL2" s="99"/>
-      <c r="AM2" s="99"/>
-      <c r="AN2" s="99"/>
-      <c r="AO2" s="99"/>
-      <c r="AP2" s="99"/>
-      <c r="AQ2" s="98" t="s">
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="99" t="s">
-        <v>86</v>
+      <c r="AR2" s="100"/>
+      <c r="AS2" s="100"/>
+      <c r="AT2" s="104" t="s">
+        <v>83</v>
       </c>
-      <c r="AU2" s="99"/>
-      <c r="AV2" s="99"/>
-      <c r="AW2" s="99"/>
-      <c r="AX2" s="99"/>
-      <c r="AY2" s="99"/>
-      <c r="AZ2" s="99"/>
-      <c r="BA2" s="98" t="s">
+      <c r="AU2" s="104"/>
+      <c r="AV2" s="104"/>
+      <c r="AW2" s="104"/>
+      <c r="AX2" s="104"/>
+      <c r="AY2" s="104"/>
+      <c r="AZ2" s="104"/>
+      <c r="BA2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="BB2" s="98"/>
-      <c r="BC2" s="98"/>
-      <c r="BD2" s="101">
-        <v>45561</v>
+      <c r="BB2" s="100"/>
+      <c r="BC2" s="100"/>
+      <c r="BD2" s="103">
+        <v>45566</v>
       </c>
-      <c r="BE2" s="101"/>
-      <c r="BF2" s="101"/>
-      <c r="BG2" s="101"/>
-      <c r="BH2" s="101"/>
-      <c r="BI2" s="101"/>
+      <c r="BE2" s="103"/>
+      <c r="BF2" s="103"/>
+      <c r="BG2" s="103"/>
+      <c r="BH2" s="103"/>
+      <c r="BI2" s="103"/>
       <c r="BJ2"/>
       <c r="BK2"/>
       <c r="BL2"/>
@@ -4381,71 +4429,71 @@
       <c r="IX2"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="103" t="s">
-        <v>88</v>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="101" t="s">
+        <v>84</v>
       </c>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="103"/>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="103"/>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="103"/>
-      <c r="AN4" s="103"/>
-      <c r="AO4" s="103"/>
-      <c r="AP4" s="103"/>
-      <c r="AQ4" s="103"/>
-      <c r="AR4" s="103"/>
-      <c r="AS4" s="103"/>
-      <c r="AT4" s="103"/>
-      <c r="AU4" s="103"/>
-      <c r="AV4" s="103"/>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="103"/>
-      <c r="AZ4" s="103"/>
-      <c r="BA4" s="103"/>
-      <c r="BB4" s="103"/>
-      <c r="BC4" s="103"/>
-      <c r="BD4" s="103"/>
-      <c r="BE4" s="103"/>
-      <c r="BF4" s="103"/>
-      <c r="BG4" s="103"/>
-      <c r="BH4" s="103"/>
-      <c r="BI4" s="103"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="101"/>
+      <c r="AO4" s="101"/>
+      <c r="AP4" s="101"/>
+      <c r="AQ4" s="101"/>
+      <c r="AR4" s="101"/>
+      <c r="AS4" s="101"/>
+      <c r="AT4" s="101"/>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="101"/>
+      <c r="AW4" s="101"/>
+      <c r="AX4" s="101"/>
+      <c r="AY4" s="101"/>
+      <c r="AZ4" s="101"/>
+      <c r="BA4" s="101"/>
+      <c r="BB4" s="101"/>
+      <c r="BC4" s="101"/>
+      <c r="BD4" s="101"/>
+      <c r="BE4" s="101"/>
+      <c r="BF4" s="101"/>
+      <c r="BG4" s="101"/>
+      <c r="BH4" s="101"/>
+      <c r="BI4" s="101"/>
       <c r="BJ4"/>
       <c r="BK4"/>
       <c r="BL4"/>
@@ -4645,71 +4693,71 @@
       <c r="IX4"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="103" t="s">
-        <v>87</v>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="101" t="s">
+        <v>146</v>
       </c>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103"/>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="103"/>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="103"/>
-      <c r="BI5" s="103"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="101"/>
+      <c r="AB5" s="101"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="101"/>
+      <c r="AE5" s="101"/>
+      <c r="AF5" s="101"/>
+      <c r="AG5" s="101"/>
+      <c r="AH5" s="101"/>
+      <c r="AI5" s="101"/>
+      <c r="AJ5" s="101"/>
+      <c r="AK5" s="101"/>
+      <c r="AL5" s="101"/>
+      <c r="AM5" s="101"/>
+      <c r="AN5" s="101"/>
+      <c r="AO5" s="101"/>
+      <c r="AP5" s="101"/>
+      <c r="AQ5" s="101"/>
+      <c r="AR5" s="101"/>
+      <c r="AS5" s="101"/>
+      <c r="AT5" s="101"/>
+      <c r="AU5" s="101"/>
+      <c r="AV5" s="101"/>
+      <c r="AW5" s="101"/>
+      <c r="AX5" s="101"/>
+      <c r="AY5" s="101"/>
+      <c r="AZ5" s="101"/>
+      <c r="BA5" s="101"/>
+      <c r="BB5" s="101"/>
+      <c r="BC5" s="101"/>
+      <c r="BD5" s="101"/>
+      <c r="BE5" s="101"/>
+      <c r="BF5" s="101"/>
+      <c r="BG5" s="101"/>
+      <c r="BH5" s="101"/>
+      <c r="BI5" s="101"/>
       <c r="BJ5"/>
       <c r="BK5"/>
       <c r="BL5"/>
@@ -5108,75 +5156,75 @@
       <c r="IX6"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105" t="s">
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105" t="s">
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="105"/>
-      <c r="S7" s="105"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="105"/>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="105"/>
-      <c r="AA7" s="105"/>
-      <c r="AB7" s="105"/>
-      <c r="AC7" s="105"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="105" t="s">
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="99"/>
+      <c r="X7" s="99"/>
+      <c r="Y7" s="99"/>
+      <c r="Z7" s="99"/>
+      <c r="AA7" s="99"/>
+      <c r="AB7" s="99"/>
+      <c r="AC7" s="99"/>
+      <c r="AD7" s="99"/>
+      <c r="AE7" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="105"/>
-      <c r="AN7" s="105"/>
-      <c r="AO7" s="105"/>
-      <c r="AP7" s="105"/>
-      <c r="AQ7" s="105"/>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="105"/>
-      <c r="AT7" s="105"/>
-      <c r="AU7" s="105"/>
-      <c r="AV7" s="105"/>
-      <c r="AW7" s="105"/>
-      <c r="AX7" s="105"/>
-      <c r="AY7" s="105"/>
-      <c r="AZ7" s="105"/>
-      <c r="BA7" s="105"/>
-      <c r="BB7" s="105"/>
-      <c r="BC7" s="105"/>
-      <c r="BD7" s="105"/>
-      <c r="BE7" s="105"/>
-      <c r="BF7" s="105"/>
-      <c r="BG7" s="105"/>
-      <c r="BH7" s="105"/>
-      <c r="BI7" s="105"/>
+      <c r="AF7" s="99"/>
+      <c r="AG7" s="99"/>
+      <c r="AH7" s="99"/>
+      <c r="AI7" s="99"/>
+      <c r="AJ7" s="99"/>
+      <c r="AK7" s="99"/>
+      <c r="AL7" s="99"/>
+      <c r="AM7" s="99"/>
+      <c r="AN7" s="99"/>
+      <c r="AO7" s="99"/>
+      <c r="AP7" s="99"/>
+      <c r="AQ7" s="99"/>
+      <c r="AR7" s="99"/>
+      <c r="AS7" s="99"/>
+      <c r="AT7" s="99"/>
+      <c r="AU7" s="99"/>
+      <c r="AV7" s="99"/>
+      <c r="AW7" s="99"/>
+      <c r="AX7" s="99"/>
+      <c r="AY7" s="99"/>
+      <c r="AZ7" s="99"/>
+      <c r="BA7" s="99"/>
+      <c r="BB7" s="99"/>
+      <c r="BC7" s="99"/>
+      <c r="BD7" s="99"/>
+      <c r="BE7" s="99"/>
+      <c r="BF7" s="99"/>
+      <c r="BG7" s="99"/>
+      <c r="BH7" s="99"/>
+      <c r="BI7" s="99"/>
       <c r="BJ7"/>
       <c r="BK7"/>
       <c r="BL7"/>
@@ -5376,75 +5424,75 @@
       <c r="IX7"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="104" t="s">
-        <v>89</v>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="98" t="s">
+        <v>85</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104" t="s">
-        <v>90</v>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98" t="s">
+        <v>86</v>
       </c>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
-      <c r="Z8" s="104"/>
-      <c r="AA8" s="104"/>
-      <c r="AB8" s="104"/>
-      <c r="AC8" s="104"/>
-      <c r="AD8" s="104"/>
-      <c r="AE8" s="104" t="s">
-        <v>91</v>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="98"/>
+      <c r="AE8" s="98" t="s">
+        <v>87</v>
       </c>
-      <c r="AF8" s="104"/>
-      <c r="AG8" s="104"/>
-      <c r="AH8" s="104"/>
-      <c r="AI8" s="104"/>
-      <c r="AJ8" s="104"/>
-      <c r="AK8" s="104"/>
-      <c r="AL8" s="104"/>
-      <c r="AM8" s="104"/>
-      <c r="AN8" s="104"/>
-      <c r="AO8" s="104"/>
-      <c r="AP8" s="104"/>
-      <c r="AQ8" s="104"/>
-      <c r="AR8" s="104"/>
-      <c r="AS8" s="104"/>
-      <c r="AT8" s="104"/>
-      <c r="AU8" s="104"/>
-      <c r="AV8" s="104"/>
-      <c r="AW8" s="104"/>
-      <c r="AX8" s="104"/>
-      <c r="AY8" s="104"/>
-      <c r="AZ8" s="104"/>
-      <c r="BA8" s="104"/>
-      <c r="BB8" s="104"/>
-      <c r="BC8" s="104"/>
-      <c r="BD8" s="104"/>
-      <c r="BE8" s="104"/>
-      <c r="BF8" s="104"/>
-      <c r="BG8" s="104"/>
-      <c r="BH8" s="104"/>
-      <c r="BI8" s="104"/>
+      <c r="AF8" s="98"/>
+      <c r="AG8" s="98"/>
+      <c r="AH8" s="98"/>
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="98"/>
+      <c r="AL8" s="98"/>
+      <c r="AM8" s="98"/>
+      <c r="AN8" s="98"/>
+      <c r="AO8" s="98"/>
+      <c r="AP8" s="98"/>
+      <c r="AQ8" s="98"/>
+      <c r="AR8" s="98"/>
+      <c r="AS8" s="98"/>
+      <c r="AT8" s="98"/>
+      <c r="AU8" s="98"/>
+      <c r="AV8" s="98"/>
+      <c r="AW8" s="98"/>
+      <c r="AX8" s="98"/>
+      <c r="AY8" s="98"/>
+      <c r="AZ8" s="98"/>
+      <c r="BA8" s="98"/>
+      <c r="BB8" s="98"/>
+      <c r="BC8" s="98"/>
+      <c r="BD8" s="98"/>
+      <c r="BE8" s="98"/>
+      <c r="BF8" s="98"/>
+      <c r="BG8" s="98"/>
+      <c r="BH8" s="98"/>
+      <c r="BI8" s="98"/>
       <c r="BJ8"/>
       <c r="BK8"/>
       <c r="BL8"/>
@@ -5644,67 +5692,67 @@
       <c r="IX8"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="93"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="104"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="104"/>
-      <c r="Y9" s="104"/>
-      <c r="Z9" s="104"/>
-      <c r="AA9" s="104"/>
-      <c r="AB9" s="104"/>
-      <c r="AC9" s="104"/>
-      <c r="AD9" s="104"/>
-      <c r="AE9" s="104"/>
-      <c r="AF9" s="104"/>
-      <c r="AG9" s="104"/>
-      <c r="AH9" s="104"/>
-      <c r="AI9" s="104"/>
-      <c r="AJ9" s="104"/>
-      <c r="AK9" s="104"/>
-      <c r="AL9" s="104"/>
-      <c r="AM9" s="104"/>
-      <c r="AN9" s="104"/>
-      <c r="AO9" s="104"/>
-      <c r="AP9" s="104"/>
-      <c r="AQ9" s="104"/>
-      <c r="AR9" s="104"/>
-      <c r="AS9" s="104"/>
-      <c r="AT9" s="104"/>
-      <c r="AU9" s="104"/>
-      <c r="AV9" s="104"/>
-      <c r="AW9" s="104"/>
-      <c r="AX9" s="104"/>
-      <c r="AY9" s="104"/>
-      <c r="AZ9" s="104"/>
-      <c r="BA9" s="104"/>
-      <c r="BB9" s="104"/>
-      <c r="BC9" s="104"/>
-      <c r="BD9" s="104"/>
-      <c r="BE9" s="104"/>
-      <c r="BF9" s="104"/>
-      <c r="BG9" s="104"/>
-      <c r="BH9" s="104"/>
-      <c r="BI9" s="104"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="98"/>
+      <c r="AG9" s="98"/>
+      <c r="AH9" s="98"/>
+      <c r="AI9" s="98"/>
+      <c r="AJ9" s="98"/>
+      <c r="AK9" s="98"/>
+      <c r="AL9" s="98"/>
+      <c r="AM9" s="98"/>
+      <c r="AN9" s="98"/>
+      <c r="AO9" s="98"/>
+      <c r="AP9" s="98"/>
+      <c r="AQ9" s="98"/>
+      <c r="AR9" s="98"/>
+      <c r="AS9" s="98"/>
+      <c r="AT9" s="98"/>
+      <c r="AU9" s="98"/>
+      <c r="AV9" s="98"/>
+      <c r="AW9" s="98"/>
+      <c r="AX9" s="98"/>
+      <c r="AY9" s="98"/>
+      <c r="AZ9" s="98"/>
+      <c r="BA9" s="98"/>
+      <c r="BB9" s="98"/>
+      <c r="BC9" s="98"/>
+      <c r="BD9" s="98"/>
+      <c r="BE9" s="98"/>
+      <c r="BF9" s="98"/>
+      <c r="BG9" s="98"/>
+      <c r="BH9" s="98"/>
+      <c r="BI9" s="98"/>
       <c r="BJ9"/>
       <c r="BK9"/>
       <c r="BL9"/>
@@ -5904,67 +5952,67 @@
       <c r="IX9"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="93"/>
-      <c r="AF10" s="93"/>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="93"/>
-      <c r="AJ10" s="93"/>
-      <c r="AK10" s="93"/>
-      <c r="AL10" s="93"/>
-      <c r="AM10" s="93"/>
-      <c r="AN10" s="93"/>
-      <c r="AO10" s="93"/>
-      <c r="AP10" s="93"/>
-      <c r="AQ10" s="93"/>
-      <c r="AR10" s="93"/>
-      <c r="AS10" s="93"/>
-      <c r="AT10" s="93"/>
-      <c r="AU10" s="93"/>
-      <c r="AV10" s="93"/>
-      <c r="AW10" s="93"/>
-      <c r="AX10" s="93"/>
-      <c r="AY10" s="93"/>
-      <c r="AZ10" s="93"/>
-      <c r="BA10" s="93"/>
-      <c r="BB10" s="93"/>
-      <c r="BC10" s="93"/>
-      <c r="BD10" s="93"/>
-      <c r="BE10" s="93"/>
-      <c r="BF10" s="93"/>
-      <c r="BG10" s="93"/>
-      <c r="BH10" s="93"/>
-      <c r="BI10" s="93"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="92"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="92"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="92"/>
+      <c r="AL10" s="92"/>
+      <c r="AM10" s="92"/>
+      <c r="AN10" s="92"/>
+      <c r="AO10" s="92"/>
+      <c r="AP10" s="92"/>
+      <c r="AQ10" s="92"/>
+      <c r="AR10" s="92"/>
+      <c r="AS10" s="92"/>
+      <c r="AT10" s="92"/>
+      <c r="AU10" s="92"/>
+      <c r="AV10" s="92"/>
+      <c r="AW10" s="92"/>
+      <c r="AX10" s="92"/>
+      <c r="AY10" s="92"/>
+      <c r="AZ10" s="92"/>
+      <c r="BA10" s="92"/>
+      <c r="BB10" s="92"/>
+      <c r="BC10" s="92"/>
+      <c r="BD10" s="92"/>
+      <c r="BE10" s="92"/>
+      <c r="BF10" s="92"/>
+      <c r="BG10" s="92"/>
+      <c r="BH10" s="92"/>
+      <c r="BI10" s="92"/>
       <c r="BJ10"/>
       <c r="BK10"/>
       <c r="BL10"/>
@@ -6164,67 +6212,67 @@
       <c r="IX10"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="93"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="93"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="93"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="93"/>
-      <c r="AN11" s="93"/>
-      <c r="AO11" s="93"/>
-      <c r="AP11" s="93"/>
-      <c r="AQ11" s="93"/>
-      <c r="AR11" s="93"/>
-      <c r="AS11" s="93"/>
-      <c r="AT11" s="93"/>
-      <c r="AU11" s="93"/>
-      <c r="AV11" s="93"/>
-      <c r="AW11" s="93"/>
-      <c r="AX11" s="93"/>
-      <c r="AY11" s="93"/>
-      <c r="AZ11" s="93"/>
-      <c r="BA11" s="93"/>
-      <c r="BB11" s="93"/>
-      <c r="BC11" s="93"/>
-      <c r="BD11" s="93"/>
-      <c r="BE11" s="93"/>
-      <c r="BF11" s="93"/>
-      <c r="BG11" s="93"/>
-      <c r="BH11" s="93"/>
-      <c r="BI11" s="93"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="92"/>
+      <c r="AN11" s="92"/>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="92"/>
+      <c r="AQ11" s="92"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="92"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="92"/>
+      <c r="BA11" s="92"/>
+      <c r="BB11" s="92"/>
+      <c r="BC11" s="92"/>
+      <c r="BD11" s="92"/>
+      <c r="BE11" s="92"/>
+      <c r="BF11" s="92"/>
+      <c r="BG11" s="92"/>
+      <c r="BH11" s="92"/>
+      <c r="BI11" s="92"/>
       <c r="BJ11"/>
       <c r="BK11"/>
       <c r="BL11"/>
@@ -6830,73 +6878,73 @@
       <c r="IX13"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="105"/>
-      <c r="P14" s="105" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="105"/>
-      <c r="S14" s="105"/>
-      <c r="T14" s="105"/>
-      <c r="U14" s="105"/>
-      <c r="V14" s="105"/>
-      <c r="W14" s="105"/>
-      <c r="X14" s="105"/>
-      <c r="Y14" s="105"/>
-      <c r="Z14" s="105"/>
-      <c r="AA14" s="105"/>
-      <c r="AB14" s="105"/>
-      <c r="AC14" s="105"/>
-      <c r="AD14" s="105"/>
-      <c r="AE14" s="105"/>
-      <c r="AF14" s="105"/>
-      <c r="AG14" s="105"/>
-      <c r="AH14" s="105"/>
-      <c r="AI14" s="105"/>
-      <c r="AJ14" s="105"/>
-      <c r="AK14" s="105"/>
-      <c r="AL14" s="105"/>
-      <c r="AM14" s="105"/>
-      <c r="AN14" s="105"/>
-      <c r="AO14" s="105"/>
-      <c r="AP14" s="105"/>
-      <c r="AQ14" s="105"/>
-      <c r="AR14" s="105"/>
-      <c r="AS14" s="105"/>
-      <c r="AT14" s="105" t="s">
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="99"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="99"/>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="99"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="99"/>
+      <c r="AI14" s="99"/>
+      <c r="AJ14" s="99"/>
+      <c r="AK14" s="99"/>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="99"/>
+      <c r="AN14" s="99"/>
+      <c r="AO14" s="99"/>
+      <c r="AP14" s="99"/>
+      <c r="AQ14" s="99"/>
+      <c r="AR14" s="99"/>
+      <c r="AS14" s="99"/>
+      <c r="AT14" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="AU14" s="105"/>
-      <c r="AV14" s="105"/>
-      <c r="AW14" s="105"/>
-      <c r="AX14" s="105"/>
-      <c r="AY14" s="105"/>
-      <c r="AZ14" s="105"/>
-      <c r="BA14" s="105"/>
-      <c r="BB14" s="105"/>
-      <c r="BC14" s="105"/>
-      <c r="BD14" s="105"/>
-      <c r="BE14" s="105"/>
-      <c r="BF14" s="105"/>
-      <c r="BG14" s="105"/>
-      <c r="BH14" s="105"/>
-      <c r="BI14" s="105"/>
+      <c r="AU14" s="99"/>
+      <c r="AV14" s="99"/>
+      <c r="AW14" s="99"/>
+      <c r="AX14" s="99"/>
+      <c r="AY14" s="99"/>
+      <c r="AZ14" s="99"/>
+      <c r="BA14" s="99"/>
+      <c r="BB14" s="99"/>
+      <c r="BC14" s="99"/>
+      <c r="BD14" s="99"/>
+      <c r="BE14" s="99"/>
+      <c r="BF14" s="99"/>
+      <c r="BG14" s="99"/>
+      <c r="BH14" s="99"/>
+      <c r="BI14" s="99"/>
       <c r="BJ14"/>
       <c r="BK14"/>
       <c r="BL14"/>
@@ -7097,7 +7145,7 @@
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
@@ -7114,7 +7162,7 @@
       <c r="N15" s="59"/>
       <c r="O15" s="60"/>
       <c r="P15" s="58" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="Q15" s="59"/>
       <c r="R15" s="61"/>
@@ -7375,7 +7423,9 @@
       <c r="N16" s="66"/>
       <c r="O16" s="67"/>
       <c r="P16" s="68"/>
-      <c r="Q16" s="66"/>
+      <c r="Q16" s="66" t="s">
+        <v>145</v>
+      </c>
       <c r="R16" s="69"/>
       <c r="S16" s="69"/>
       <c r="T16" s="69"/>
@@ -12433,6 +12483,35 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:O9"/>
     <mergeCell ref="P9:AD9"/>
@@ -12448,35 +12527,6 @@
     <mergeCell ref="D11:O11"/>
     <mergeCell ref="P11:AD11"/>
     <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="2">
@@ -12508,87 +12558,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="96" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="95" t="str">
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="90" t="str">
         <f>クラス仕様!R1</f>
         <v>商品購入</v>
       </c>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="96" t="s">
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="95" t="str">
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="90" t="str">
         <f>クラス仕様!AE1</f>
         <v>商品検索</v>
       </c>
-      <c r="AF1" s="95"/>
-      <c r="AG1" s="95"/>
-      <c r="AH1" s="95"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="95"/>
-      <c r="AL1" s="95"/>
-      <c r="AM1" s="95"/>
-      <c r="AN1" s="95"/>
-      <c r="AO1" s="95"/>
-      <c r="AP1" s="95"/>
-      <c r="AQ1" s="96" t="s">
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="96"/>
-      <c r="AS1" s="96"/>
-      <c r="AT1" s="95" t="s">
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="AU1" s="95"/>
-      <c r="AV1" s="95"/>
-      <c r="AW1" s="95"/>
-      <c r="AX1" s="95"/>
-      <c r="AY1" s="95"/>
-      <c r="AZ1" s="95"/>
-      <c r="BA1" s="96" t="s">
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="90"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="96"/>
-      <c r="BC1" s="96"/>
-      <c r="BD1" s="92">
+      <c r="BB1" s="89"/>
+      <c r="BC1" s="89"/>
+      <c r="BD1" s="91">
         <v>45000</v>
       </c>
-      <c r="BE1" s="92"/>
-      <c r="BF1" s="92"/>
-      <c r="BG1" s="92"/>
-      <c r="BH1" s="92"/>
-      <c r="BI1" s="92"/>
+      <c r="BE1" s="91"/>
+      <c r="BF1" s="91"/>
+      <c r="BG1" s="91"/>
+      <c r="BH1" s="91"/>
+      <c r="BI1" s="91"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -12788,78 +12838,78 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="96" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="96" t="s">
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="95" t="str">
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="90" t="str">
         <f>クラス仕様!G5</f>
         <v>SearchResultServlet</v>
       </c>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="95"/>
-      <c r="AH2" s="95"/>
-      <c r="AI2" s="95"/>
-      <c r="AJ2" s="95"/>
-      <c r="AK2" s="95"/>
-      <c r="AL2" s="95"/>
-      <c r="AM2" s="95"/>
-      <c r="AN2" s="95"/>
-      <c r="AO2" s="95"/>
-      <c r="AP2" s="95"/>
-      <c r="AQ2" s="96" t="s">
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="96"/>
-      <c r="AS2" s="96"/>
-      <c r="AT2" s="95"/>
-      <c r="AU2" s="95"/>
-      <c r="AV2" s="95"/>
-      <c r="AW2" s="95"/>
-      <c r="AX2" s="95"/>
-      <c r="AY2" s="95"/>
-      <c r="AZ2" s="95"/>
-      <c r="BA2" s="96" t="s">
+      <c r="AR2" s="89"/>
+      <c r="AS2" s="89"/>
+      <c r="AT2" s="90"/>
+      <c r="AU2" s="90"/>
+      <c r="AV2" s="90"/>
+      <c r="AW2" s="90"/>
+      <c r="AX2" s="90"/>
+      <c r="AY2" s="90"/>
+      <c r="AZ2" s="90"/>
+      <c r="BA2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="BB2" s="96"/>
-      <c r="BC2" s="96"/>
-      <c r="BD2" s="92"/>
-      <c r="BE2" s="92"/>
-      <c r="BF2" s="92"/>
-      <c r="BG2" s="92"/>
-      <c r="BH2" s="92"/>
-      <c r="BI2" s="92"/>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="89"/>
+      <c r="BD2" s="91"/>
+      <c r="BE2" s="91"/>
+      <c r="BF2" s="91"/>
+      <c r="BG2" s="91"/>
+      <c r="BH2" s="91"/>
+      <c r="BI2" s="91"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -13059,71 +13109,71 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="90" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="90"/>
-      <c r="AZ4" s="90"/>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="90"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="90"/>
-      <c r="BG4" s="90"/>
-      <c r="BH4" s="90"/>
-      <c r="BI4" s="90"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="97"/>
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="97"/>
+      <c r="AW4" s="97"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="97"/>
+      <c r="AZ4" s="97"/>
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="97"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="97"/>
+      <c r="BG4" s="97"/>
+      <c r="BH4" s="97"/>
+      <c r="BI4" s="97"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -13323,71 +13373,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="90" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90"/>
-      <c r="AD5" s="90"/>
-      <c r="AE5" s="90"/>
-      <c r="AF5" s="90"/>
-      <c r="AG5" s="90"/>
-      <c r="AH5" s="90"/>
-      <c r="AI5" s="90"/>
-      <c r="AJ5" s="90"/>
-      <c r="AK5" s="90"/>
-      <c r="AL5" s="90"/>
-      <c r="AM5" s="90"/>
-      <c r="AN5" s="90"/>
-      <c r="AO5" s="90"/>
-      <c r="AP5" s="90"/>
-      <c r="AQ5" s="90"/>
-      <c r="AR5" s="90"/>
-      <c r="AS5" s="90"/>
-      <c r="AT5" s="90"/>
-      <c r="AU5" s="90"/>
-      <c r="AV5" s="90"/>
-      <c r="AW5" s="90"/>
-      <c r="AX5" s="90"/>
-      <c r="AY5" s="90"/>
-      <c r="AZ5" s="90"/>
-      <c r="BA5" s="90"/>
-      <c r="BB5" s="90"/>
-      <c r="BC5" s="90"/>
-      <c r="BD5" s="90"/>
-      <c r="BE5" s="90"/>
-      <c r="BF5" s="90"/>
-      <c r="BG5" s="90"/>
-      <c r="BH5" s="90"/>
-      <c r="BI5" s="90"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="97"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="97"/>
+      <c r="AJ5" s="97"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="97"/>
+      <c r="AN5" s="97"/>
+      <c r="AO5" s="97"/>
+      <c r="AP5" s="97"/>
+      <c r="AQ5" s="97"/>
+      <c r="AR5" s="97"/>
+      <c r="AS5" s="97"/>
+      <c r="AT5" s="97"/>
+      <c r="AU5" s="97"/>
+      <c r="AV5" s="97"/>
+      <c r="AW5" s="97"/>
+      <c r="AX5" s="97"/>
+      <c r="AY5" s="97"/>
+      <c r="AZ5" s="97"/>
+      <c r="BA5" s="97"/>
+      <c r="BB5" s="97"/>
+      <c r="BC5" s="97"/>
+      <c r="BD5" s="97"/>
+      <c r="BE5" s="97"/>
+      <c r="BF5" s="97"/>
+      <c r="BG5" s="97"/>
+      <c r="BH5" s="97"/>
+      <c r="BI5" s="97"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -13847,75 +13897,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105" t="s">
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105" t="s">
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="105"/>
-      <c r="S7" s="105"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="105"/>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="105"/>
-      <c r="AA7" s="105"/>
-      <c r="AB7" s="105"/>
-      <c r="AC7" s="105"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="105" t="s">
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="99"/>
+      <c r="X7" s="99"/>
+      <c r="Y7" s="99"/>
+      <c r="Z7" s="99"/>
+      <c r="AA7" s="99"/>
+      <c r="AB7" s="99"/>
+      <c r="AC7" s="99"/>
+      <c r="AD7" s="99"/>
+      <c r="AE7" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="105"/>
-      <c r="AN7" s="105"/>
-      <c r="AO7" s="105"/>
-      <c r="AP7" s="105"/>
-      <c r="AQ7" s="105"/>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="105"/>
-      <c r="AT7" s="105"/>
-      <c r="AU7" s="105"/>
-      <c r="AV7" s="105"/>
-      <c r="AW7" s="105"/>
-      <c r="AX7" s="105"/>
-      <c r="AY7" s="105"/>
-      <c r="AZ7" s="105"/>
-      <c r="BA7" s="105"/>
-      <c r="BB7" s="105"/>
-      <c r="BC7" s="105"/>
-      <c r="BD7" s="105"/>
-      <c r="BE7" s="105"/>
-      <c r="BF7" s="105"/>
-      <c r="BG7" s="105"/>
-      <c r="BH7" s="105"/>
-      <c r="BI7" s="105"/>
+      <c r="AF7" s="99"/>
+      <c r="AG7" s="99"/>
+      <c r="AH7" s="99"/>
+      <c r="AI7" s="99"/>
+      <c r="AJ7" s="99"/>
+      <c r="AK7" s="99"/>
+      <c r="AL7" s="99"/>
+      <c r="AM7" s="99"/>
+      <c r="AN7" s="99"/>
+      <c r="AO7" s="99"/>
+      <c r="AP7" s="99"/>
+      <c r="AQ7" s="99"/>
+      <c r="AR7" s="99"/>
+      <c r="AS7" s="99"/>
+      <c r="AT7" s="99"/>
+      <c r="AU7" s="99"/>
+      <c r="AV7" s="99"/>
+      <c r="AW7" s="99"/>
+      <c r="AX7" s="99"/>
+      <c r="AY7" s="99"/>
+      <c r="AZ7" s="99"/>
+      <c r="BA7" s="99"/>
+      <c r="BB7" s="99"/>
+      <c r="BC7" s="99"/>
+      <c r="BD7" s="99"/>
+      <c r="BE7" s="99"/>
+      <c r="BF7" s="99"/>
+      <c r="BG7" s="99"/>
+      <c r="BH7" s="99"/>
+      <c r="BI7" s="99"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -15447,23 +15497,23 @@
       <c r="IX12" s="1"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
       <c r="P13" s="108" t="s">
         <v>6</v>
       </c>
@@ -26366,29 +26416,11 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="P13:AS13"/>
-    <mergeCell ref="AT13:BI13"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:BI4"/>
@@ -26405,11 +26437,29 @@
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="P13:AS13"/>
+    <mergeCell ref="AT13:BI13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -26426,10 +26476,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IX117"/>
+  <dimension ref="A1:IX116"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A35" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -26440,87 +26490,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="96" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="95" t="str">
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="90" t="str">
         <f>クラス仕様!R1</f>
         <v>商品購入</v>
       </c>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="96" t="s">
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="95" t="str">
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="90" t="str">
         <f>クラス仕様!AE1</f>
         <v>商品検索</v>
       </c>
-      <c r="AF1" s="95"/>
-      <c r="AG1" s="95"/>
-      <c r="AH1" s="95"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="95"/>
-      <c r="AL1" s="95"/>
-      <c r="AM1" s="95"/>
-      <c r="AN1" s="95"/>
-      <c r="AO1" s="95"/>
-      <c r="AP1" s="95"/>
-      <c r="AQ1" s="96" t="s">
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="96"/>
-      <c r="AS1" s="96"/>
-      <c r="AT1" s="95" t="s">
-        <v>60</v>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="90" t="s">
+        <v>58</v>
       </c>
-      <c r="AU1" s="95"/>
-      <c r="AV1" s="95"/>
-      <c r="AW1" s="95"/>
-      <c r="AX1" s="95"/>
-      <c r="AY1" s="95"/>
-      <c r="AZ1" s="95"/>
-      <c r="BA1" s="96" t="s">
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="90"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="96"/>
-      <c r="BC1" s="96"/>
-      <c r="BD1" s="92">
+      <c r="BB1" s="89"/>
+      <c r="BC1" s="89"/>
+      <c r="BD1" s="91">
         <v>45537</v>
       </c>
-      <c r="BE1" s="92"/>
-      <c r="BF1" s="92"/>
-      <c r="BG1" s="92"/>
-      <c r="BH1" s="92"/>
-      <c r="BI1" s="92"/>
+      <c r="BE1" s="91"/>
+      <c r="BF1" s="91"/>
+      <c r="BG1" s="91"/>
+      <c r="BH1" s="91"/>
+      <c r="BI1" s="91"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -26720,82 +26770,82 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="96" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="96" t="s">
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="95" t="str">
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="90" t="str">
         <f>クラス仕様!G5</f>
         <v>SearchResultServlet</v>
       </c>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="95"/>
-      <c r="AH2" s="95"/>
-      <c r="AI2" s="95"/>
-      <c r="AJ2" s="95"/>
-      <c r="AK2" s="95"/>
-      <c r="AL2" s="95"/>
-      <c r="AM2" s="95"/>
-      <c r="AN2" s="95"/>
-      <c r="AO2" s="95"/>
-      <c r="AP2" s="95"/>
-      <c r="AQ2" s="96" t="s">
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="96"/>
-      <c r="AS2" s="96"/>
-      <c r="AT2" s="95" t="s">
-        <v>60</v>
+      <c r="AR2" s="89"/>
+      <c r="AS2" s="89"/>
+      <c r="AT2" s="90" t="s">
+        <v>58</v>
       </c>
-      <c r="AU2" s="95"/>
-      <c r="AV2" s="95"/>
-      <c r="AW2" s="95"/>
-      <c r="AX2" s="95"/>
-      <c r="AY2" s="95"/>
-      <c r="AZ2" s="95"/>
-      <c r="BA2" s="96" t="s">
+      <c r="AU2" s="90"/>
+      <c r="AV2" s="90"/>
+      <c r="AW2" s="90"/>
+      <c r="AX2" s="90"/>
+      <c r="AY2" s="90"/>
+      <c r="AZ2" s="90"/>
+      <c r="BA2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="BB2" s="96"/>
-      <c r="BC2" s="96"/>
-      <c r="BD2" s="92">
-        <v>45559</v>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="89"/>
+      <c r="BD2" s="91">
+        <v>45566</v>
       </c>
-      <c r="BE2" s="92"/>
-      <c r="BF2" s="92"/>
-      <c r="BG2" s="92"/>
-      <c r="BH2" s="92"/>
-      <c r="BI2" s="92"/>
+      <c r="BE2" s="91"/>
+      <c r="BF2" s="91"/>
+      <c r="BG2" s="91"/>
+      <c r="BH2" s="91"/>
+      <c r="BI2" s="91"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -26995,71 +27045,71 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="90" t="s">
-        <v>78</v>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97" t="s">
+        <v>147</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="90"/>
-      <c r="AZ4" s="90"/>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="90"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="90"/>
-      <c r="BG4" s="90"/>
-      <c r="BH4" s="90"/>
-      <c r="BI4" s="90"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="97"/>
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="97"/>
+      <c r="AW4" s="97"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="97"/>
+      <c r="AZ4" s="97"/>
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="97"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="97"/>
+      <c r="BG4" s="97"/>
+      <c r="BH4" s="97"/>
+      <c r="BI4" s="97"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -27259,71 +27309,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="90" t="s">
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90"/>
-      <c r="AD5" s="90"/>
-      <c r="AE5" s="90"/>
-      <c r="AF5" s="90"/>
-      <c r="AG5" s="90"/>
-      <c r="AH5" s="90"/>
-      <c r="AI5" s="90"/>
-      <c r="AJ5" s="90"/>
-      <c r="AK5" s="90"/>
-      <c r="AL5" s="90"/>
-      <c r="AM5" s="90"/>
-      <c r="AN5" s="90"/>
-      <c r="AO5" s="90"/>
-      <c r="AP5" s="90"/>
-      <c r="AQ5" s="90"/>
-      <c r="AR5" s="90"/>
-      <c r="AS5" s="90"/>
-      <c r="AT5" s="90"/>
-      <c r="AU5" s="90"/>
-      <c r="AV5" s="90"/>
-      <c r="AW5" s="90"/>
-      <c r="AX5" s="90"/>
-      <c r="AY5" s="90"/>
-      <c r="AZ5" s="90"/>
-      <c r="BA5" s="90"/>
-      <c r="BB5" s="90"/>
-      <c r="BC5" s="90"/>
-      <c r="BD5" s="90"/>
-      <c r="BE5" s="90"/>
-      <c r="BF5" s="90"/>
-      <c r="BG5" s="90"/>
-      <c r="BH5" s="90"/>
-      <c r="BI5" s="90"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="97"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="97"/>
+      <c r="AJ5" s="97"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="97"/>
+      <c r="AN5" s="97"/>
+      <c r="AO5" s="97"/>
+      <c r="AP5" s="97"/>
+      <c r="AQ5" s="97"/>
+      <c r="AR5" s="97"/>
+      <c r="AS5" s="97"/>
+      <c r="AT5" s="97"/>
+      <c r="AU5" s="97"/>
+      <c r="AV5" s="97"/>
+      <c r="AW5" s="97"/>
+      <c r="AX5" s="97"/>
+      <c r="AY5" s="97"/>
+      <c r="AZ5" s="97"/>
+      <c r="BA5" s="97"/>
+      <c r="BB5" s="97"/>
+      <c r="BC5" s="97"/>
+      <c r="BD5" s="97"/>
+      <c r="BE5" s="97"/>
+      <c r="BF5" s="97"/>
+      <c r="BG5" s="97"/>
+      <c r="BH5" s="97"/>
+      <c r="BI5" s="97"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -27783,75 +27833,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105" t="s">
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105" t="s">
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="105"/>
-      <c r="S7" s="105"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="105"/>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="105"/>
-      <c r="AA7" s="105"/>
-      <c r="AB7" s="105"/>
-      <c r="AC7" s="105"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="105" t="s">
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="99"/>
+      <c r="X7" s="99"/>
+      <c r="Y7" s="99"/>
+      <c r="Z7" s="99"/>
+      <c r="AA7" s="99"/>
+      <c r="AB7" s="99"/>
+      <c r="AC7" s="99"/>
+      <c r="AD7" s="99"/>
+      <c r="AE7" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="105"/>
-      <c r="AN7" s="105"/>
-      <c r="AO7" s="105"/>
-      <c r="AP7" s="105"/>
-      <c r="AQ7" s="105"/>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="105"/>
-      <c r="AT7" s="105"/>
-      <c r="AU7" s="105"/>
-      <c r="AV7" s="105"/>
-      <c r="AW7" s="105"/>
-      <c r="AX7" s="105"/>
-      <c r="AY7" s="105"/>
-      <c r="AZ7" s="105"/>
-      <c r="BA7" s="105"/>
-      <c r="BB7" s="105"/>
-      <c r="BC7" s="105"/>
-      <c r="BD7" s="105"/>
-      <c r="BE7" s="105"/>
-      <c r="BF7" s="105"/>
-      <c r="BG7" s="105"/>
-      <c r="BH7" s="105"/>
-      <c r="BI7" s="105"/>
+      <c r="AF7" s="99"/>
+      <c r="AG7" s="99"/>
+      <c r="AH7" s="99"/>
+      <c r="AI7" s="99"/>
+      <c r="AJ7" s="99"/>
+      <c r="AK7" s="99"/>
+      <c r="AL7" s="99"/>
+      <c r="AM7" s="99"/>
+      <c r="AN7" s="99"/>
+      <c r="AO7" s="99"/>
+      <c r="AP7" s="99"/>
+      <c r="AQ7" s="99"/>
+      <c r="AR7" s="99"/>
+      <c r="AS7" s="99"/>
+      <c r="AT7" s="99"/>
+      <c r="AU7" s="99"/>
+      <c r="AV7" s="99"/>
+      <c r="AW7" s="99"/>
+      <c r="AX7" s="99"/>
+      <c r="AY7" s="99"/>
+      <c r="AZ7" s="99"/>
+      <c r="BA7" s="99"/>
+      <c r="BB7" s="99"/>
+      <c r="BC7" s="99"/>
+      <c r="BD7" s="99"/>
+      <c r="BE7" s="99"/>
+      <c r="BF7" s="99"/>
+      <c r="BG7" s="99"/>
+      <c r="BH7" s="99"/>
+      <c r="BI7" s="99"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -29665,7 +29715,7 @@
       <c r="N14" s="42"/>
       <c r="O14" s="43"/>
       <c r="P14" s="44" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="45"/>
       <c r="R14" s="37"/>
@@ -29928,7 +29978,7 @@
       <c r="O15" s="47"/>
       <c r="P15" s="44"/>
       <c r="Q15" s="45" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R15" s="37"/>
       <c r="S15" s="37"/>
@@ -30190,7 +30240,7 @@
       <c r="O16" s="47"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="45" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="R16" s="37"/>
       <c r="S16" s="37"/>
@@ -30452,7 +30502,7 @@
       <c r="O17" s="47"/>
       <c r="P17" s="44"/>
       <c r="Q17" s="45" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="R17" s="37"/>
       <c r="S17" s="37"/>
@@ -30973,7 +31023,7 @@
       <c r="N19" s="37"/>
       <c r="O19" s="47"/>
       <c r="P19" s="44" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="40"/>
       <c r="R19" s="37"/>
@@ -31220,7 +31270,7 @@
     </row>
     <row r="20" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -31238,7 +31288,7 @@
       <c r="O20" s="47"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="40" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R20" s="37"/>
       <c r="S20" s="37"/>
@@ -31500,7 +31550,7 @@
       <c r="O21" s="47"/>
       <c r="P21" s="44"/>
       <c r="Q21" s="40" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R21" s="37"/>
       <c r="S21" s="37"/>
@@ -31746,7 +31796,7 @@
     </row>
     <row r="22" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -31764,7 +31814,7 @@
       <c r="O22" s="47"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="40" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R22" s="37"/>
       <c r="S22" s="37"/>
@@ -32026,7 +32076,7 @@
       <c r="O23" s="47"/>
       <c r="P23" s="44"/>
       <c r="Q23" s="40" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R23" s="37"/>
       <c r="S23" s="37"/>
@@ -32547,7 +32597,7 @@
       <c r="N25" s="37"/>
       <c r="O25" s="47"/>
       <c r="P25" s="44" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="Q25" s="45"/>
       <c r="R25" s="37"/>
@@ -32810,7 +32860,7 @@
       <c r="O26" s="47"/>
       <c r="P26" s="44"/>
       <c r="Q26" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R26" s="37"/>
       <c r="S26" s="37"/>
@@ -33593,7 +33643,7 @@
       <c r="N29" s="37"/>
       <c r="O29" s="47"/>
       <c r="P29" s="44" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="Q29" s="38"/>
       <c r="R29" s="38"/>
@@ -33856,7 +33906,7 @@
       <c r="O30" s="47"/>
       <c r="P30" s="44"/>
       <c r="Q30" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="S30" s="37"/>
       <c r="T30" s="37"/>
@@ -34117,7 +34167,7 @@
       <c r="O31" s="47"/>
       <c r="P31" s="38"/>
       <c r="Q31" s="38" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="S31" s="37"/>
       <c r="T31" s="37"/>
@@ -34379,7 +34429,7 @@
       <c r="P32" s="38"/>
       <c r="Q32" s="38"/>
       <c r="R32" s="39" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="S32" s="37"/>
       <c r="T32" s="37"/>
@@ -34624,7 +34674,7 @@
     </row>
     <row r="33" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -34642,7 +34692,7 @@
       <c r="O33" s="47"/>
       <c r="P33" s="44"/>
       <c r="R33" s="2" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="U33" s="37"/>
       <c r="V33" s="37"/>
@@ -34670,7 +34720,7 @@
       <c r="AR33" s="37"/>
       <c r="AS33" s="37"/>
       <c r="AT33" s="44" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AU33" s="40"/>
       <c r="AV33" s="37"/>
@@ -34902,8 +34952,8 @@
       <c r="N34" s="37"/>
       <c r="O34" s="47"/>
       <c r="P34" s="44"/>
-      <c r="S34" s="2" t="s">
-        <v>117</v>
+      <c r="S34" s="38" t="s">
+        <v>103</v>
       </c>
       <c r="U34" s="37"/>
       <c r="V34" s="37"/>
@@ -35165,7 +35215,7 @@
       <c r="P35" s="44"/>
       <c r="R35" s="22"/>
       <c r="S35" s="38" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="T35" s="38"/>
       <c r="U35" s="37"/>
@@ -35195,7 +35245,7 @@
       <c r="AS35" s="37"/>
       <c r="AT35" s="44"/>
       <c r="AU35" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AV35" s="37"/>
       <c r="AW35" s="37"/>
@@ -35428,7 +35478,7 @@
       <c r="P36" s="44"/>
       <c r="R36" s="22"/>
       <c r="S36" s="38" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="U36" s="37"/>
       <c r="V36" s="37"/>
@@ -35686,10 +35736,6 @@
       <c r="N37" s="37"/>
       <c r="O37" s="47"/>
       <c r="P37" s="44"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="38" t="s">
-        <v>98</v>
-      </c>
       <c r="U37" s="37"/>
       <c r="V37" s="37"/>
       <c r="W37" s="37"/>
@@ -35716,8 +35762,7 @@
       <c r="AR37" s="37"/>
       <c r="AS37" s="37"/>
       <c r="AT37" s="44"/>
-      <c r="AU37" s="37"/>
-      <c r="AV37" s="37"/>
+      <c r="AV37" s="40"/>
       <c r="AW37" s="37"/>
       <c r="AX37" s="37"/>
       <c r="AY37" s="37"/>
@@ -35930,7 +35975,9 @@
       <c r="IX37" s="1"/>
     </row>
     <row r="38" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="44"/>
+      <c r="A38" s="44" t="s">
+        <v>92</v>
+      </c>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -35945,7 +35992,11 @@
       <c r="M38" s="37"/>
       <c r="N38" s="37"/>
       <c r="O38" s="47"/>
-      <c r="P38" s="44"/>
+      <c r="P38" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
       <c r="U38" s="37"/>
       <c r="V38" s="37"/>
       <c r="W38" s="37"/>
@@ -35972,6 +36023,7 @@
       <c r="AR38" s="37"/>
       <c r="AS38" s="37"/>
       <c r="AT38" s="44"/>
+      <c r="AU38" s="40"/>
       <c r="AV38" s="40"/>
       <c r="AW38" s="37"/>
       <c r="AX38" s="37"/>
@@ -36185,9 +36237,7 @@
       <c r="IX38" s="1"/>
     </row>
     <row r="39" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="44" t="s">
-        <v>97</v>
-      </c>
+      <c r="A39" s="44"/>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -36202,8 +36252,9 @@
       <c r="M39" s="37"/>
       <c r="N39" s="37"/>
       <c r="O39" s="47"/>
-      <c r="P39" s="38" t="s">
-        <v>120</v>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38" t="s">
+        <v>109</v>
       </c>
       <c r="R39" s="37"/>
       <c r="S39" s="37"/>
@@ -36464,7 +36515,7 @@
       <c r="O40" s="47"/>
       <c r="P40" s="38"/>
       <c r="Q40" s="38" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="R40" s="37"/>
       <c r="S40" s="37"/>
@@ -36725,7 +36776,7 @@
       <c r="O41" s="47"/>
       <c r="P41" s="38"/>
       <c r="Q41" s="38" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="R41" s="37"/>
       <c r="S41" s="37"/>
@@ -36985,10 +37036,10 @@
       <c r="N42" s="37"/>
       <c r="O42" s="47"/>
       <c r="P42" s="38"/>
-      <c r="Q42" s="38" t="s">
-        <v>123</v>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="37" t="s">
+        <v>71</v>
       </c>
-      <c r="R42" s="37"/>
       <c r="S42" s="37"/>
       <c r="U42" s="37"/>
       <c r="V42" s="37"/>
@@ -37248,10 +37299,9 @@
       <c r="P43" s="38"/>
       <c r="Q43" s="38"/>
       <c r="R43" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S43" s="37"/>
-      <c r="U43" s="37"/>
       <c r="V43" s="37"/>
       <c r="W43" s="37"/>
       <c r="X43" s="37"/>
@@ -37509,7 +37559,7 @@
       <c r="P44" s="38"/>
       <c r="Q44" s="38"/>
       <c r="R44" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S44" s="37"/>
       <c r="V44" s="37"/>
@@ -37767,11 +37817,11 @@
       <c r="N45" s="37"/>
       <c r="O45" s="47"/>
       <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="37" t="s">
-        <v>75</v>
+      <c r="Q45" s="33" t="s">
+        <v>112</v>
       </c>
-      <c r="S45" s="37"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
       <c r="V45" s="37"/>
       <c r="W45" s="37"/>
       <c r="X45" s="37"/>
@@ -38026,11 +38076,11 @@
       <c r="M46" s="37"/>
       <c r="N46" s="37"/>
       <c r="O46" s="47"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="33" t="s">
-        <v>124</v>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="36" t="s">
+        <v>115</v>
       </c>
-      <c r="R46" s="36"/>
       <c r="S46" s="36"/>
       <c r="V46" s="37"/>
       <c r="W46" s="37"/>
@@ -38288,10 +38338,10 @@
       <c r="O47" s="47"/>
       <c r="P47" s="37"/>
       <c r="Q47" s="13"/>
-      <c r="R47" s="36" t="s">
-        <v>127</v>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36" t="s">
+        <v>63</v>
       </c>
-      <c r="S47" s="36"/>
       <c r="V47" s="37"/>
       <c r="W47" s="37"/>
       <c r="X47" s="37"/>
@@ -38547,10 +38597,10 @@
       <c r="N48" s="37"/>
       <c r="O48" s="47"/>
       <c r="P48" s="37"/>
-      <c r="Q48" s="13"/>
+      <c r="Q48" s="33"/>
       <c r="R48" s="36"/>
-      <c r="S48" s="36" t="s">
-        <v>65</v>
+      <c r="S48" s="33" t="s">
+        <v>64</v>
       </c>
       <c r="V48" s="37"/>
       <c r="W48" s="37"/>
@@ -38810,7 +38860,7 @@
       <c r="Q49" s="33"/>
       <c r="R49" s="36"/>
       <c r="S49" s="33" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="V49" s="37"/>
       <c r="W49" s="37"/>
@@ -39068,10 +39118,10 @@
       <c r="O50" s="47"/>
       <c r="P50" s="37"/>
       <c r="Q50" s="33"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="33" t="s">
-        <v>72</v>
+      <c r="R50" s="36" t="s">
+        <v>116</v>
       </c>
+      <c r="S50" s="36"/>
       <c r="V50" s="37"/>
       <c r="W50" s="37"/>
       <c r="X50" s="37"/>
@@ -39096,7 +39146,9 @@
       <c r="AQ50" s="37"/>
       <c r="AR50" s="37"/>
       <c r="AS50" s="37"/>
-      <c r="AT50" s="44"/>
+      <c r="AT50" s="44" t="s">
+        <v>113</v>
+      </c>
       <c r="AU50" s="40"/>
       <c r="AV50" s="40"/>
       <c r="AW50" s="37"/>
@@ -39328,10 +39380,10 @@
       <c r="O51" s="47"/>
       <c r="P51" s="37"/>
       <c r="Q51" s="33"/>
-      <c r="R51" s="36" t="s">
-        <v>128</v>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36" t="s">
+        <v>65</v>
       </c>
-      <c r="S51" s="36"/>
       <c r="V51" s="37"/>
       <c r="W51" s="37"/>
       <c r="X51" s="37"/>
@@ -39356,9 +39408,7 @@
       <c r="AQ51" s="37"/>
       <c r="AR51" s="37"/>
       <c r="AS51" s="37"/>
-      <c r="AT51" s="44" t="s">
-        <v>125</v>
-      </c>
+      <c r="AT51" s="44"/>
       <c r="AU51" s="40"/>
       <c r="AV51" s="40"/>
       <c r="AW51" s="37"/>
@@ -39592,7 +39642,7 @@
       <c r="Q52" s="33"/>
       <c r="R52" s="36"/>
       <c r="S52" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V52" s="37"/>
       <c r="W52" s="37"/>
@@ -39849,9 +39899,11 @@
       <c r="N53" s="37"/>
       <c r="O53" s="47"/>
       <c r="P53" s="37"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36" t="s">
+      <c r="Q53" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33" t="s">
         <v>68</v>
       </c>
       <c r="V53" s="37"/>
@@ -40109,13 +40161,11 @@
       <c r="N54" s="37"/>
       <c r="O54" s="47"/>
       <c r="P54" s="37"/>
-      <c r="Q54" s="13" t="s">
-        <v>69</v>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="36" t="s">
+        <v>117</v>
       </c>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33" t="s">
-        <v>70</v>
-      </c>
+      <c r="S54" s="36"/>
       <c r="V54" s="37"/>
       <c r="W54" s="37"/>
       <c r="X54" s="37"/>
@@ -40372,10 +40422,10 @@
       <c r="O55" s="47"/>
       <c r="P55" s="37"/>
       <c r="Q55" s="13"/>
-      <c r="R55" s="36" t="s">
-        <v>129</v>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36" t="s">
+        <v>114</v>
       </c>
-      <c r="S55" s="36"/>
       <c r="V55" s="37"/>
       <c r="W55" s="37"/>
       <c r="X55" s="37"/>
@@ -40634,8 +40684,9 @@
       <c r="Q56" s="13"/>
       <c r="R56" s="36"/>
       <c r="S56" s="36" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
+      <c r="U56" s="36"/>
       <c r="V56" s="37"/>
       <c r="W56" s="37"/>
       <c r="X56" s="37"/>
@@ -40891,10 +40942,10 @@
       <c r="N57" s="37"/>
       <c r="O57" s="47"/>
       <c r="P57" s="37"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="36" t="s">
-        <v>83</v>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="U57" s="36"/>
       <c r="V57" s="37"/>
@@ -41153,10 +41204,11 @@
       <c r="O58" s="47"/>
       <c r="P58" s="37"/>
       <c r="Q58" s="37"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="13" t="s">
-        <v>71</v>
+      <c r="R58" s="37" t="s">
+        <v>148</v>
       </c>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
       <c r="U58" s="36"/>
       <c r="V58" s="37"/>
       <c r="W58" s="37"/>
@@ -41414,9 +41466,7 @@
       <c r="O59" s="47"/>
       <c r="P59" s="37"/>
       <c r="Q59" s="37"/>
-      <c r="R59" s="37" t="s">
-        <v>102</v>
-      </c>
+      <c r="R59" s="37"/>
       <c r="S59" s="13"/>
       <c r="T59" s="13"/>
       <c r="U59" s="36"/>
@@ -41674,12 +41724,14 @@
       <c r="M60" s="37"/>
       <c r="N60" s="37"/>
       <c r="O60" s="47"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="36"/>
+      <c r="P60" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
       <c r="V60" s="37"/>
       <c r="W60" s="37"/>
       <c r="X60" s="37"/>
@@ -41934,10 +41986,10 @@
       <c r="M61" s="37"/>
       <c r="N61" s="37"/>
       <c r="O61" s="47"/>
-      <c r="P61" s="44" t="s">
-        <v>130</v>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="38" t="s">
+        <v>53</v>
       </c>
-      <c r="Q61" s="38"/>
       <c r="R61" s="38"/>
       <c r="S61" s="37"/>
       <c r="T61" s="37"/>
@@ -42200,7 +42252,7 @@
       <c r="Q62" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="R62" s="38"/>
+      <c r="R62" s="37"/>
       <c r="S62" s="37"/>
       <c r="T62" s="37"/>
       <c r="U62" s="37"/>
@@ -42459,8 +42511,8 @@
       <c r="N63" s="37"/>
       <c r="O63" s="47"/>
       <c r="P63" s="44"/>
-      <c r="Q63" s="38" t="s">
-        <v>57</v>
+      <c r="Q63" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="R63" s="37"/>
       <c r="S63" s="37"/>
@@ -42721,10 +42773,8 @@
       <c r="N64" s="37"/>
       <c r="O64" s="47"/>
       <c r="P64" s="44"/>
-      <c r="Q64" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="R64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="39"/>
       <c r="S64" s="37"/>
       <c r="T64" s="37"/>
       <c r="U64" s="37"/>
@@ -42967,7 +43017,9 @@
       <c r="IX64" s="1"/>
     </row>
     <row r="65" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="44"/>
+      <c r="A65" s="44" t="s">
+        <v>78</v>
+      </c>
       <c r="B65" s="37"/>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
@@ -42982,7 +43034,9 @@
       <c r="M65" s="37"/>
       <c r="N65" s="37"/>
       <c r="O65" s="47"/>
-      <c r="P65" s="44"/>
+      <c r="P65" s="39" t="s">
+        <v>149</v>
+      </c>
       <c r="Q65" s="37"/>
       <c r="R65" s="39"/>
       <c r="S65" s="37"/>
@@ -43227,9 +43281,7 @@
       <c r="IX65" s="1"/>
     </row>
     <row r="66" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="44" t="s">
-        <v>81</v>
-      </c>
+      <c r="A66" s="44"/>
       <c r="B66" s="37"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
@@ -43244,13 +43296,13 @@
       <c r="M66" s="37"/>
       <c r="N66" s="37"/>
       <c r="O66" s="47"/>
-      <c r="P66" s="39" t="s">
-        <v>155</v>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="37" t="s">
+        <v>141</v>
       </c>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="39"/>
+      <c r="R66" s="37"/>
       <c r="S66" s="37"/>
-      <c r="T66" s="37"/>
+      <c r="T66" s="39"/>
       <c r="U66" s="37"/>
       <c r="V66" s="37"/>
       <c r="W66" s="37"/>
@@ -43507,10 +43559,10 @@
       <c r="N67" s="37"/>
       <c r="O67" s="47"/>
       <c r="P67" s="39"/>
-      <c r="Q67" s="37" t="s">
-        <v>157</v>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37" t="s">
+        <v>140</v>
       </c>
-      <c r="R67" s="37"/>
       <c r="S67" s="37"/>
       <c r="T67" s="39"/>
       <c r="U67" s="37"/>
@@ -43771,7 +43823,7 @@
       <c r="P68" s="39"/>
       <c r="Q68" s="37"/>
       <c r="R68" s="37" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="S68" s="37"/>
       <c r="T68" s="39"/>
@@ -44032,12 +44084,10 @@
       <c r="O69" s="47"/>
       <c r="P69" s="39"/>
       <c r="Q69" s="37"/>
-      <c r="R69" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="S69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="40"/>
       <c r="T69" s="39"/>
-      <c r="U69" s="37"/>
+      <c r="U69" s="40"/>
       <c r="V69" s="37"/>
       <c r="W69" s="37"/>
       <c r="X69" s="37"/>
@@ -44292,7 +44342,9 @@
       <c r="M70" s="37"/>
       <c r="N70" s="37"/>
       <c r="O70" s="47"/>
-      <c r="P70" s="39"/>
+      <c r="P70" s="39" t="s">
+        <v>119</v>
+      </c>
       <c r="Q70" s="37"/>
       <c r="R70" s="37"/>
       <c r="S70" s="40"/>
@@ -44552,13 +44604,13 @@
       <c r="M71" s="37"/>
       <c r="N71" s="37"/>
       <c r="O71" s="47"/>
-      <c r="P71" s="39" t="s">
-        <v>131</v>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="37" t="s">
+        <v>54</v>
       </c>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37"/>
+      <c r="R71" s="40"/>
       <c r="S71" s="40"/>
-      <c r="T71" s="39"/>
+      <c r="T71" s="40"/>
       <c r="U71" s="40"/>
       <c r="V71" s="37"/>
       <c r="W71" s="37"/>
@@ -44584,7 +44636,7 @@
       <c r="AQ71" s="37"/>
       <c r="AR71" s="37"/>
       <c r="AS71" s="37"/>
-      <c r="AT71" s="44"/>
+      <c r="AT71" s="48"/>
       <c r="AU71" s="40"/>
       <c r="AV71" s="40"/>
       <c r="AW71" s="37"/>
@@ -44814,14 +44866,14 @@
       <c r="M72" s="37"/>
       <c r="N72" s="37"/>
       <c r="O72" s="47"/>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="37" t="s">
+      <c r="P72" s="44"/>
+      <c r="Q72" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="R72" s="40"/>
-      <c r="S72" s="40"/>
-      <c r="T72" s="40"/>
-      <c r="U72" s="40"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
       <c r="V72" s="37"/>
       <c r="W72" s="37"/>
       <c r="X72" s="37"/>
@@ -44846,7 +44898,7 @@
       <c r="AQ72" s="37"/>
       <c r="AR72" s="37"/>
       <c r="AS72" s="37"/>
-      <c r="AT72" s="48"/>
+      <c r="AT72" s="44"/>
       <c r="AU72" s="40"/>
       <c r="AV72" s="40"/>
       <c r="AW72" s="37"/>
@@ -45077,8 +45129,8 @@
       <c r="N73" s="37"/>
       <c r="O73" s="47"/>
       <c r="P73" s="44"/>
-      <c r="Q73" s="40" t="s">
-        <v>58</v>
+      <c r="Q73" s="37" t="s">
+        <v>57</v>
       </c>
       <c r="R73" s="37"/>
       <c r="S73" s="37"/>
@@ -45339,9 +45391,7 @@
       <c r="N74" s="37"/>
       <c r="O74" s="47"/>
       <c r="P74" s="44"/>
-      <c r="Q74" s="37" t="s">
-        <v>59</v>
-      </c>
+      <c r="Q74" s="37"/>
       <c r="R74" s="37"/>
       <c r="S74" s="37"/>
       <c r="T74" s="37"/>
@@ -45600,7 +45650,9 @@
       <c r="M75" s="37"/>
       <c r="N75" s="37"/>
       <c r="O75" s="47"/>
-      <c r="P75" s="44"/>
+      <c r="P75" s="44" t="s">
+        <v>123</v>
+      </c>
       <c r="Q75" s="37"/>
       <c r="R75" s="37"/>
       <c r="S75" s="37"/>
@@ -45860,10 +45912,10 @@
       <c r="M76" s="37"/>
       <c r="N76" s="37"/>
       <c r="O76" s="47"/>
-      <c r="P76" s="44" t="s">
-        <v>136</v>
+      <c r="P76" s="44"/>
+      <c r="Q76" s="37" t="s">
+        <v>59</v>
       </c>
-      <c r="Q76" s="37"/>
       <c r="R76" s="37"/>
       <c r="S76" s="37"/>
       <c r="T76" s="37"/>
@@ -46124,7 +46176,7 @@
       <c r="O77" s="47"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R77" s="37"/>
       <c r="S77" s="37"/>
@@ -46386,7 +46438,7 @@
       <c r="O78" s="47"/>
       <c r="P78" s="44"/>
       <c r="Q78" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R78" s="37"/>
       <c r="S78" s="37"/>
@@ -46647,9 +46699,7 @@
       <c r="N79" s="37"/>
       <c r="O79" s="47"/>
       <c r="P79" s="44"/>
-      <c r="Q79" s="37" t="s">
-        <v>63</v>
-      </c>
+      <c r="Q79" s="37"/>
       <c r="R79" s="37"/>
       <c r="S79" s="37"/>
       <c r="T79" s="37"/>
@@ -46908,8 +46958,10 @@
       <c r="M80" s="37"/>
       <c r="N80" s="37"/>
       <c r="O80" s="47"/>
-      <c r="P80" s="44"/>
-      <c r="Q80" s="37"/>
+      <c r="P80" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q80" s="39"/>
       <c r="R80" s="37"/>
       <c r="S80" s="37"/>
       <c r="T80" s="37"/>
@@ -47168,10 +47220,10 @@
       <c r="M81" s="37"/>
       <c r="N81" s="37"/>
       <c r="O81" s="47"/>
-      <c r="P81" s="44" t="s">
-        <v>137</v>
+      <c r="P81" s="44"/>
+      <c r="Q81" s="37" t="s">
+        <v>59</v>
       </c>
-      <c r="Q81" s="39"/>
       <c r="R81" s="37"/>
       <c r="S81" s="37"/>
       <c r="T81" s="37"/>
@@ -47432,7 +47484,7 @@
       <c r="O82" s="47"/>
       <c r="P82" s="44"/>
       <c r="Q82" s="37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R82" s="37"/>
       <c r="S82" s="37"/>
@@ -47694,7 +47746,7 @@
       <c r="O83" s="47"/>
       <c r="P83" s="44"/>
       <c r="Q83" s="37" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="R83" s="37"/>
       <c r="S83" s="37"/>
@@ -47955,9 +48007,7 @@
       <c r="N84" s="37"/>
       <c r="O84" s="47"/>
       <c r="P84" s="44"/>
-      <c r="Q84" s="37" t="s">
-        <v>138</v>
-      </c>
+      <c r="Q84" s="39"/>
       <c r="R84" s="37"/>
       <c r="S84" s="37"/>
       <c r="T84" s="37"/>
@@ -48216,7 +48266,9 @@
       <c r="M85" s="37"/>
       <c r="N85" s="37"/>
       <c r="O85" s="47"/>
-      <c r="P85" s="44"/>
+      <c r="P85" s="44" t="s">
+        <v>126</v>
+      </c>
       <c r="Q85" s="39"/>
       <c r="R85" s="37"/>
       <c r="S85" s="37"/>
@@ -48476,10 +48528,10 @@
       <c r="M86" s="37"/>
       <c r="N86" s="37"/>
       <c r="O86" s="47"/>
-      <c r="P86" s="44" t="s">
-        <v>139</v>
+      <c r="P86" s="44"/>
+      <c r="Q86" s="37" t="s">
+        <v>74</v>
       </c>
-      <c r="Q86" s="39"/>
       <c r="R86" s="37"/>
       <c r="S86" s="37"/>
       <c r="T86" s="37"/>
@@ -48740,7 +48792,7 @@
       <c r="O87" s="47"/>
       <c r="P87" s="44"/>
       <c r="Q87" s="37" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="R87" s="37"/>
       <c r="S87" s="37"/>
@@ -49001,9 +49053,7 @@
       <c r="N88" s="37"/>
       <c r="O88" s="47"/>
       <c r="P88" s="44"/>
-      <c r="Q88" s="37" t="s">
-        <v>140</v>
-      </c>
+      <c r="Q88" s="39"/>
       <c r="R88" s="37"/>
       <c r="S88" s="37"/>
       <c r="T88" s="37"/>
@@ -49247,7 +49297,9 @@
       <c r="IX88" s="1"/>
     </row>
     <row r="89" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="44"/>
+      <c r="A89" s="44" t="s">
+        <v>128</v>
+      </c>
       <c r="B89" s="37"/>
       <c r="C89" s="37"/>
       <c r="D89" s="37"/>
@@ -49262,7 +49314,9 @@
       <c r="M89" s="37"/>
       <c r="N89" s="37"/>
       <c r="O89" s="47"/>
-      <c r="P89" s="44"/>
+      <c r="P89" s="44" t="s">
+        <v>132</v>
+      </c>
       <c r="Q89" s="39"/>
       <c r="R89" s="37"/>
       <c r="S89" s="37"/>
@@ -49292,7 +49346,9 @@
       <c r="AQ89" s="37"/>
       <c r="AR89" s="37"/>
       <c r="AS89" s="37"/>
-      <c r="AT89" s="44"/>
+      <c r="AT89" s="44" t="s">
+        <v>133</v>
+      </c>
       <c r="AU89" s="40"/>
       <c r="AV89" s="40"/>
       <c r="AW89" s="37"/>
@@ -49507,9 +49563,6 @@
       <c r="IX89" s="1"/>
     </row>
     <row r="90" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="44" t="s">
-        <v>141</v>
-      </c>
       <c r="B90" s="37"/>
       <c r="C90" s="37"/>
       <c r="D90" s="37"/>
@@ -49524,10 +49577,10 @@
       <c r="M90" s="37"/>
       <c r="N90" s="37"/>
       <c r="O90" s="47"/>
-      <c r="P90" s="44" t="s">
-        <v>145</v>
+      <c r="P90" s="44"/>
+      <c r="Q90" s="39" t="s">
+        <v>129</v>
       </c>
-      <c r="Q90" s="39"/>
       <c r="R90" s="37"/>
       <c r="S90" s="37"/>
       <c r="T90" s="37"/>
@@ -49556,9 +49609,7 @@
       <c r="AQ90" s="37"/>
       <c r="AR90" s="37"/>
       <c r="AS90" s="37"/>
-      <c r="AT90" s="44" t="s">
-        <v>146</v>
-      </c>
+      <c r="AT90" s="44"/>
       <c r="AU90" s="40"/>
       <c r="AV90" s="40"/>
       <c r="AW90" s="37"/>
@@ -49773,6 +49824,7 @@
       <c r="IX90" s="1"/>
     </row>
     <row r="91" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="44"/>
       <c r="B91" s="37"/>
       <c r="C91" s="37"/>
       <c r="D91" s="37"/>
@@ -49789,7 +49841,7 @@
       <c r="O91" s="47"/>
       <c r="P91" s="44"/>
       <c r="Q91" s="39" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="R91" s="37"/>
       <c r="S91" s="37"/>
@@ -50051,7 +50103,7 @@
       <c r="O92" s="47"/>
       <c r="P92" s="44"/>
       <c r="Q92" s="39" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="R92" s="37"/>
       <c r="S92" s="37"/>
@@ -50312,9 +50364,7 @@
       <c r="N93" s="37"/>
       <c r="O93" s="47"/>
       <c r="P93" s="44"/>
-      <c r="Q93" s="39" t="s">
-        <v>144</v>
-      </c>
+      <c r="Q93" s="39"/>
       <c r="R93" s="37"/>
       <c r="S93" s="37"/>
       <c r="T93" s="37"/>
@@ -50573,7 +50623,9 @@
       <c r="M94" s="37"/>
       <c r="N94" s="37"/>
       <c r="O94" s="47"/>
-      <c r="P94" s="44"/>
+      <c r="P94" s="44" t="s">
+        <v>120</v>
+      </c>
       <c r="Q94" s="39"/>
       <c r="R94" s="37"/>
       <c r="S94" s="37"/>
@@ -50833,10 +50885,10 @@
       <c r="M95" s="37"/>
       <c r="N95" s="37"/>
       <c r="O95" s="47"/>
-      <c r="P95" s="44" t="s">
-        <v>132</v>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="39" t="s">
+        <v>98</v>
       </c>
-      <c r="Q95" s="39"/>
       <c r="R95" s="37"/>
       <c r="S95" s="37"/>
       <c r="T95" s="37"/>
@@ -51097,7 +51149,7 @@
       <c r="O96" s="47"/>
       <c r="P96" s="44"/>
       <c r="Q96" s="39" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="R96" s="37"/>
       <c r="S96" s="37"/>
@@ -51342,7 +51394,9 @@
       <c r="IX96" s="1"/>
     </row>
     <row r="97" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="44"/>
+      <c r="A97" s="44" t="s">
+        <v>101</v>
+      </c>
       <c r="B97" s="37"/>
       <c r="C97" s="37"/>
       <c r="D97" s="37"/>
@@ -51359,7 +51413,7 @@
       <c r="O97" s="47"/>
       <c r="P97" s="44"/>
       <c r="Q97" s="39" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="R97" s="37"/>
       <c r="S97" s="37"/>
@@ -51605,7 +51659,7 @@
     </row>
     <row r="98" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="44" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B98" s="37"/>
       <c r="C98" s="37"/>
@@ -51623,7 +51677,7 @@
       <c r="O98" s="47"/>
       <c r="P98" s="44"/>
       <c r="Q98" s="39" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="R98" s="37"/>
       <c r="S98" s="37"/>
@@ -51869,7 +51923,7 @@
     </row>
     <row r="99" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="44" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B99" s="37"/>
       <c r="C99" s="37"/>
@@ -51887,7 +51941,7 @@
       <c r="O99" s="47"/>
       <c r="P99" s="44"/>
       <c r="Q99" s="39" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="R99" s="37"/>
       <c r="S99" s="37"/>
@@ -52133,7 +52187,7 @@
     </row>
     <row r="100" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="44" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B100" s="37"/>
       <c r="C100" s="37"/>
@@ -52151,7 +52205,7 @@
       <c r="O100" s="47"/>
       <c r="P100" s="44"/>
       <c r="Q100" s="39" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="R100" s="37"/>
       <c r="S100" s="37"/>
@@ -52397,7 +52451,7 @@
     </row>
     <row r="101" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="44" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B101" s="37"/>
       <c r="C101" s="37"/>
@@ -52415,7 +52469,7 @@
       <c r="O101" s="47"/>
       <c r="P101" s="44"/>
       <c r="Q101" s="39" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="R101" s="37"/>
       <c r="S101" s="37"/>
@@ -52660,9 +52714,7 @@
       <c r="IX101" s="1"/>
     </row>
     <row r="102" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="44" t="s">
-        <v>152</v>
-      </c>
+      <c r="A102" s="44"/>
       <c r="B102" s="37"/>
       <c r="C102" s="37"/>
       <c r="D102" s="37"/>
@@ -52678,9 +52730,7 @@
       <c r="N102" s="37"/>
       <c r="O102" s="47"/>
       <c r="P102" s="44"/>
-      <c r="Q102" s="39" t="s">
-        <v>151</v>
-      </c>
+      <c r="Q102" s="39"/>
       <c r="R102" s="37"/>
       <c r="S102" s="37"/>
       <c r="T102" s="37"/>
@@ -52939,9 +52989,11 @@
       <c r="M103" s="37"/>
       <c r="N103" s="37"/>
       <c r="O103" s="47"/>
-      <c r="P103" s="44"/>
-      <c r="Q103" s="39"/>
-      <c r="R103" s="37"/>
+      <c r="P103" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="36"/>
       <c r="S103" s="37"/>
       <c r="T103" s="37"/>
       <c r="U103" s="37"/>
@@ -53199,10 +53251,10 @@
       <c r="M104" s="37"/>
       <c r="N104" s="37"/>
       <c r="O104" s="47"/>
-      <c r="P104" s="33" t="s">
-        <v>133</v>
+      <c r="P104" s="49"/>
+      <c r="Q104" s="36" t="s">
+        <v>150</v>
       </c>
-      <c r="Q104" s="36"/>
       <c r="R104" s="36"/>
       <c r="S104" s="37"/>
       <c r="T104" s="37"/>
@@ -53462,10 +53514,10 @@
       <c r="N105" s="37"/>
       <c r="O105" s="47"/>
       <c r="P105" s="49"/>
-      <c r="Q105" s="36" t="s">
-        <v>134</v>
+      <c r="Q105" s="36"/>
+      <c r="R105" s="36" t="s">
+        <v>63</v>
       </c>
-      <c r="R105" s="36"/>
       <c r="S105" s="37"/>
       <c r="T105" s="37"/>
       <c r="U105" s="37"/>
@@ -53723,10 +53775,10 @@
       <c r="M106" s="37"/>
       <c r="N106" s="37"/>
       <c r="O106" s="47"/>
-      <c r="P106" s="49"/>
+      <c r="P106" s="33"/>
       <c r="Q106" s="36"/>
-      <c r="R106" s="36" t="s">
-        <v>65</v>
+      <c r="R106" s="33" t="s">
+        <v>64</v>
       </c>
       <c r="S106" s="37"/>
       <c r="T106" s="37"/>
@@ -53988,7 +54040,7 @@
       <c r="P107" s="33"/>
       <c r="Q107" s="36"/>
       <c r="R107" s="33" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="S107" s="37"/>
       <c r="T107" s="37"/>
@@ -54248,10 +54300,10 @@
       <c r="N108" s="37"/>
       <c r="O108" s="47"/>
       <c r="P108" s="33"/>
-      <c r="Q108" s="36"/>
-      <c r="R108" s="33" t="s">
-        <v>72</v>
+      <c r="Q108" s="36" t="s">
+        <v>122</v>
       </c>
+      <c r="R108" s="36"/>
       <c r="S108" s="37"/>
       <c r="T108" s="37"/>
       <c r="U108" s="37"/>
@@ -54279,7 +54331,9 @@
       <c r="AQ108" s="37"/>
       <c r="AR108" s="37"/>
       <c r="AS108" s="37"/>
-      <c r="AT108" s="44"/>
+      <c r="AT108" s="44" t="s">
+        <v>79</v>
+      </c>
       <c r="AU108" s="40"/>
       <c r="AV108" s="40"/>
       <c r="AW108" s="37"/>
@@ -54510,10 +54564,10 @@
       <c r="N109" s="37"/>
       <c r="O109" s="47"/>
       <c r="P109" s="33"/>
-      <c r="Q109" s="36" t="s">
-        <v>135</v>
+      <c r="Q109" s="36"/>
+      <c r="R109" s="36" t="s">
+        <v>65</v>
       </c>
-      <c r="R109" s="36"/>
       <c r="S109" s="37"/>
       <c r="T109" s="37"/>
       <c r="U109" s="37"/>
@@ -54541,9 +54595,7 @@
       <c r="AQ109" s="37"/>
       <c r="AR109" s="37"/>
       <c r="AS109" s="37"/>
-      <c r="AT109" s="44" t="s">
-        <v>82</v>
-      </c>
+      <c r="AT109" s="44"/>
       <c r="AU109" s="40"/>
       <c r="AV109" s="40"/>
       <c r="AW109" s="37"/>
@@ -54776,7 +54828,7 @@
       <c r="P110" s="33"/>
       <c r="Q110" s="36"/>
       <c r="R110" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S110" s="37"/>
       <c r="T110" s="37"/>
@@ -55035,9 +55087,11 @@
       <c r="M111" s="37"/>
       <c r="N111" s="37"/>
       <c r="O111" s="47"/>
-      <c r="P111" s="33"/>
-      <c r="Q111" s="36"/>
-      <c r="R111" s="36" t="s">
+      <c r="P111" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q111" s="33"/>
+      <c r="R111" s="33" t="s">
         <v>68</v>
       </c>
       <c r="S111" s="37"/>
@@ -55297,13 +55351,11 @@
       <c r="M112" s="37"/>
       <c r="N112" s="37"/>
       <c r="O112" s="47"/>
-      <c r="P112" s="49" t="s">
-        <v>69</v>
+      <c r="P112" s="49"/>
+      <c r="Q112" s="36" t="s">
+        <v>138</v>
       </c>
-      <c r="Q112" s="33"/>
-      <c r="R112" s="33" t="s">
-        <v>70</v>
-      </c>
+      <c r="R112" s="36"/>
       <c r="S112" s="37"/>
       <c r="T112" s="37"/>
       <c r="U112" s="37"/>
@@ -55562,10 +55614,10 @@
       <c r="N113" s="37"/>
       <c r="O113" s="47"/>
       <c r="P113" s="49"/>
-      <c r="Q113" s="36" t="s">
-        <v>153</v>
+      <c r="Q113" s="36"/>
+      <c r="R113" s="36" t="s">
+        <v>114</v>
       </c>
-      <c r="R113" s="36"/>
       <c r="S113" s="37"/>
       <c r="T113" s="37"/>
       <c r="U113" s="37"/>
@@ -55826,7 +55878,7 @@
       <c r="P114" s="49"/>
       <c r="Q114" s="36"/>
       <c r="R114" s="36" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="S114" s="37"/>
       <c r="T114" s="37"/>
@@ -56070,69 +56122,69 @@
       <c r="IX114" s="1"/>
     </row>
     <row r="115" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="44"/>
-      <c r="B115" s="37"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="37"/>
-      <c r="E115" s="37"/>
-      <c r="F115" s="37"/>
-      <c r="G115" s="37"/>
-      <c r="H115" s="37"/>
-      <c r="I115" s="37"/>
-      <c r="J115" s="37"/>
-      <c r="K115" s="37"/>
-      <c r="L115" s="37"/>
-      <c r="M115" s="37"/>
-      <c r="N115" s="37"/>
-      <c r="O115" s="47"/>
-      <c r="P115" s="49"/>
-      <c r="Q115" s="36"/>
-      <c r="R115" s="36" t="s">
-        <v>83</v>
+      <c r="A115" s="50"/>
+      <c r="B115" s="51"/>
+      <c r="C115" s="51"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="51"/>
+      <c r="F115" s="51"/>
+      <c r="G115" s="51"/>
+      <c r="H115" s="51"/>
+      <c r="I115" s="51"/>
+      <c r="J115" s="51"/>
+      <c r="K115" s="51"/>
+      <c r="L115" s="51"/>
+      <c r="M115" s="51"/>
+      <c r="N115" s="51"/>
+      <c r="O115" s="52"/>
+      <c r="P115" s="50"/>
+      <c r="Q115" s="53"/>
+      <c r="R115" s="54" t="s">
+        <v>139</v>
       </c>
-      <c r="S115" s="37"/>
-      <c r="T115" s="37"/>
-      <c r="U115" s="37"/>
-      <c r="V115" s="37"/>
-      <c r="W115" s="37"/>
-      <c r="X115" s="37"/>
-      <c r="Y115" s="37"/>
-      <c r="Z115" s="37"/>
-      <c r="AA115" s="37"/>
-      <c r="AB115" s="37"/>
-      <c r="AC115" s="37"/>
-      <c r="AD115" s="37"/>
-      <c r="AE115" s="37"/>
-      <c r="AF115" s="37"/>
-      <c r="AG115" s="37"/>
-      <c r="AH115" s="37"/>
-      <c r="AI115" s="37"/>
-      <c r="AJ115" s="37"/>
-      <c r="AK115" s="37"/>
-      <c r="AL115" s="37"/>
-      <c r="AM115" s="37"/>
-      <c r="AN115" s="37"/>
-      <c r="AO115" s="37"/>
-      <c r="AP115" s="37"/>
-      <c r="AQ115" s="37"/>
-      <c r="AR115" s="37"/>
-      <c r="AS115" s="37"/>
-      <c r="AT115" s="44"/>
-      <c r="AU115" s="40"/>
-      <c r="AV115" s="40"/>
-      <c r="AW115" s="37"/>
-      <c r="AX115" s="37"/>
-      <c r="AY115" s="37"/>
-      <c r="AZ115" s="37"/>
-      <c r="BA115" s="37"/>
-      <c r="BB115" s="37"/>
-      <c r="BC115" s="37"/>
-      <c r="BD115" s="37"/>
-      <c r="BE115" s="37"/>
-      <c r="BF115" s="37"/>
-      <c r="BG115" s="37"/>
-      <c r="BH115" s="37"/>
-      <c r="BI115" s="47"/>
+      <c r="S115" s="55"/>
+      <c r="T115" s="55"/>
+      <c r="U115" s="55"/>
+      <c r="V115" s="55"/>
+      <c r="W115" s="55"/>
+      <c r="X115" s="55"/>
+      <c r="Y115" s="55"/>
+      <c r="Z115" s="55"/>
+      <c r="AA115" s="55"/>
+      <c r="AB115" s="55"/>
+      <c r="AC115" s="55"/>
+      <c r="AD115" s="55"/>
+      <c r="AE115" s="55"/>
+      <c r="AF115" s="55"/>
+      <c r="AG115" s="55"/>
+      <c r="AH115" s="55"/>
+      <c r="AI115" s="55"/>
+      <c r="AJ115" s="55"/>
+      <c r="AK115" s="55"/>
+      <c r="AL115" s="55"/>
+      <c r="AM115" s="55"/>
+      <c r="AN115" s="55"/>
+      <c r="AO115" s="55"/>
+      <c r="AP115" s="55"/>
+      <c r="AQ115" s="55"/>
+      <c r="AR115" s="55"/>
+      <c r="AS115" s="55"/>
+      <c r="AT115" s="50"/>
+      <c r="AU115" s="56"/>
+      <c r="AV115" s="56"/>
+      <c r="AW115" s="51"/>
+      <c r="AX115" s="51"/>
+      <c r="AY115" s="51"/>
+      <c r="AZ115" s="51"/>
+      <c r="BA115" s="51"/>
+      <c r="BB115" s="51"/>
+      <c r="BC115" s="51"/>
+      <c r="BD115" s="51"/>
+      <c r="BE115" s="51"/>
+      <c r="BF115" s="51"/>
+      <c r="BG115" s="51"/>
+      <c r="BH115" s="51"/>
+      <c r="BI115" s="52"/>
       <c r="BJ115" s="1"/>
       <c r="BK115" s="1"/>
       <c r="BL115" s="1"/>
@@ -56332,69 +56384,67 @@
       <c r="IX115" s="1"/>
     </row>
     <row r="116" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="50"/>
-      <c r="B116" s="51"/>
-      <c r="C116" s="51"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="51"/>
-      <c r="F116" s="51"/>
-      <c r="G116" s="51"/>
-      <c r="H116" s="51"/>
-      <c r="I116" s="51"/>
-      <c r="J116" s="51"/>
-      <c r="K116" s="51"/>
-      <c r="L116" s="51"/>
-      <c r="M116" s="51"/>
-      <c r="N116" s="51"/>
-      <c r="O116" s="52"/>
-      <c r="P116" s="50"/>
-      <c r="Q116" s="53"/>
-      <c r="R116" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="S116" s="55"/>
-      <c r="T116" s="55"/>
-      <c r="U116" s="55"/>
-      <c r="V116" s="55"/>
-      <c r="W116" s="55"/>
-      <c r="X116" s="55"/>
-      <c r="Y116" s="55"/>
-      <c r="Z116" s="55"/>
-      <c r="AA116" s="55"/>
-      <c r="AB116" s="55"/>
-      <c r="AC116" s="55"/>
-      <c r="AD116" s="55"/>
-      <c r="AE116" s="55"/>
-      <c r="AF116" s="55"/>
-      <c r="AG116" s="55"/>
-      <c r="AH116" s="55"/>
-      <c r="AI116" s="55"/>
-      <c r="AJ116" s="55"/>
-      <c r="AK116" s="55"/>
-      <c r="AL116" s="55"/>
-      <c r="AM116" s="55"/>
-      <c r="AN116" s="55"/>
-      <c r="AO116" s="55"/>
-      <c r="AP116" s="55"/>
-      <c r="AQ116" s="55"/>
-      <c r="AR116" s="55"/>
-      <c r="AS116" s="55"/>
-      <c r="AT116" s="50"/>
-      <c r="AU116" s="56"/>
-      <c r="AV116" s="56"/>
-      <c r="AW116" s="51"/>
-      <c r="AX116" s="51"/>
-      <c r="AY116" s="51"/>
-      <c r="AZ116" s="51"/>
-      <c r="BA116" s="51"/>
-      <c r="BB116" s="51"/>
-      <c r="BC116" s="51"/>
-      <c r="BD116" s="51"/>
-      <c r="BE116" s="51"/>
-      <c r="BF116" s="51"/>
-      <c r="BG116" s="51"/>
-      <c r="BH116" s="51"/>
-      <c r="BI116" s="52"/>
+      <c r="A116" s="20"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="20"/>
+      <c r="K116" s="20"/>
+      <c r="L116" s="20"/>
+      <c r="M116" s="20"/>
+      <c r="N116" s="20"/>
+      <c r="O116" s="20"/>
+      <c r="P116" s="20"/>
+      <c r="Q116" s="20"/>
+      <c r="R116" s="20"/>
+      <c r="S116" s="20"/>
+      <c r="T116" s="20"/>
+      <c r="U116" s="20"/>
+      <c r="V116" s="20"/>
+      <c r="W116" s="20"/>
+      <c r="X116" s="20"/>
+      <c r="Y116" s="20"/>
+      <c r="Z116" s="20"/>
+      <c r="AA116" s="20"/>
+      <c r="AB116" s="20"/>
+      <c r="AC116" s="20"/>
+      <c r="AD116" s="20"/>
+      <c r="AE116" s="20"/>
+      <c r="AF116" s="20"/>
+      <c r="AG116" s="20"/>
+      <c r="AH116" s="20"/>
+      <c r="AI116" s="20"/>
+      <c r="AJ116" s="20"/>
+      <c r="AK116" s="20"/>
+      <c r="AL116" s="20"/>
+      <c r="AM116" s="20"/>
+      <c r="AN116" s="20"/>
+      <c r="AO116" s="20"/>
+      <c r="AP116" s="20"/>
+      <c r="AQ116" s="20"/>
+      <c r="AR116" s="20"/>
+      <c r="AS116" s="20"/>
+      <c r="AT116" s="20"/>
+      <c r="AU116" s="20"/>
+      <c r="AV116" s="20"/>
+      <c r="AW116" s="20"/>
+      <c r="AX116" s="20"/>
+      <c r="AY116" s="20"/>
+      <c r="AZ116" s="20"/>
+      <c r="BA116" s="20"/>
+      <c r="BB116" s="20"/>
+      <c r="BC116" s="20"/>
+      <c r="BD116" s="20"/>
+      <c r="BE116" s="20"/>
+      <c r="BF116" s="20"/>
+      <c r="BG116" s="20"/>
+      <c r="BH116" s="20"/>
+      <c r="BI116" s="20"/>
       <c r="BJ116" s="1"/>
       <c r="BK116" s="1"/>
       <c r="BL116" s="1"/>
@@ -56593,273 +56643,31 @@
       <c r="IW116" s="1"/>
       <c r="IX116" s="1"/>
     </row>
-    <row r="117" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="20"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="20"/>
-      <c r="H117" s="20"/>
-      <c r="I117" s="20"/>
-      <c r="J117" s="20"/>
-      <c r="K117" s="20"/>
-      <c r="L117" s="20"/>
-      <c r="M117" s="20"/>
-      <c r="N117" s="20"/>
-      <c r="O117" s="20"/>
-      <c r="P117" s="20"/>
-      <c r="Q117" s="20"/>
-      <c r="R117" s="20"/>
-      <c r="S117" s="20"/>
-      <c r="T117" s="20"/>
-      <c r="U117" s="20"/>
-      <c r="V117" s="20"/>
-      <c r="W117" s="20"/>
-      <c r="X117" s="20"/>
-      <c r="Y117" s="20"/>
-      <c r="Z117" s="20"/>
-      <c r="AA117" s="20"/>
-      <c r="AB117" s="20"/>
-      <c r="AC117" s="20"/>
-      <c r="AD117" s="20"/>
-      <c r="AE117" s="20"/>
-      <c r="AF117" s="20"/>
-      <c r="AG117" s="20"/>
-      <c r="AH117" s="20"/>
-      <c r="AI117" s="20"/>
-      <c r="AJ117" s="20"/>
-      <c r="AK117" s="20"/>
-      <c r="AL117" s="20"/>
-      <c r="AM117" s="20"/>
-      <c r="AN117" s="20"/>
-      <c r="AO117" s="20"/>
-      <c r="AP117" s="20"/>
-      <c r="AQ117" s="20"/>
-      <c r="AR117" s="20"/>
-      <c r="AS117" s="20"/>
-      <c r="AT117" s="20"/>
-      <c r="AU117" s="20"/>
-      <c r="AV117" s="20"/>
-      <c r="AW117" s="20"/>
-      <c r="AX117" s="20"/>
-      <c r="AY117" s="20"/>
-      <c r="AZ117" s="20"/>
-      <c r="BA117" s="20"/>
-      <c r="BB117" s="20"/>
-      <c r="BC117" s="20"/>
-      <c r="BD117" s="20"/>
-      <c r="BE117" s="20"/>
-      <c r="BF117" s="20"/>
-      <c r="BG117" s="20"/>
-      <c r="BH117" s="20"/>
-      <c r="BI117" s="20"/>
-      <c r="BJ117" s="1"/>
-      <c r="BK117" s="1"/>
-      <c r="BL117" s="1"/>
-      <c r="BM117" s="1"/>
-      <c r="BN117" s="1"/>
-      <c r="BO117" s="1"/>
-      <c r="BP117" s="1"/>
-      <c r="BQ117" s="1"/>
-      <c r="BR117" s="1"/>
-      <c r="BS117" s="1"/>
-      <c r="BT117" s="1"/>
-      <c r="BU117" s="1"/>
-      <c r="BV117" s="1"/>
-      <c r="BW117" s="1"/>
-      <c r="BX117" s="1"/>
-      <c r="BY117" s="1"/>
-      <c r="BZ117" s="1"/>
-      <c r="CA117" s="1"/>
-      <c r="CB117" s="1"/>
-      <c r="CC117" s="1"/>
-      <c r="CD117" s="1"/>
-      <c r="CE117" s="1"/>
-      <c r="CF117" s="1"/>
-      <c r="CG117" s="1"/>
-      <c r="CH117" s="1"/>
-      <c r="CI117" s="1"/>
-      <c r="CJ117" s="1"/>
-      <c r="CK117" s="1"/>
-      <c r="CL117" s="1"/>
-      <c r="CM117" s="1"/>
-      <c r="CN117" s="1"/>
-      <c r="CO117" s="1"/>
-      <c r="CP117" s="1"/>
-      <c r="CQ117" s="1"/>
-      <c r="CR117" s="1"/>
-      <c r="CS117" s="1"/>
-      <c r="CT117" s="1"/>
-      <c r="CU117" s="1"/>
-      <c r="CV117" s="1"/>
-      <c r="CW117" s="1"/>
-      <c r="CX117" s="1"/>
-      <c r="CY117" s="1"/>
-      <c r="CZ117" s="1"/>
-      <c r="DA117" s="1"/>
-      <c r="DB117" s="1"/>
-      <c r="DC117" s="1"/>
-      <c r="DD117" s="1"/>
-      <c r="DE117" s="1"/>
-      <c r="DF117" s="1"/>
-      <c r="DG117" s="1"/>
-      <c r="DH117" s="1"/>
-      <c r="DI117" s="1"/>
-      <c r="DJ117" s="1"/>
-      <c r="DK117" s="1"/>
-      <c r="DL117" s="1"/>
-      <c r="DM117" s="1"/>
-      <c r="DN117" s="1"/>
-      <c r="DO117" s="1"/>
-      <c r="DP117" s="1"/>
-      <c r="DQ117" s="1"/>
-      <c r="DR117" s="1"/>
-      <c r="DS117" s="1"/>
-      <c r="DT117" s="1"/>
-      <c r="DU117" s="1"/>
-      <c r="DV117" s="1"/>
-      <c r="DW117" s="1"/>
-      <c r="DX117" s="1"/>
-      <c r="DY117" s="1"/>
-      <c r="DZ117" s="1"/>
-      <c r="EA117" s="1"/>
-      <c r="EB117" s="1"/>
-      <c r="EC117" s="1"/>
-      <c r="ED117" s="1"/>
-      <c r="EE117" s="1"/>
-      <c r="EF117" s="1"/>
-      <c r="EG117" s="1"/>
-      <c r="EH117" s="1"/>
-      <c r="EI117" s="1"/>
-      <c r="EJ117" s="1"/>
-      <c r="EK117" s="1"/>
-      <c r="EL117" s="1"/>
-      <c r="EM117" s="1"/>
-      <c r="EN117" s="1"/>
-      <c r="EO117" s="1"/>
-      <c r="EP117" s="1"/>
-      <c r="EQ117" s="1"/>
-      <c r="ER117" s="1"/>
-      <c r="ES117" s="1"/>
-      <c r="ET117" s="1"/>
-      <c r="EU117" s="1"/>
-      <c r="EV117" s="1"/>
-      <c r="EW117" s="1"/>
-      <c r="EX117" s="1"/>
-      <c r="EY117" s="1"/>
-      <c r="EZ117" s="1"/>
-      <c r="FA117" s="1"/>
-      <c r="FB117" s="1"/>
-      <c r="FC117" s="1"/>
-      <c r="FD117" s="1"/>
-      <c r="FE117" s="1"/>
-      <c r="FF117" s="1"/>
-      <c r="FG117" s="1"/>
-      <c r="FH117" s="1"/>
-      <c r="FI117" s="1"/>
-      <c r="FJ117" s="1"/>
-      <c r="FK117" s="1"/>
-      <c r="FL117" s="1"/>
-      <c r="FM117" s="1"/>
-      <c r="FN117" s="1"/>
-      <c r="FO117" s="1"/>
-      <c r="FP117" s="1"/>
-      <c r="FQ117" s="1"/>
-      <c r="FR117" s="1"/>
-      <c r="FS117" s="1"/>
-      <c r="FT117" s="1"/>
-      <c r="FU117" s="1"/>
-      <c r="FV117" s="1"/>
-      <c r="FW117" s="1"/>
-      <c r="FX117" s="1"/>
-      <c r="FY117" s="1"/>
-      <c r="FZ117" s="1"/>
-      <c r="GA117" s="1"/>
-      <c r="GB117" s="1"/>
-      <c r="GC117" s="1"/>
-      <c r="GD117" s="1"/>
-      <c r="GE117" s="1"/>
-      <c r="GF117" s="1"/>
-      <c r="GG117" s="1"/>
-      <c r="GH117" s="1"/>
-      <c r="GI117" s="1"/>
-      <c r="GJ117" s="1"/>
-      <c r="GK117" s="1"/>
-      <c r="GL117" s="1"/>
-      <c r="GM117" s="1"/>
-      <c r="GN117" s="1"/>
-      <c r="GO117" s="1"/>
-      <c r="GP117" s="1"/>
-      <c r="GQ117" s="1"/>
-      <c r="GR117" s="1"/>
-      <c r="GS117" s="1"/>
-      <c r="GT117" s="1"/>
-      <c r="GU117" s="1"/>
-      <c r="GV117" s="1"/>
-      <c r="GW117" s="1"/>
-      <c r="GX117" s="1"/>
-      <c r="GY117" s="1"/>
-      <c r="GZ117" s="1"/>
-      <c r="HA117" s="1"/>
-      <c r="HB117" s="1"/>
-      <c r="HC117" s="1"/>
-      <c r="HD117" s="1"/>
-      <c r="HE117" s="1"/>
-      <c r="HF117" s="1"/>
-      <c r="HG117" s="1"/>
-      <c r="HH117" s="1"/>
-      <c r="HI117" s="1"/>
-      <c r="HJ117" s="1"/>
-      <c r="HK117" s="1"/>
-      <c r="HL117" s="1"/>
-      <c r="HM117" s="1"/>
-      <c r="HN117" s="1"/>
-      <c r="HO117" s="1"/>
-      <c r="HP117" s="1"/>
-      <c r="HQ117" s="1"/>
-      <c r="HR117" s="1"/>
-      <c r="HS117" s="1"/>
-      <c r="HT117" s="1"/>
-      <c r="HU117" s="1"/>
-      <c r="HV117" s="1"/>
-      <c r="HW117" s="1"/>
-      <c r="HX117" s="1"/>
-      <c r="HY117" s="1"/>
-      <c r="HZ117" s="1"/>
-      <c r="IA117" s="1"/>
-      <c r="IB117" s="1"/>
-      <c r="IC117" s="1"/>
-      <c r="ID117" s="1"/>
-      <c r="IE117" s="1"/>
-      <c r="IF117" s="1"/>
-      <c r="IG117" s="1"/>
-      <c r="IH117" s="1"/>
-      <c r="II117" s="1"/>
-      <c r="IJ117" s="1"/>
-      <c r="IK117" s="1"/>
-      <c r="IL117" s="1"/>
-      <c r="IM117" s="1"/>
-      <c r="IN117" s="1"/>
-      <c r="IO117" s="1"/>
-      <c r="IP117" s="1"/>
-      <c r="IQ117" s="1"/>
-      <c r="IR117" s="1"/>
-      <c r="IS117" s="1"/>
-      <c r="IT117" s="1"/>
-      <c r="IU117" s="1"/>
-      <c r="IV117" s="1"/>
-      <c r="IW117" s="1"/>
-      <c r="IX117" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="AT13:BI13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
+    <mergeCell ref="P13:AS13"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:BI4"/>
     <mergeCell ref="A5:F5"/>
@@ -56876,29 +56684,11 @@
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
-    <mergeCell ref="AT13:BI13"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="P13:AS13"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -56911,7 +56701,7 @@
   <pageSetup paperSize="9" scale="51" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="59" max="60" man="1"/>
+    <brk id="58" max="60" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -57049,18 +56839,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -57082,18 +56872,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E88503-2BF5-4213-82B7-01925F2C7A20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFC473E1-630C-47C0-8277-41F4549C3C72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E88503-2BF5-4213-82B7-01925F2C7A20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/020-内部_プログラミング設計/022-クラス仕様書/テンプレート/Servlet/Servletのクラス仕様書(SearchResultServlet).xlsx
+++ b/020-内部_プログラミング設計/022-クラス仕様書/テンプレート/Servlet/Servletのクラス仕様書(SearchResultServlet).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7302D291-7FD7-4D24-87EF-2C6D1486A107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B4D64E-DA9C-4726-92EB-107828B09A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17655" yWindow="3435" windowWidth="17250" windowHeight="8865" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="160">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -1053,14 +1053,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>iSearchResultService</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ISearchResultService</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1691,11 +1683,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1706,26 +1701,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1737,9 +1729,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2113,7 +2105,7 @@
   <dimension ref="A1:IX22"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AO10" sqref="AO10:BI10"/>
+      <selection activeCell="A17" sqref="A17:BI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2122,85 +2114,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="89" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="90" t="s">
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="89" t="s">
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="90" t="s">
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90"/>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="89" t="s">
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="95"/>
+      <c r="AM1" s="95"/>
+      <c r="AN1" s="95"/>
+      <c r="AO1" s="95"/>
+      <c r="AP1" s="95"/>
+      <c r="AQ1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="90" t="s">
+      <c r="AR1" s="96"/>
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
-      <c r="AW1" s="90"/>
-      <c r="AX1" s="90"/>
-      <c r="AY1" s="90"/>
-      <c r="AZ1" s="90"/>
-      <c r="BA1" s="89" t="s">
+      <c r="AU1" s="95"/>
+      <c r="AV1" s="95"/>
+      <c r="AW1" s="95"/>
+      <c r="AX1" s="95"/>
+      <c r="AY1" s="95"/>
+      <c r="AZ1" s="95"/>
+      <c r="BA1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="89"/>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="91">
+      <c r="BB1" s="96"/>
+      <c r="BC1" s="96"/>
+      <c r="BD1" s="92">
         <v>45537</v>
       </c>
-      <c r="BE1" s="91"/>
-      <c r="BF1" s="91"/>
-      <c r="BG1" s="91"/>
-      <c r="BH1" s="91"/>
-      <c r="BI1" s="91"/>
+      <c r="BE1" s="92"/>
+      <c r="BF1" s="92"/>
+      <c r="BG1" s="92"/>
+      <c r="BH1" s="92"/>
+      <c r="BI1" s="92"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -2400,81 +2392,81 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="89" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="89" t="s">
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="90" t="s">
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="90"/>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="90"/>
-      <c r="AK2" s="90"/>
-      <c r="AL2" s="90"/>
-      <c r="AM2" s="90"/>
-      <c r="AN2" s="90"/>
-      <c r="AO2" s="90"/>
-      <c r="AP2" s="90"/>
-      <c r="AQ2" s="89" t="s">
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="95"/>
+      <c r="AI2" s="95"/>
+      <c r="AJ2" s="95"/>
+      <c r="AK2" s="95"/>
+      <c r="AL2" s="95"/>
+      <c r="AM2" s="95"/>
+      <c r="AN2" s="95"/>
+      <c r="AO2" s="95"/>
+      <c r="AP2" s="95"/>
+      <c r="AQ2" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="89"/>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="90" t="s">
+      <c r="AR2" s="96"/>
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="AU2" s="90"/>
-      <c r="AV2" s="90"/>
-      <c r="AW2" s="90"/>
-      <c r="AX2" s="90"/>
-      <c r="AY2" s="90"/>
-      <c r="AZ2" s="90"/>
-      <c r="BA2" s="89" t="s">
+      <c r="AU2" s="95"/>
+      <c r="AV2" s="95"/>
+      <c r="AW2" s="95"/>
+      <c r="AX2" s="95"/>
+      <c r="AY2" s="95"/>
+      <c r="AZ2" s="95"/>
+      <c r="BA2" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="BB2" s="89"/>
-      <c r="BC2" s="89"/>
-      <c r="BD2" s="91">
+      <c r="BB2" s="96"/>
+      <c r="BC2" s="96"/>
+      <c r="BD2" s="92">
         <v>45559</v>
       </c>
-      <c r="BE2" s="91"/>
-      <c r="BF2" s="91"/>
-      <c r="BG2" s="91"/>
-      <c r="BH2" s="91"/>
-      <c r="BI2" s="91"/>
+      <c r="BE2" s="92"/>
+      <c r="BF2" s="92"/>
+      <c r="BG2" s="92"/>
+      <c r="BH2" s="92"/>
+      <c r="BI2" s="92"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -2674,1132 +2666,1162 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97" t="s">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="97"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="97"/>
-      <c r="AH4" s="97"/>
-      <c r="AI4" s="97"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="97"/>
-      <c r="AL4" s="97"/>
-      <c r="AM4" s="97"/>
-      <c r="AN4" s="97"/>
-      <c r="AO4" s="97"/>
-      <c r="AP4" s="97"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="97"/>
-      <c r="AS4" s="97"/>
-      <c r="AT4" s="97"/>
-      <c r="AU4" s="97"/>
-      <c r="AV4" s="97"/>
-      <c r="AW4" s="97"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="97"/>
-      <c r="AZ4" s="97"/>
-      <c r="BA4" s="97"/>
-      <c r="BB4" s="97"/>
-      <c r="BC4" s="97"/>
-      <c r="BD4" s="97"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="97"/>
-      <c r="BG4" s="97"/>
-      <c r="BH4" s="97"/>
-      <c r="BI4" s="97"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="90"/>
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="90"/>
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="97" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="97"/>
-      <c r="AB5" s="97"/>
-      <c r="AC5" s="97"/>
-      <c r="AD5" s="97"/>
-      <c r="AE5" s="97"/>
-      <c r="AF5" s="97"/>
-      <c r="AG5" s="97"/>
-      <c r="AH5" s="97"/>
-      <c r="AI5" s="97"/>
-      <c r="AJ5" s="97"/>
-      <c r="AK5" s="97"/>
-      <c r="AL5" s="97"/>
-      <c r="AM5" s="97"/>
-      <c r="AN5" s="97"/>
-      <c r="AO5" s="97"/>
-      <c r="AP5" s="97"/>
-      <c r="AQ5" s="97"/>
-      <c r="AR5" s="97"/>
-      <c r="AS5" s="97"/>
-      <c r="AT5" s="97"/>
-      <c r="AU5" s="97"/>
-      <c r="AV5" s="97"/>
-      <c r="AW5" s="97"/>
-      <c r="AX5" s="97"/>
-      <c r="AY5" s="97"/>
-      <c r="AZ5" s="97"/>
-      <c r="BA5" s="97"/>
-      <c r="BB5" s="97"/>
-      <c r="BC5" s="97"/>
-      <c r="BD5" s="97"/>
-      <c r="BE5" s="97"/>
-      <c r="BF5" s="97"/>
-      <c r="BG5" s="97"/>
-      <c r="BH5" s="97"/>
-      <c r="BI5" s="97"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="90"/>
+      <c r="AE5" s="90"/>
+      <c r="AF5" s="90"/>
+      <c r="AG5" s="90"/>
+      <c r="AH5" s="90"/>
+      <c r="AI5" s="90"/>
+      <c r="AJ5" s="90"/>
+      <c r="AK5" s="90"/>
+      <c r="AL5" s="90"/>
+      <c r="AM5" s="90"/>
+      <c r="AN5" s="90"/>
+      <c r="AO5" s="90"/>
+      <c r="AP5" s="90"/>
+      <c r="AQ5" s="90"/>
+      <c r="AR5" s="90"/>
+      <c r="AS5" s="90"/>
+      <c r="AT5" s="90"/>
+      <c r="AU5" s="90"/>
+      <c r="AV5" s="90"/>
+      <c r="AW5" s="90"/>
+      <c r="AX5" s="90"/>
+      <c r="AY5" s="90"/>
+      <c r="AZ5" s="90"/>
+      <c r="BA5" s="90"/>
+      <c r="BB5" s="90"/>
+      <c r="BC5" s="90"/>
+      <c r="BD5" s="90"/>
+      <c r="BE5" s="90"/>
+      <c r="BF5" s="90"/>
+      <c r="BG5" s="90"/>
+      <c r="BH5" s="90"/>
+      <c r="BI5" s="90"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="97" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
-      <c r="W6" s="97"/>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="97"/>
-      <c r="Z6" s="97"/>
-      <c r="AA6" s="97"/>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="97"/>
-      <c r="AD6" s="96" t="s">
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="AE6" s="96"/>
-      <c r="AF6" s="96"/>
-      <c r="AG6" s="96"/>
-      <c r="AH6" s="96"/>
-      <c r="AI6" s="96"/>
-      <c r="AJ6" s="97" t="s">
+      <c r="AE6" s="91"/>
+      <c r="AF6" s="91"/>
+      <c r="AG6" s="91"/>
+      <c r="AH6" s="91"/>
+      <c r="AI6" s="91"/>
+      <c r="AJ6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="AK6" s="97"/>
-      <c r="AL6" s="97"/>
-      <c r="AM6" s="97"/>
-      <c r="AN6" s="97"/>
-      <c r="AO6" s="97"/>
-      <c r="AP6" s="97"/>
-      <c r="AQ6" s="97"/>
-      <c r="AR6" s="97"/>
-      <c r="AS6" s="97"/>
-      <c r="AT6" s="97"/>
-      <c r="AU6" s="97"/>
-      <c r="AV6" s="97"/>
-      <c r="AW6" s="97"/>
-      <c r="AX6" s="97"/>
-      <c r="AY6" s="97"/>
-      <c r="AZ6" s="97"/>
-      <c r="BA6" s="97"/>
-      <c r="BB6" s="97"/>
-      <c r="BC6" s="97"/>
-      <c r="BD6" s="97"/>
-      <c r="BE6" s="97"/>
-      <c r="BF6" s="97"/>
-      <c r="BG6" s="97"/>
-      <c r="BH6" s="97"/>
-      <c r="BI6" s="97"/>
+      <c r="AK6" s="90"/>
+      <c r="AL6" s="90"/>
+      <c r="AM6" s="90"/>
+      <c r="AN6" s="90"/>
+      <c r="AO6" s="90"/>
+      <c r="AP6" s="90"/>
+      <c r="AQ6" s="90"/>
+      <c r="AR6" s="90"/>
+      <c r="AS6" s="90"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="90"/>
+      <c r="AV6" s="90"/>
+      <c r="AW6" s="90"/>
+      <c r="AX6" s="90"/>
+      <c r="AY6" s="90"/>
+      <c r="AZ6" s="90"/>
+      <c r="BA6" s="90"/>
+      <c r="BB6" s="90"/>
+      <c r="BC6" s="90"/>
+      <c r="BD6" s="90"/>
+      <c r="BE6" s="90"/>
+      <c r="BF6" s="90"/>
+      <c r="BG6" s="90"/>
+      <c r="BH6" s="90"/>
+      <c r="BI6" s="90"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96" t="s">
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96" t="s">
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="96"/>
-      <c r="W8" s="96"/>
-      <c r="X8" s="96"/>
-      <c r="Y8" s="96"/>
-      <c r="Z8" s="96"/>
-      <c r="AA8" s="96"/>
-      <c r="AB8" s="96"/>
-      <c r="AC8" s="96"/>
-      <c r="AD8" s="96"/>
-      <c r="AE8" s="96" t="s">
+      <c r="V8" s="91"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="91"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="AF8" s="96"/>
-      <c r="AG8" s="96"/>
-      <c r="AH8" s="96"/>
-      <c r="AI8" s="96"/>
-      <c r="AJ8" s="96"/>
-      <c r="AK8" s="96"/>
-      <c r="AL8" s="96"/>
-      <c r="AM8" s="96"/>
-      <c r="AN8" s="96"/>
-      <c r="AO8" s="96" t="s">
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="91"/>
+      <c r="AH8" s="91"/>
+      <c r="AI8" s="91"/>
+      <c r="AJ8" s="91"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="91"/>
+      <c r="AM8" s="91"/>
+      <c r="AN8" s="91"/>
+      <c r="AO8" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="AP8" s="96"/>
-      <c r="AQ8" s="96"/>
-      <c r="AR8" s="96"/>
-      <c r="AS8" s="96"/>
-      <c r="AT8" s="96"/>
-      <c r="AU8" s="96"/>
-      <c r="AV8" s="96"/>
-      <c r="AW8" s="96"/>
-      <c r="AX8" s="96"/>
-      <c r="AY8" s="96"/>
-      <c r="AZ8" s="96"/>
-      <c r="BA8" s="96"/>
-      <c r="BB8" s="96"/>
-      <c r="BC8" s="96"/>
-      <c r="BD8" s="96"/>
-      <c r="BE8" s="96"/>
-      <c r="BF8" s="96"/>
-      <c r="BG8" s="96"/>
-      <c r="BH8" s="96"/>
-      <c r="BI8" s="96"/>
+      <c r="AP8" s="91"/>
+      <c r="AQ8" s="91"/>
+      <c r="AR8" s="91"/>
+      <c r="AS8" s="91"/>
+      <c r="AT8" s="91"/>
+      <c r="AU8" s="91"/>
+      <c r="AV8" s="91"/>
+      <c r="AW8" s="91"/>
+      <c r="AX8" s="91"/>
+      <c r="AY8" s="91"/>
+      <c r="AZ8" s="91"/>
+      <c r="BA8" s="91"/>
+      <c r="BB8" s="91"/>
+      <c r="BC8" s="91"/>
+      <c r="BD8" s="91"/>
+      <c r="BE8" s="91"/>
+      <c r="BF8" s="91"/>
+      <c r="BG8" s="91"/>
+      <c r="BH8" s="91"/>
+      <c r="BI8" s="91"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92" t="s">
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92" t="s">
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="92" t="s">
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="92"/>
-      <c r="AJ9" s="92"/>
-      <c r="AK9" s="92"/>
-      <c r="AL9" s="92"/>
-      <c r="AM9" s="92"/>
-      <c r="AN9" s="92"/>
-      <c r="AO9" s="92"/>
-      <c r="AP9" s="92"/>
-      <c r="AQ9" s="92"/>
-      <c r="AR9" s="92"/>
-      <c r="AS9" s="92"/>
-      <c r="AT9" s="92"/>
-      <c r="AU9" s="92"/>
-      <c r="AV9" s="92"/>
-      <c r="AW9" s="92"/>
-      <c r="AX9" s="92"/>
-      <c r="AY9" s="92"/>
-      <c r="AZ9" s="92"/>
-      <c r="BA9" s="92"/>
-      <c r="BB9" s="92"/>
-      <c r="BC9" s="92"/>
-      <c r="BD9" s="92"/>
-      <c r="BE9" s="92"/>
-      <c r="BF9" s="92"/>
-      <c r="BG9" s="92"/>
-      <c r="BH9" s="92"/>
-      <c r="BI9" s="92"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="93"/>
+      <c r="AJ9" s="93"/>
+      <c r="AK9" s="93"/>
+      <c r="AL9" s="93"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="93"/>
+      <c r="AO9" s="93"/>
+      <c r="AP9" s="93"/>
+      <c r="AQ9" s="93"/>
+      <c r="AR9" s="93"/>
+      <c r="AS9" s="93"/>
+      <c r="AT9" s="93"/>
+      <c r="AU9" s="93"/>
+      <c r="AV9" s="93"/>
+      <c r="AW9" s="93"/>
+      <c r="AX9" s="93"/>
+      <c r="AY9" s="93"/>
+      <c r="AZ9" s="93"/>
+      <c r="BA9" s="93"/>
+      <c r="BB9" s="93"/>
+      <c r="BC9" s="93"/>
+      <c r="BD9" s="93"/>
+      <c r="BE9" s="93"/>
+      <c r="BF9" s="93"/>
+      <c r="BG9" s="93"/>
+      <c r="BH9" s="93"/>
+      <c r="BI9" s="93"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95" t="s">
-        <v>155</v>
-      </c>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="V10" s="95"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="95"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="95"/>
-      <c r="AE10" s="95" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF10" s="95"/>
-      <c r="AG10" s="95"/>
-      <c r="AH10" s="95"/>
-      <c r="AI10" s="95"/>
-      <c r="AJ10" s="95"/>
-      <c r="AK10" s="95"/>
-      <c r="AL10" s="95"/>
-      <c r="AM10" s="95"/>
-      <c r="AN10" s="95"/>
-      <c r="AO10" s="95"/>
-      <c r="AP10" s="95"/>
-      <c r="AQ10" s="95"/>
-      <c r="AR10" s="95"/>
-      <c r="AS10" s="95"/>
-      <c r="AT10" s="95"/>
-      <c r="AU10" s="95"/>
-      <c r="AV10" s="95"/>
-      <c r="AW10" s="95"/>
-      <c r="AX10" s="95"/>
-      <c r="AY10" s="95"/>
-      <c r="AZ10" s="95"/>
-      <c r="BA10" s="95"/>
-      <c r="BB10" s="95"/>
-      <c r="BC10" s="95"/>
-      <c r="BD10" s="95"/>
-      <c r="BE10" s="95"/>
-      <c r="BF10" s="95"/>
-      <c r="BG10" s="95"/>
-      <c r="BH10" s="95"/>
-      <c r="BI10" s="95"/>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="89"/>
+      <c r="AJ10" s="89"/>
+      <c r="AK10" s="89"/>
+      <c r="AL10" s="89"/>
+      <c r="AM10" s="89"/>
+      <c r="AN10" s="89"/>
+      <c r="AO10" s="89"/>
+      <c r="AP10" s="89"/>
+      <c r="AQ10" s="89"/>
+      <c r="AR10" s="89"/>
+      <c r="AS10" s="89"/>
+      <c r="AT10" s="89"/>
+      <c r="AU10" s="89"/>
+      <c r="AV10" s="89"/>
+      <c r="AW10" s="89"/>
+      <c r="AX10" s="89"/>
+      <c r="AY10" s="89"/>
+      <c r="AZ10" s="89"/>
+      <c r="BA10" s="89"/>
+      <c r="BB10" s="89"/>
+      <c r="BC10" s="89"/>
+      <c r="BD10" s="89"/>
+      <c r="BE10" s="89"/>
+      <c r="BF10" s="89"/>
+      <c r="BG10" s="89"/>
+      <c r="BH10" s="89"/>
+      <c r="BI10" s="89"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="95"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="95"/>
-      <c r="AE11" s="95"/>
-      <c r="AF11" s="95"/>
-      <c r="AG11" s="95"/>
-      <c r="AH11" s="95"/>
-      <c r="AI11" s="95"/>
-      <c r="AJ11" s="95"/>
-      <c r="AK11" s="95"/>
-      <c r="AL11" s="95"/>
-      <c r="AM11" s="95"/>
-      <c r="AN11" s="95"/>
-      <c r="AO11" s="95"/>
-      <c r="AP11" s="95"/>
-      <c r="AQ11" s="95"/>
-      <c r="AR11" s="95"/>
-      <c r="AS11" s="95"/>
-      <c r="AT11" s="95"/>
-      <c r="AU11" s="95"/>
-      <c r="AV11" s="95"/>
-      <c r="AW11" s="95"/>
-      <c r="AX11" s="95"/>
-      <c r="AY11" s="95"/>
-      <c r="AZ11" s="95"/>
-      <c r="BA11" s="95"/>
-      <c r="BB11" s="95"/>
-      <c r="BC11" s="95"/>
-      <c r="BD11" s="95"/>
-      <c r="BE11" s="95"/>
-      <c r="BF11" s="95"/>
-      <c r="BG11" s="95"/>
-      <c r="BH11" s="95"/>
-      <c r="BI11" s="95"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="89"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="89"/>
+      <c r="AJ11" s="89"/>
+      <c r="AK11" s="89"/>
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="89"/>
+      <c r="AN11" s="89"/>
+      <c r="AO11" s="89"/>
+      <c r="AP11" s="89"/>
+      <c r="AQ11" s="89"/>
+      <c r="AR11" s="89"/>
+      <c r="AS11" s="89"/>
+      <c r="AT11" s="89"/>
+      <c r="AU11" s="89"/>
+      <c r="AV11" s="89"/>
+      <c r="AW11" s="89"/>
+      <c r="AX11" s="89"/>
+      <c r="AY11" s="89"/>
+      <c r="AZ11" s="89"/>
+      <c r="BA11" s="89"/>
+      <c r="BB11" s="89"/>
+      <c r="BC11" s="89"/>
+      <c r="BD11" s="89"/>
+      <c r="BE11" s="89"/>
+      <c r="BF11" s="89"/>
+      <c r="BG11" s="89"/>
+      <c r="BH11" s="89"/>
+      <c r="BI11" s="89"/>
     </row>
     <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="95"/>
-      <c r="AJ12" s="95"/>
-      <c r="AK12" s="95"/>
-      <c r="AL12" s="95"/>
-      <c r="AM12" s="95"/>
-      <c r="AN12" s="95"/>
-      <c r="AO12" s="95"/>
-      <c r="AP12" s="95"/>
-      <c r="AQ12" s="95"/>
-      <c r="AR12" s="95"/>
-      <c r="AS12" s="95"/>
-      <c r="AT12" s="95"/>
-      <c r="AU12" s="95"/>
-      <c r="AV12" s="95"/>
-      <c r="AW12" s="95"/>
-      <c r="AX12" s="95"/>
-      <c r="AY12" s="95"/>
-      <c r="AZ12" s="95"/>
-      <c r="BA12" s="95"/>
-      <c r="BB12" s="95"/>
-      <c r="BC12" s="95"/>
-      <c r="BD12" s="95"/>
-      <c r="BE12" s="95"/>
-      <c r="BF12" s="95"/>
-      <c r="BG12" s="95"/>
-      <c r="BH12" s="95"/>
-      <c r="BI12" s="95"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="89"/>
+      <c r="AI12" s="89"/>
+      <c r="AJ12" s="89"/>
+      <c r="AK12" s="89"/>
+      <c r="AL12" s="89"/>
+      <c r="AM12" s="89"/>
+      <c r="AN12" s="89"/>
+      <c r="AO12" s="89"/>
+      <c r="AP12" s="89"/>
+      <c r="AQ12" s="89"/>
+      <c r="AR12" s="89"/>
+      <c r="AS12" s="89"/>
+      <c r="AT12" s="89"/>
+      <c r="AU12" s="89"/>
+      <c r="AV12" s="89"/>
+      <c r="AW12" s="89"/>
+      <c r="AX12" s="89"/>
+      <c r="AY12" s="89"/>
+      <c r="AZ12" s="89"/>
+      <c r="BA12" s="89"/>
+      <c r="BB12" s="89"/>
+      <c r="BC12" s="89"/>
+      <c r="BD12" s="89"/>
+      <c r="BE12" s="89"/>
+      <c r="BF12" s="89"/>
+      <c r="BG12" s="89"/>
+      <c r="BH12" s="89"/>
+      <c r="BI12" s="89"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="95"/>
-      <c r="AI13" s="95"/>
-      <c r="AJ13" s="95"/>
-      <c r="AK13" s="95"/>
-      <c r="AL13" s="95"/>
-      <c r="AM13" s="95"/>
-      <c r="AN13" s="95"/>
-      <c r="AO13" s="95"/>
-      <c r="AP13" s="95"/>
-      <c r="AQ13" s="95"/>
-      <c r="AR13" s="95"/>
-      <c r="AS13" s="95"/>
-      <c r="AT13" s="95"/>
-      <c r="AU13" s="95"/>
-      <c r="AV13" s="95"/>
-      <c r="AW13" s="95"/>
-      <c r="AX13" s="95"/>
-      <c r="AY13" s="95"/>
-      <c r="AZ13" s="95"/>
-      <c r="BA13" s="95"/>
-      <c r="BB13" s="95"/>
-      <c r="BC13" s="95"/>
-      <c r="BD13" s="95"/>
-      <c r="BE13" s="95"/>
-      <c r="BF13" s="95"/>
-      <c r="BG13" s="95"/>
-      <c r="BH13" s="95"/>
-      <c r="BI13" s="95"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="89"/>
+      <c r="AE13" s="89"/>
+      <c r="AF13" s="89"/>
+      <c r="AG13" s="89"/>
+      <c r="AH13" s="89"/>
+      <c r="AI13" s="89"/>
+      <c r="AJ13" s="89"/>
+      <c r="AK13" s="89"/>
+      <c r="AL13" s="89"/>
+      <c r="AM13" s="89"/>
+      <c r="AN13" s="89"/>
+      <c r="AO13" s="89"/>
+      <c r="AP13" s="89"/>
+      <c r="AQ13" s="89"/>
+      <c r="AR13" s="89"/>
+      <c r="AS13" s="89"/>
+      <c r="AT13" s="89"/>
+      <c r="AU13" s="89"/>
+      <c r="AV13" s="89"/>
+      <c r="AW13" s="89"/>
+      <c r="AX13" s="89"/>
+      <c r="AY13" s="89"/>
+      <c r="AZ13" s="89"/>
+      <c r="BA13" s="89"/>
+      <c r="BB13" s="89"/>
+      <c r="BC13" s="89"/>
+      <c r="BD13" s="89"/>
+      <c r="BE13" s="89"/>
+      <c r="BF13" s="89"/>
+      <c r="BG13" s="89"/>
+      <c r="BH13" s="89"/>
+      <c r="BI13" s="89"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="95"/>
-      <c r="AJ14" s="95"/>
-      <c r="AK14" s="95"/>
-      <c r="AL14" s="95"/>
-      <c r="AM14" s="95"/>
-      <c r="AN14" s="95"/>
-      <c r="AO14" s="95"/>
-      <c r="AP14" s="95"/>
-      <c r="AQ14" s="95"/>
-      <c r="AR14" s="95"/>
-      <c r="AS14" s="95"/>
-      <c r="AT14" s="95"/>
-      <c r="AU14" s="95"/>
-      <c r="AV14" s="95"/>
-      <c r="AW14" s="95"/>
-      <c r="AX14" s="95"/>
-      <c r="AY14" s="95"/>
-      <c r="AZ14" s="95"/>
-      <c r="BA14" s="95"/>
-      <c r="BB14" s="95"/>
-      <c r="BC14" s="95"/>
-      <c r="BD14" s="95"/>
-      <c r="BE14" s="95"/>
-      <c r="BF14" s="95"/>
-      <c r="BG14" s="95"/>
-      <c r="BH14" s="95"/>
-      <c r="BI14" s="95"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="89"/>
+      <c r="AE14" s="89"/>
+      <c r="AF14" s="89"/>
+      <c r="AG14" s="89"/>
+      <c r="AH14" s="89"/>
+      <c r="AI14" s="89"/>
+      <c r="AJ14" s="89"/>
+      <c r="AK14" s="89"/>
+      <c r="AL14" s="89"/>
+      <c r="AM14" s="89"/>
+      <c r="AN14" s="89"/>
+      <c r="AO14" s="89"/>
+      <c r="AP14" s="89"/>
+      <c r="AQ14" s="89"/>
+      <c r="AR14" s="89"/>
+      <c r="AS14" s="89"/>
+      <c r="AT14" s="89"/>
+      <c r="AU14" s="89"/>
+      <c r="AV14" s="89"/>
+      <c r="AW14" s="89"/>
+      <c r="AX14" s="89"/>
+      <c r="AY14" s="89"/>
+      <c r="AZ14" s="89"/>
+      <c r="BA14" s="89"/>
+      <c r="BB14" s="89"/>
+      <c r="BC14" s="89"/>
+      <c r="BD14" s="89"/>
+      <c r="BE14" s="89"/>
+      <c r="BF14" s="89"/>
+      <c r="BG14" s="89"/>
+      <c r="BH14" s="89"/>
+      <c r="BI14" s="89"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="96"/>
-      <c r="AG16" s="96"/>
-      <c r="AH16" s="96"/>
-      <c r="AI16" s="96"/>
-      <c r="AJ16" s="96"/>
-      <c r="AK16" s="96"/>
-      <c r="AL16" s="96"/>
-      <c r="AM16" s="96"/>
-      <c r="AN16" s="96"/>
-      <c r="AO16" s="96"/>
-      <c r="AP16" s="96"/>
-      <c r="AQ16" s="96"/>
-      <c r="AR16" s="96"/>
-      <c r="AS16" s="96"/>
-      <c r="AT16" s="96"/>
-      <c r="AU16" s="96"/>
-      <c r="AV16" s="96"/>
-      <c r="AW16" s="96"/>
-      <c r="AX16" s="96"/>
-      <c r="AY16" s="96"/>
-      <c r="AZ16" s="96"/>
-      <c r="BA16" s="96"/>
-      <c r="BB16" s="96"/>
-      <c r="BC16" s="96"/>
-      <c r="BD16" s="96"/>
-      <c r="BE16" s="96"/>
-      <c r="BF16" s="96"/>
-      <c r="BG16" s="96"/>
-      <c r="BH16" s="96"/>
-      <c r="BI16" s="96"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="91"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="91"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="91"/>
+      <c r="AA16" s="91"/>
+      <c r="AB16" s="91"/>
+      <c r="AC16" s="91"/>
+      <c r="AD16" s="91"/>
+      <c r="AE16" s="91"/>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="91"/>
+      <c r="AH16" s="91"/>
+      <c r="AI16" s="91"/>
+      <c r="AJ16" s="91"/>
+      <c r="AK16" s="91"/>
+      <c r="AL16" s="91"/>
+      <c r="AM16" s="91"/>
+      <c r="AN16" s="91"/>
+      <c r="AO16" s="91"/>
+      <c r="AP16" s="91"/>
+      <c r="AQ16" s="91"/>
+      <c r="AR16" s="91"/>
+      <c r="AS16" s="91"/>
+      <c r="AT16" s="91"/>
+      <c r="AU16" s="91"/>
+      <c r="AV16" s="91"/>
+      <c r="AW16" s="91"/>
+      <c r="AX16" s="91"/>
+      <c r="AY16" s="91"/>
+      <c r="AZ16" s="91"/>
+      <c r="BA16" s="91"/>
+      <c r="BB16" s="91"/>
+      <c r="BC16" s="91"/>
+      <c r="BD16" s="91"/>
+      <c r="BE16" s="91"/>
+      <c r="BF16" s="91"/>
+      <c r="BG16" s="91"/>
+      <c r="BH16" s="91"/>
+      <c r="BI16" s="91"/>
     </row>
     <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="95"/>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="95"/>
-      <c r="AG17" s="95"/>
-      <c r="AH17" s="95"/>
-      <c r="AI17" s="95"/>
-      <c r="AJ17" s="95"/>
-      <c r="AK17" s="95"/>
-      <c r="AL17" s="95"/>
-      <c r="AM17" s="95"/>
-      <c r="AN17" s="95"/>
-      <c r="AO17" s="95"/>
-      <c r="AP17" s="95"/>
-      <c r="AQ17" s="95"/>
-      <c r="AR17" s="95"/>
-      <c r="AS17" s="95"/>
-      <c r="AT17" s="95"/>
-      <c r="AU17" s="95"/>
-      <c r="AV17" s="95"/>
-      <c r="AW17" s="95"/>
-      <c r="AX17" s="95"/>
-      <c r="AY17" s="95"/>
-      <c r="AZ17" s="95"/>
-      <c r="BA17" s="95"/>
-      <c r="BB17" s="95"/>
-      <c r="BC17" s="95"/>
-      <c r="BD17" s="95"/>
-      <c r="BE17" s="95"/>
-      <c r="BF17" s="95"/>
-      <c r="BG17" s="95"/>
-      <c r="BH17" s="95"/>
-      <c r="BI17" s="95"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="89"/>
+      <c r="AD17" s="89"/>
+      <c r="AE17" s="89"/>
+      <c r="AF17" s="89"/>
+      <c r="AG17" s="89"/>
+      <c r="AH17" s="89"/>
+      <c r="AI17" s="89"/>
+      <c r="AJ17" s="89"/>
+      <c r="AK17" s="89"/>
+      <c r="AL17" s="89"/>
+      <c r="AM17" s="89"/>
+      <c r="AN17" s="89"/>
+      <c r="AO17" s="89"/>
+      <c r="AP17" s="89"/>
+      <c r="AQ17" s="89"/>
+      <c r="AR17" s="89"/>
+      <c r="AS17" s="89"/>
+      <c r="AT17" s="89"/>
+      <c r="AU17" s="89"/>
+      <c r="AV17" s="89"/>
+      <c r="AW17" s="89"/>
+      <c r="AX17" s="89"/>
+      <c r="AY17" s="89"/>
+      <c r="AZ17" s="89"/>
+      <c r="BA17" s="89"/>
+      <c r="BB17" s="89"/>
+      <c r="BC17" s="89"/>
+      <c r="BD17" s="89"/>
+      <c r="BE17" s="89"/>
+      <c r="BF17" s="89"/>
+      <c r="BG17" s="89"/>
+      <c r="BH17" s="89"/>
+      <c r="BI17" s="89"/>
     </row>
     <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="95"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="95"/>
-      <c r="AF18" s="95"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="95"/>
-      <c r="AI18" s="95"/>
-      <c r="AJ18" s="95"/>
-      <c r="AK18" s="95"/>
-      <c r="AL18" s="95"/>
-      <c r="AM18" s="95"/>
-      <c r="AN18" s="95"/>
-      <c r="AO18" s="95"/>
-      <c r="AP18" s="95"/>
-      <c r="AQ18" s="95"/>
-      <c r="AR18" s="95"/>
-      <c r="AS18" s="95"/>
-      <c r="AT18" s="95"/>
-      <c r="AU18" s="95"/>
-      <c r="AV18" s="95"/>
-      <c r="AW18" s="95"/>
-      <c r="AX18" s="95"/>
-      <c r="AY18" s="95"/>
-      <c r="AZ18" s="95"/>
-      <c r="BA18" s="95"/>
-      <c r="BB18" s="95"/>
-      <c r="BC18" s="95"/>
-      <c r="BD18" s="95"/>
-      <c r="BE18" s="95"/>
-      <c r="BF18" s="95"/>
-      <c r="BG18" s="95"/>
-      <c r="BH18" s="95"/>
-      <c r="BI18" s="95"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="89"/>
+      <c r="AF18" s="89"/>
+      <c r="AG18" s="89"/>
+      <c r="AH18" s="89"/>
+      <c r="AI18" s="89"/>
+      <c r="AJ18" s="89"/>
+      <c r="AK18" s="89"/>
+      <c r="AL18" s="89"/>
+      <c r="AM18" s="89"/>
+      <c r="AN18" s="89"/>
+      <c r="AO18" s="89"/>
+      <c r="AP18" s="89"/>
+      <c r="AQ18" s="89"/>
+      <c r="AR18" s="89"/>
+      <c r="AS18" s="89"/>
+      <c r="AT18" s="89"/>
+      <c r="AU18" s="89"/>
+      <c r="AV18" s="89"/>
+      <c r="AW18" s="89"/>
+      <c r="AX18" s="89"/>
+      <c r="AY18" s="89"/>
+      <c r="AZ18" s="89"/>
+      <c r="BA18" s="89"/>
+      <c r="BB18" s="89"/>
+      <c r="BC18" s="89"/>
+      <c r="BD18" s="89"/>
+      <c r="BE18" s="89"/>
+      <c r="BF18" s="89"/>
+      <c r="BG18" s="89"/>
+      <c r="BH18" s="89"/>
+      <c r="BI18" s="89"/>
     </row>
     <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="95"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="95"/>
-      <c r="AF19" s="95"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="95"/>
-      <c r="AI19" s="95"/>
-      <c r="AJ19" s="95"/>
-      <c r="AK19" s="95"/>
-      <c r="AL19" s="95"/>
-      <c r="AM19" s="95"/>
-      <c r="AN19" s="95"/>
-      <c r="AO19" s="95"/>
-      <c r="AP19" s="95"/>
-      <c r="AQ19" s="95"/>
-      <c r="AR19" s="95"/>
-      <c r="AS19" s="95"/>
-      <c r="AT19" s="95"/>
-      <c r="AU19" s="95"/>
-      <c r="AV19" s="95"/>
-      <c r="AW19" s="95"/>
-      <c r="AX19" s="95"/>
-      <c r="AY19" s="95"/>
-      <c r="AZ19" s="95"/>
-      <c r="BA19" s="95"/>
-      <c r="BB19" s="95"/>
-      <c r="BC19" s="95"/>
-      <c r="BD19" s="95"/>
-      <c r="BE19" s="95"/>
-      <c r="BF19" s="95"/>
-      <c r="BG19" s="95"/>
-      <c r="BH19" s="95"/>
-      <c r="BI19" s="95"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="89"/>
+      <c r="AF19" s="89"/>
+      <c r="AG19" s="89"/>
+      <c r="AH19" s="89"/>
+      <c r="AI19" s="89"/>
+      <c r="AJ19" s="89"/>
+      <c r="AK19" s="89"/>
+      <c r="AL19" s="89"/>
+      <c r="AM19" s="89"/>
+      <c r="AN19" s="89"/>
+      <c r="AO19" s="89"/>
+      <c r="AP19" s="89"/>
+      <c r="AQ19" s="89"/>
+      <c r="AR19" s="89"/>
+      <c r="AS19" s="89"/>
+      <c r="AT19" s="89"/>
+      <c r="AU19" s="89"/>
+      <c r="AV19" s="89"/>
+      <c r="AW19" s="89"/>
+      <c r="AX19" s="89"/>
+      <c r="AY19" s="89"/>
+      <c r="AZ19" s="89"/>
+      <c r="BA19" s="89"/>
+      <c r="BB19" s="89"/>
+      <c r="BC19" s="89"/>
+      <c r="BD19" s="89"/>
+      <c r="BE19" s="89"/>
+      <c r="BF19" s="89"/>
+      <c r="BG19" s="89"/>
+      <c r="BH19" s="89"/>
+      <c r="BI19" s="89"/>
     </row>
     <row r="20" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="95"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="95"/>
-      <c r="AI20" s="95"/>
-      <c r="AJ20" s="95"/>
-      <c r="AK20" s="95"/>
-      <c r="AL20" s="95"/>
-      <c r="AM20" s="95"/>
-      <c r="AN20" s="95"/>
-      <c r="AO20" s="95"/>
-      <c r="AP20" s="95"/>
-      <c r="AQ20" s="95"/>
-      <c r="AR20" s="95"/>
-      <c r="AS20" s="95"/>
-      <c r="AT20" s="95"/>
-      <c r="AU20" s="95"/>
-      <c r="AV20" s="95"/>
-      <c r="AW20" s="95"/>
-      <c r="AX20" s="95"/>
-      <c r="AY20" s="95"/>
-      <c r="AZ20" s="95"/>
-      <c r="BA20" s="95"/>
-      <c r="BB20" s="95"/>
-      <c r="BC20" s="95"/>
-      <c r="BD20" s="95"/>
-      <c r="BE20" s="95"/>
-      <c r="BF20" s="95"/>
-      <c r="BG20" s="95"/>
-      <c r="BH20" s="95"/>
-      <c r="BI20" s="95"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="89"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="89"/>
+      <c r="AF20" s="89"/>
+      <c r="AG20" s="89"/>
+      <c r="AH20" s="89"/>
+      <c r="AI20" s="89"/>
+      <c r="AJ20" s="89"/>
+      <c r="AK20" s="89"/>
+      <c r="AL20" s="89"/>
+      <c r="AM20" s="89"/>
+      <c r="AN20" s="89"/>
+      <c r="AO20" s="89"/>
+      <c r="AP20" s="89"/>
+      <c r="AQ20" s="89"/>
+      <c r="AR20" s="89"/>
+      <c r="AS20" s="89"/>
+      <c r="AT20" s="89"/>
+      <c r="AU20" s="89"/>
+      <c r="AV20" s="89"/>
+      <c r="AW20" s="89"/>
+      <c r="AX20" s="89"/>
+      <c r="AY20" s="89"/>
+      <c r="AZ20" s="89"/>
+      <c r="BA20" s="89"/>
+      <c r="BB20" s="89"/>
+      <c r="BC20" s="89"/>
+      <c r="BD20" s="89"/>
+      <c r="BE20" s="89"/>
+      <c r="BF20" s="89"/>
+      <c r="BG20" s="89"/>
+      <c r="BH20" s="89"/>
+      <c r="BI20" s="89"/>
     </row>
     <row r="21" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="95"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="95"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="95"/>
-      <c r="AI21" s="95"/>
-      <c r="AJ21" s="95"/>
-      <c r="AK21" s="95"/>
-      <c r="AL21" s="95"/>
-      <c r="AM21" s="95"/>
-      <c r="AN21" s="95"/>
-      <c r="AO21" s="95"/>
-      <c r="AP21" s="95"/>
-      <c r="AQ21" s="95"/>
-      <c r="AR21" s="95"/>
-      <c r="AS21" s="95"/>
-      <c r="AT21" s="95"/>
-      <c r="AU21" s="95"/>
-      <c r="AV21" s="95"/>
-      <c r="AW21" s="95"/>
-      <c r="AX21" s="95"/>
-      <c r="AY21" s="95"/>
-      <c r="AZ21" s="95"/>
-      <c r="BA21" s="95"/>
-      <c r="BB21" s="95"/>
-      <c r="BC21" s="95"/>
-      <c r="BD21" s="95"/>
-      <c r="BE21" s="95"/>
-      <c r="BF21" s="95"/>
-      <c r="BG21" s="95"/>
-      <c r="BH21" s="95"/>
-      <c r="BI21" s="95"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="89"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="89"/>
+      <c r="AF21" s="89"/>
+      <c r="AG21" s="89"/>
+      <c r="AH21" s="89"/>
+      <c r="AI21" s="89"/>
+      <c r="AJ21" s="89"/>
+      <c r="AK21" s="89"/>
+      <c r="AL21" s="89"/>
+      <c r="AM21" s="89"/>
+      <c r="AN21" s="89"/>
+      <c r="AO21" s="89"/>
+      <c r="AP21" s="89"/>
+      <c r="AQ21" s="89"/>
+      <c r="AR21" s="89"/>
+      <c r="AS21" s="89"/>
+      <c r="AT21" s="89"/>
+      <c r="AU21" s="89"/>
+      <c r="AV21" s="89"/>
+      <c r="AW21" s="89"/>
+      <c r="AX21" s="89"/>
+      <c r="AY21" s="89"/>
+      <c r="AZ21" s="89"/>
+      <c r="BA21" s="89"/>
+      <c r="BB21" s="89"/>
+      <c r="BC21" s="89"/>
+      <c r="BD21" s="89"/>
+      <c r="BE21" s="89"/>
+      <c r="BF21" s="89"/>
+      <c r="BG21" s="89"/>
+      <c r="BH21" s="89"/>
+      <c r="BI21" s="89"/>
     </row>
     <row r="22" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="95"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="95"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="95"/>
-      <c r="AI22" s="95"/>
-      <c r="AJ22" s="95"/>
-      <c r="AK22" s="95"/>
-      <c r="AL22" s="95"/>
-      <c r="AM22" s="95"/>
-      <c r="AN22" s="95"/>
-      <c r="AO22" s="95"/>
-      <c r="AP22" s="95"/>
-      <c r="AQ22" s="95"/>
-      <c r="AR22" s="95"/>
-      <c r="AS22" s="95"/>
-      <c r="AT22" s="95"/>
-      <c r="AU22" s="95"/>
-      <c r="AV22" s="95"/>
-      <c r="AW22" s="95"/>
-      <c r="AX22" s="95"/>
-      <c r="AY22" s="95"/>
-      <c r="AZ22" s="95"/>
-      <c r="BA22" s="95"/>
-      <c r="BB22" s="95"/>
-      <c r="BC22" s="95"/>
-      <c r="BD22" s="95"/>
-      <c r="BE22" s="95"/>
-      <c r="BF22" s="95"/>
-      <c r="BG22" s="95"/>
-      <c r="BH22" s="95"/>
-      <c r="BI22" s="95"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="89"/>
+      <c r="AD22" s="89"/>
+      <c r="AE22" s="89"/>
+      <c r="AF22" s="89"/>
+      <c r="AG22" s="89"/>
+      <c r="AH22" s="89"/>
+      <c r="AI22" s="89"/>
+      <c r="AJ22" s="89"/>
+      <c r="AK22" s="89"/>
+      <c r="AL22" s="89"/>
+      <c r="AM22" s="89"/>
+      <c r="AN22" s="89"/>
+      <c r="AO22" s="89"/>
+      <c r="AP22" s="89"/>
+      <c r="AQ22" s="89"/>
+      <c r="AR22" s="89"/>
+      <c r="AS22" s="89"/>
+      <c r="AT22" s="89"/>
+      <c r="AU22" s="89"/>
+      <c r="AV22" s="89"/>
+      <c r="AW22" s="89"/>
+      <c r="AX22" s="89"/>
+      <c r="AY22" s="89"/>
+      <c r="AZ22" s="89"/>
+      <c r="BA22" s="89"/>
+      <c r="BB22" s="89"/>
+      <c r="BC22" s="89"/>
+      <c r="BD22" s="89"/>
+      <c r="BE22" s="89"/>
+      <c r="BF22" s="89"/>
+      <c r="BG22" s="89"/>
+      <c r="BH22" s="89"/>
+      <c r="BI22" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="AO12:BI12"/>
-    <mergeCell ref="A17:BI22"/>
-    <mergeCell ref="A16:BI16"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE14:AN14"/>
-    <mergeCell ref="AO14:BI14"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AN9"/>
+    <mergeCell ref="AO9:BI9"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:AC6"/>
+    <mergeCell ref="AD6:AI6"/>
+    <mergeCell ref="AJ6:BI6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AN8"/>
+    <mergeCell ref="AO8:BI8"/>
     <mergeCell ref="AE10:AN10"/>
     <mergeCell ref="AO10:BI10"/>
     <mergeCell ref="A13:J13"/>
@@ -3816,44 +3838,14 @@
     <mergeCell ref="K12:T12"/>
     <mergeCell ref="U12:AD12"/>
     <mergeCell ref="AE12:AN12"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:AC6"/>
-    <mergeCell ref="AD6:AI6"/>
-    <mergeCell ref="AJ6:BI6"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AN8"/>
-    <mergeCell ref="AO8:BI8"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AN9"/>
-    <mergeCell ref="AO9:BI9"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AO12:BI12"/>
+    <mergeCell ref="A17:BI22"/>
+    <mergeCell ref="A16:BI16"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE14:AN14"/>
+    <mergeCell ref="AO14:BI14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -3891,63 +3883,63 @@
       <c r="J1" s="102"/>
       <c r="K1" s="102"/>
       <c r="L1" s="102"/>
-      <c r="M1" s="100" t="s">
+      <c r="M1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="104" t="s">
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="100" t="s">
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="104" t="s">
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104"/>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104"/>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104"/>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="100" t="s">
+      <c r="AF1" s="100"/>
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="100"/>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="100"/>
+      <c r="AM1" s="100"/>
+      <c r="AN1" s="100"/>
+      <c r="AO1" s="100"/>
+      <c r="AP1" s="100"/>
+      <c r="AQ1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="100"/>
-      <c r="AS1" s="100"/>
-      <c r="AT1" s="104" t="s">
+      <c r="AR1" s="99"/>
+      <c r="AS1" s="99"/>
+      <c r="AT1" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="104"/>
-      <c r="AW1" s="104"/>
-      <c r="AX1" s="104"/>
-      <c r="AY1" s="104"/>
-      <c r="AZ1" s="104"/>
-      <c r="BA1" s="100" t="s">
+      <c r="AU1" s="100"/>
+      <c r="AV1" s="100"/>
+      <c r="AW1" s="100"/>
+      <c r="AX1" s="100"/>
+      <c r="AY1" s="100"/>
+      <c r="AZ1" s="100"/>
+      <c r="BA1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="100"/>
-      <c r="BC1" s="100"/>
+      <c r="BB1" s="99"/>
+      <c r="BC1" s="99"/>
       <c r="BD1" s="103">
         <v>45537</v>
       </c>
@@ -4167,61 +4159,61 @@
       <c r="J2" s="102"/>
       <c r="K2" s="102"/>
       <c r="L2" s="102"/>
-      <c r="M2" s="100" t="s">
+      <c r="M2" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="100" t="s">
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="104" t="s">
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="104"/>
-      <c r="AL2" s="104"/>
-      <c r="AM2" s="104"/>
-      <c r="AN2" s="104"/>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="100" t="s">
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="100"/>
+      <c r="AL2" s="100"/>
+      <c r="AM2" s="100"/>
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="100"/>
+      <c r="AP2" s="100"/>
+      <c r="AQ2" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="100"/>
-      <c r="AS2" s="100"/>
-      <c r="AT2" s="104" t="s">
+      <c r="AR2" s="99"/>
+      <c r="AS2" s="99"/>
+      <c r="AT2" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="AU2" s="104"/>
-      <c r="AV2" s="104"/>
-      <c r="AW2" s="104"/>
-      <c r="AX2" s="104"/>
-      <c r="AY2" s="104"/>
-      <c r="AZ2" s="104"/>
-      <c r="BA2" s="100" t="s">
+      <c r="AU2" s="100"/>
+      <c r="AV2" s="100"/>
+      <c r="AW2" s="100"/>
+      <c r="AX2" s="100"/>
+      <c r="AY2" s="100"/>
+      <c r="AZ2" s="100"/>
+      <c r="BA2" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="BB2" s="100"/>
-      <c r="BC2" s="100"/>
+      <c r="BB2" s="99"/>
+      <c r="BC2" s="99"/>
       <c r="BD2" s="103">
         <v>45566</v>
       </c>
@@ -4429,14 +4421,14 @@
       <c r="IX2"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
       <c r="G4" s="101" t="s">
         <v>84</v>
       </c>
@@ -4693,14 +4685,14 @@
       <c r="IX4"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="101" t="s">
         <v>146</v>
       </c>
@@ -5156,75 +5148,75 @@
       <c r="IX6"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99" t="s">
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99" t="s">
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="99"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="99"/>
-      <c r="W7" s="99"/>
-      <c r="X7" s="99"/>
-      <c r="Y7" s="99"/>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="99"/>
-      <c r="AD7" s="99"/>
-      <c r="AE7" s="99" t="s">
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="AF7" s="99"/>
-      <c r="AG7" s="99"/>
-      <c r="AH7" s="99"/>
-      <c r="AI7" s="99"/>
-      <c r="AJ7" s="99"/>
-      <c r="AK7" s="99"/>
-      <c r="AL7" s="99"/>
-      <c r="AM7" s="99"/>
-      <c r="AN7" s="99"/>
-      <c r="AO7" s="99"/>
-      <c r="AP7" s="99"/>
-      <c r="AQ7" s="99"/>
-      <c r="AR7" s="99"/>
-      <c r="AS7" s="99"/>
-      <c r="AT7" s="99"/>
-      <c r="AU7" s="99"/>
-      <c r="AV7" s="99"/>
-      <c r="AW7" s="99"/>
-      <c r="AX7" s="99"/>
-      <c r="AY7" s="99"/>
-      <c r="AZ7" s="99"/>
-      <c r="BA7" s="99"/>
-      <c r="BB7" s="99"/>
-      <c r="BC7" s="99"/>
-      <c r="BD7" s="99"/>
-      <c r="BE7" s="99"/>
-      <c r="BF7" s="99"/>
-      <c r="BG7" s="99"/>
-      <c r="BH7" s="99"/>
-      <c r="BI7" s="99"/>
+      <c r="AF7" s="105"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="105"/>
+      <c r="AI7" s="105"/>
+      <c r="AJ7" s="105"/>
+      <c r="AK7" s="105"/>
+      <c r="AL7" s="105"/>
+      <c r="AM7" s="105"/>
+      <c r="AN7" s="105"/>
+      <c r="AO7" s="105"/>
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="105"/>
+      <c r="AY7" s="105"/>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="105"/>
+      <c r="BC7" s="105"/>
+      <c r="BD7" s="105"/>
+      <c r="BE7" s="105"/>
+      <c r="BF7" s="105"/>
+      <c r="BG7" s="105"/>
+      <c r="BH7" s="105"/>
+      <c r="BI7" s="105"/>
       <c r="BJ7"/>
       <c r="BK7"/>
       <c r="BL7"/>
@@ -5424,75 +5416,75 @@
       <c r="IX7"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="98" t="s">
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98" t="s">
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="98"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="98"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="98"/>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="98" t="s">
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="104"/>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="AF8" s="98"/>
-      <c r="AG8" s="98"/>
-      <c r="AH8" s="98"/>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="98"/>
-      <c r="AL8" s="98"/>
-      <c r="AM8" s="98"/>
-      <c r="AN8" s="98"/>
-      <c r="AO8" s="98"/>
-      <c r="AP8" s="98"/>
-      <c r="AQ8" s="98"/>
-      <c r="AR8" s="98"/>
-      <c r="AS8" s="98"/>
-      <c r="AT8" s="98"/>
-      <c r="AU8" s="98"/>
-      <c r="AV8" s="98"/>
-      <c r="AW8" s="98"/>
-      <c r="AX8" s="98"/>
-      <c r="AY8" s="98"/>
-      <c r="AZ8" s="98"/>
-      <c r="BA8" s="98"/>
-      <c r="BB8" s="98"/>
-      <c r="BC8" s="98"/>
-      <c r="BD8" s="98"/>
-      <c r="BE8" s="98"/>
-      <c r="BF8" s="98"/>
-      <c r="BG8" s="98"/>
-      <c r="BH8" s="98"/>
-      <c r="BI8" s="98"/>
+      <c r="AF8" s="104"/>
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="104"/>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="104"/>
+      <c r="AL8" s="104"/>
+      <c r="AM8" s="104"/>
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="104"/>
+      <c r="AP8" s="104"/>
+      <c r="AQ8" s="104"/>
+      <c r="AR8" s="104"/>
+      <c r="AS8" s="104"/>
+      <c r="AT8" s="104"/>
+      <c r="AU8" s="104"/>
+      <c r="AV8" s="104"/>
+      <c r="AW8" s="104"/>
+      <c r="AX8" s="104"/>
+      <c r="AY8" s="104"/>
+      <c r="AZ8" s="104"/>
+      <c r="BA8" s="104"/>
+      <c r="BB8" s="104"/>
+      <c r="BC8" s="104"/>
+      <c r="BD8" s="104"/>
+      <c r="BE8" s="104"/>
+      <c r="BF8" s="104"/>
+      <c r="BG8" s="104"/>
+      <c r="BH8" s="104"/>
+      <c r="BI8" s="104"/>
       <c r="BJ8"/>
       <c r="BK8"/>
       <c r="BL8"/>
@@ -5692,67 +5684,67 @@
       <c r="IX8"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="98"/>
-      <c r="AG9" s="98"/>
-      <c r="AH9" s="98"/>
-      <c r="AI9" s="98"/>
-      <c r="AJ9" s="98"/>
-      <c r="AK9" s="98"/>
-      <c r="AL9" s="98"/>
-      <c r="AM9" s="98"/>
-      <c r="AN9" s="98"/>
-      <c r="AO9" s="98"/>
-      <c r="AP9" s="98"/>
-      <c r="AQ9" s="98"/>
-      <c r="AR9" s="98"/>
-      <c r="AS9" s="98"/>
-      <c r="AT9" s="98"/>
-      <c r="AU9" s="98"/>
-      <c r="AV9" s="98"/>
-      <c r="AW9" s="98"/>
-      <c r="AX9" s="98"/>
-      <c r="AY9" s="98"/>
-      <c r="AZ9" s="98"/>
-      <c r="BA9" s="98"/>
-      <c r="BB9" s="98"/>
-      <c r="BC9" s="98"/>
-      <c r="BD9" s="98"/>
-      <c r="BE9" s="98"/>
-      <c r="BF9" s="98"/>
-      <c r="BG9" s="98"/>
-      <c r="BH9" s="98"/>
-      <c r="BI9" s="98"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="104"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="104"/>
+      <c r="Y9" s="104"/>
+      <c r="Z9" s="104"/>
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="104"/>
+      <c r="AD9" s="104"/>
+      <c r="AE9" s="104"/>
+      <c r="AF9" s="104"/>
+      <c r="AG9" s="104"/>
+      <c r="AH9" s="104"/>
+      <c r="AI9" s="104"/>
+      <c r="AJ9" s="104"/>
+      <c r="AK9" s="104"/>
+      <c r="AL9" s="104"/>
+      <c r="AM9" s="104"/>
+      <c r="AN9" s="104"/>
+      <c r="AO9" s="104"/>
+      <c r="AP9" s="104"/>
+      <c r="AQ9" s="104"/>
+      <c r="AR9" s="104"/>
+      <c r="AS9" s="104"/>
+      <c r="AT9" s="104"/>
+      <c r="AU9" s="104"/>
+      <c r="AV9" s="104"/>
+      <c r="AW9" s="104"/>
+      <c r="AX9" s="104"/>
+      <c r="AY9" s="104"/>
+      <c r="AZ9" s="104"/>
+      <c r="BA9" s="104"/>
+      <c r="BB9" s="104"/>
+      <c r="BC9" s="104"/>
+      <c r="BD9" s="104"/>
+      <c r="BE9" s="104"/>
+      <c r="BF9" s="104"/>
+      <c r="BG9" s="104"/>
+      <c r="BH9" s="104"/>
+      <c r="BI9" s="104"/>
       <c r="BJ9"/>
       <c r="BK9"/>
       <c r="BL9"/>
@@ -5952,67 +5944,67 @@
       <c r="IX9"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="92"/>
-      <c r="AF10" s="92"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="92"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="92"/>
-      <c r="AL10" s="92"/>
-      <c r="AM10" s="92"/>
-      <c r="AN10" s="92"/>
-      <c r="AO10" s="92"/>
-      <c r="AP10" s="92"/>
-      <c r="AQ10" s="92"/>
-      <c r="AR10" s="92"/>
-      <c r="AS10" s="92"/>
-      <c r="AT10" s="92"/>
-      <c r="AU10" s="92"/>
-      <c r="AV10" s="92"/>
-      <c r="AW10" s="92"/>
-      <c r="AX10" s="92"/>
-      <c r="AY10" s="92"/>
-      <c r="AZ10" s="92"/>
-      <c r="BA10" s="92"/>
-      <c r="BB10" s="92"/>
-      <c r="BC10" s="92"/>
-      <c r="BD10" s="92"/>
-      <c r="BE10" s="92"/>
-      <c r="BF10" s="92"/>
-      <c r="BG10" s="92"/>
-      <c r="BH10" s="92"/>
-      <c r="BI10" s="92"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="93"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="93"/>
+      <c r="AG10" s="93"/>
+      <c r="AH10" s="93"/>
+      <c r="AI10" s="93"/>
+      <c r="AJ10" s="93"/>
+      <c r="AK10" s="93"/>
+      <c r="AL10" s="93"/>
+      <c r="AM10" s="93"/>
+      <c r="AN10" s="93"/>
+      <c r="AO10" s="93"/>
+      <c r="AP10" s="93"/>
+      <c r="AQ10" s="93"/>
+      <c r="AR10" s="93"/>
+      <c r="AS10" s="93"/>
+      <c r="AT10" s="93"/>
+      <c r="AU10" s="93"/>
+      <c r="AV10" s="93"/>
+      <c r="AW10" s="93"/>
+      <c r="AX10" s="93"/>
+      <c r="AY10" s="93"/>
+      <c r="AZ10" s="93"/>
+      <c r="BA10" s="93"/>
+      <c r="BB10" s="93"/>
+      <c r="BC10" s="93"/>
+      <c r="BD10" s="93"/>
+      <c r="BE10" s="93"/>
+      <c r="BF10" s="93"/>
+      <c r="BG10" s="93"/>
+      <c r="BH10" s="93"/>
+      <c r="BI10" s="93"/>
       <c r="BJ10"/>
       <c r="BK10"/>
       <c r="BL10"/>
@@ -6212,67 +6204,67 @@
       <c r="IX10"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="92"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="92"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="92"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="92"/>
-      <c r="AZ11" s="92"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="92"/>
-      <c r="BC11" s="92"/>
-      <c r="BD11" s="92"/>
-      <c r="BE11" s="92"/>
-      <c r="BF11" s="92"/>
-      <c r="BG11" s="92"/>
-      <c r="BH11" s="92"/>
-      <c r="BI11" s="92"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="93"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="93"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="93"/>
+      <c r="AG11" s="93"/>
+      <c r="AH11" s="93"/>
+      <c r="AI11" s="93"/>
+      <c r="AJ11" s="93"/>
+      <c r="AK11" s="93"/>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="93"/>
+      <c r="AN11" s="93"/>
+      <c r="AO11" s="93"/>
+      <c r="AP11" s="93"/>
+      <c r="AQ11" s="93"/>
+      <c r="AR11" s="93"/>
+      <c r="AS11" s="93"/>
+      <c r="AT11" s="93"/>
+      <c r="AU11" s="93"/>
+      <c r="AV11" s="93"/>
+      <c r="AW11" s="93"/>
+      <c r="AX11" s="93"/>
+      <c r="AY11" s="93"/>
+      <c r="AZ11" s="93"/>
+      <c r="BA11" s="93"/>
+      <c r="BB11" s="93"/>
+      <c r="BC11" s="93"/>
+      <c r="BD11" s="93"/>
+      <c r="BE11" s="93"/>
+      <c r="BF11" s="93"/>
+      <c r="BG11" s="93"/>
+      <c r="BH11" s="93"/>
+      <c r="BI11" s="93"/>
       <c r="BJ11"/>
       <c r="BK11"/>
       <c r="BL11"/>
@@ -6878,73 +6870,73 @@
       <c r="IX13"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99" t="s">
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="99"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="99"/>
-      <c r="AH14" s="99"/>
-      <c r="AI14" s="99"/>
-      <c r="AJ14" s="99"/>
-      <c r="AK14" s="99"/>
-      <c r="AL14" s="99"/>
-      <c r="AM14" s="99"/>
-      <c r="AN14" s="99"/>
-      <c r="AO14" s="99"/>
-      <c r="AP14" s="99"/>
-      <c r="AQ14" s="99"/>
-      <c r="AR14" s="99"/>
-      <c r="AS14" s="99"/>
-      <c r="AT14" s="99" t="s">
+      <c r="Q14" s="105"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="105"/>
+      <c r="AA14" s="105"/>
+      <c r="AB14" s="105"/>
+      <c r="AC14" s="105"/>
+      <c r="AD14" s="105"/>
+      <c r="AE14" s="105"/>
+      <c r="AF14" s="105"/>
+      <c r="AG14" s="105"/>
+      <c r="AH14" s="105"/>
+      <c r="AI14" s="105"/>
+      <c r="AJ14" s="105"/>
+      <c r="AK14" s="105"/>
+      <c r="AL14" s="105"/>
+      <c r="AM14" s="105"/>
+      <c r="AN14" s="105"/>
+      <c r="AO14" s="105"/>
+      <c r="AP14" s="105"/>
+      <c r="AQ14" s="105"/>
+      <c r="AR14" s="105"/>
+      <c r="AS14" s="105"/>
+      <c r="AT14" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="AU14" s="99"/>
-      <c r="AV14" s="99"/>
-      <c r="AW14" s="99"/>
-      <c r="AX14" s="99"/>
-      <c r="AY14" s="99"/>
-      <c r="AZ14" s="99"/>
-      <c r="BA14" s="99"/>
-      <c r="BB14" s="99"/>
-      <c r="BC14" s="99"/>
-      <c r="BD14" s="99"/>
-      <c r="BE14" s="99"/>
-      <c r="BF14" s="99"/>
-      <c r="BG14" s="99"/>
-      <c r="BH14" s="99"/>
-      <c r="BI14" s="99"/>
+      <c r="AU14" s="105"/>
+      <c r="AV14" s="105"/>
+      <c r="AW14" s="105"/>
+      <c r="AX14" s="105"/>
+      <c r="AY14" s="105"/>
+      <c r="AZ14" s="105"/>
+      <c r="BA14" s="105"/>
+      <c r="BB14" s="105"/>
+      <c r="BC14" s="105"/>
+      <c r="BD14" s="105"/>
+      <c r="BE14" s="105"/>
+      <c r="BF14" s="105"/>
+      <c r="BG14" s="105"/>
+      <c r="BH14" s="105"/>
+      <c r="BI14" s="105"/>
       <c r="BJ14"/>
       <c r="BK14"/>
       <c r="BL14"/>
@@ -12483,11 +12475,29 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="P14:AS14"/>
+    <mergeCell ref="AT14:BI14"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
     <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:BI4"/>
@@ -12504,29 +12514,11 @@
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="P14:AS14"/>
-    <mergeCell ref="AT14:BI14"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="2">
@@ -12558,87 +12550,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="89" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="90" t="str">
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="95" t="str">
         <f>クラス仕様!R1</f>
         <v>商品購入</v>
       </c>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="89" t="s">
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="90" t="str">
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="95" t="str">
         <f>クラス仕様!AE1</f>
         <v>商品検索</v>
       </c>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90"/>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="89" t="s">
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="95"/>
+      <c r="AM1" s="95"/>
+      <c r="AN1" s="95"/>
+      <c r="AO1" s="95"/>
+      <c r="AP1" s="95"/>
+      <c r="AQ1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="90" t="s">
+      <c r="AR1" s="96"/>
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
-      <c r="AW1" s="90"/>
-      <c r="AX1" s="90"/>
-      <c r="AY1" s="90"/>
-      <c r="AZ1" s="90"/>
-      <c r="BA1" s="89" t="s">
+      <c r="AU1" s="95"/>
+      <c r="AV1" s="95"/>
+      <c r="AW1" s="95"/>
+      <c r="AX1" s="95"/>
+      <c r="AY1" s="95"/>
+      <c r="AZ1" s="95"/>
+      <c r="BA1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="89"/>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="91">
+      <c r="BB1" s="96"/>
+      <c r="BC1" s="96"/>
+      <c r="BD1" s="92">
         <v>45000</v>
       </c>
-      <c r="BE1" s="91"/>
-      <c r="BF1" s="91"/>
-      <c r="BG1" s="91"/>
-      <c r="BH1" s="91"/>
-      <c r="BI1" s="91"/>
+      <c r="BE1" s="92"/>
+      <c r="BF1" s="92"/>
+      <c r="BG1" s="92"/>
+      <c r="BH1" s="92"/>
+      <c r="BI1" s="92"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -12838,78 +12830,78 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="89" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="89" t="s">
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="90" t="str">
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="95" t="str">
         <f>クラス仕様!G5</f>
         <v>SearchResultServlet</v>
       </c>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="90"/>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="90"/>
-      <c r="AK2" s="90"/>
-      <c r="AL2" s="90"/>
-      <c r="AM2" s="90"/>
-      <c r="AN2" s="90"/>
-      <c r="AO2" s="90"/>
-      <c r="AP2" s="90"/>
-      <c r="AQ2" s="89" t="s">
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="95"/>
+      <c r="AI2" s="95"/>
+      <c r="AJ2" s="95"/>
+      <c r="AK2" s="95"/>
+      <c r="AL2" s="95"/>
+      <c r="AM2" s="95"/>
+      <c r="AN2" s="95"/>
+      <c r="AO2" s="95"/>
+      <c r="AP2" s="95"/>
+      <c r="AQ2" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="89"/>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="90"/>
-      <c r="AU2" s="90"/>
-      <c r="AV2" s="90"/>
-      <c r="AW2" s="90"/>
-      <c r="AX2" s="90"/>
-      <c r="AY2" s="90"/>
-      <c r="AZ2" s="90"/>
-      <c r="BA2" s="89" t="s">
+      <c r="AR2" s="96"/>
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="95"/>
+      <c r="AU2" s="95"/>
+      <c r="AV2" s="95"/>
+      <c r="AW2" s="95"/>
+      <c r="AX2" s="95"/>
+      <c r="AY2" s="95"/>
+      <c r="AZ2" s="95"/>
+      <c r="BA2" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="BB2" s="89"/>
-      <c r="BC2" s="89"/>
-      <c r="BD2" s="91"/>
-      <c r="BE2" s="91"/>
-      <c r="BF2" s="91"/>
-      <c r="BG2" s="91"/>
-      <c r="BH2" s="91"/>
-      <c r="BI2" s="91"/>
+      <c r="BB2" s="96"/>
+      <c r="BC2" s="96"/>
+      <c r="BD2" s="92"/>
+      <c r="BE2" s="92"/>
+      <c r="BF2" s="92"/>
+      <c r="BG2" s="92"/>
+      <c r="BH2" s="92"/>
+      <c r="BI2" s="92"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -13109,71 +13101,71 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97" t="s">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="97"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="97"/>
-      <c r="AH4" s="97"/>
-      <c r="AI4" s="97"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="97"/>
-      <c r="AL4" s="97"/>
-      <c r="AM4" s="97"/>
-      <c r="AN4" s="97"/>
-      <c r="AO4" s="97"/>
-      <c r="AP4" s="97"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="97"/>
-      <c r="AS4" s="97"/>
-      <c r="AT4" s="97"/>
-      <c r="AU4" s="97"/>
-      <c r="AV4" s="97"/>
-      <c r="AW4" s="97"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="97"/>
-      <c r="AZ4" s="97"/>
-      <c r="BA4" s="97"/>
-      <c r="BB4" s="97"/>
-      <c r="BC4" s="97"/>
-      <c r="BD4" s="97"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="97"/>
-      <c r="BG4" s="97"/>
-      <c r="BH4" s="97"/>
-      <c r="BI4" s="97"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="90"/>
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="90"/>
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -13373,71 +13365,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="97" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="97"/>
-      <c r="AB5" s="97"/>
-      <c r="AC5" s="97"/>
-      <c r="AD5" s="97"/>
-      <c r="AE5" s="97"/>
-      <c r="AF5" s="97"/>
-      <c r="AG5" s="97"/>
-      <c r="AH5" s="97"/>
-      <c r="AI5" s="97"/>
-      <c r="AJ5" s="97"/>
-      <c r="AK5" s="97"/>
-      <c r="AL5" s="97"/>
-      <c r="AM5" s="97"/>
-      <c r="AN5" s="97"/>
-      <c r="AO5" s="97"/>
-      <c r="AP5" s="97"/>
-      <c r="AQ5" s="97"/>
-      <c r="AR5" s="97"/>
-      <c r="AS5" s="97"/>
-      <c r="AT5" s="97"/>
-      <c r="AU5" s="97"/>
-      <c r="AV5" s="97"/>
-      <c r="AW5" s="97"/>
-      <c r="AX5" s="97"/>
-      <c r="AY5" s="97"/>
-      <c r="AZ5" s="97"/>
-      <c r="BA5" s="97"/>
-      <c r="BB5" s="97"/>
-      <c r="BC5" s="97"/>
-      <c r="BD5" s="97"/>
-      <c r="BE5" s="97"/>
-      <c r="BF5" s="97"/>
-      <c r="BG5" s="97"/>
-      <c r="BH5" s="97"/>
-      <c r="BI5" s="97"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="90"/>
+      <c r="AE5" s="90"/>
+      <c r="AF5" s="90"/>
+      <c r="AG5" s="90"/>
+      <c r="AH5" s="90"/>
+      <c r="AI5" s="90"/>
+      <c r="AJ5" s="90"/>
+      <c r="AK5" s="90"/>
+      <c r="AL5" s="90"/>
+      <c r="AM5" s="90"/>
+      <c r="AN5" s="90"/>
+      <c r="AO5" s="90"/>
+      <c r="AP5" s="90"/>
+      <c r="AQ5" s="90"/>
+      <c r="AR5" s="90"/>
+      <c r="AS5" s="90"/>
+      <c r="AT5" s="90"/>
+      <c r="AU5" s="90"/>
+      <c r="AV5" s="90"/>
+      <c r="AW5" s="90"/>
+      <c r="AX5" s="90"/>
+      <c r="AY5" s="90"/>
+      <c r="AZ5" s="90"/>
+      <c r="BA5" s="90"/>
+      <c r="BB5" s="90"/>
+      <c r="BC5" s="90"/>
+      <c r="BD5" s="90"/>
+      <c r="BE5" s="90"/>
+      <c r="BF5" s="90"/>
+      <c r="BG5" s="90"/>
+      <c r="BH5" s="90"/>
+      <c r="BI5" s="90"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -13897,75 +13889,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99" t="s">
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99" t="s">
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="99"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="99"/>
-      <c r="W7" s="99"/>
-      <c r="X7" s="99"/>
-      <c r="Y7" s="99"/>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="99"/>
-      <c r="AD7" s="99"/>
-      <c r="AE7" s="99" t="s">
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="AF7" s="99"/>
-      <c r="AG7" s="99"/>
-      <c r="AH7" s="99"/>
-      <c r="AI7" s="99"/>
-      <c r="AJ7" s="99"/>
-      <c r="AK7" s="99"/>
-      <c r="AL7" s="99"/>
-      <c r="AM7" s="99"/>
-      <c r="AN7" s="99"/>
-      <c r="AO7" s="99"/>
-      <c r="AP7" s="99"/>
-      <c r="AQ7" s="99"/>
-      <c r="AR7" s="99"/>
-      <c r="AS7" s="99"/>
-      <c r="AT7" s="99"/>
-      <c r="AU7" s="99"/>
-      <c r="AV7" s="99"/>
-      <c r="AW7" s="99"/>
-      <c r="AX7" s="99"/>
-      <c r="AY7" s="99"/>
-      <c r="AZ7" s="99"/>
-      <c r="BA7" s="99"/>
-      <c r="BB7" s="99"/>
-      <c r="BC7" s="99"/>
-      <c r="BD7" s="99"/>
-      <c r="BE7" s="99"/>
-      <c r="BF7" s="99"/>
-      <c r="BG7" s="99"/>
-      <c r="BH7" s="99"/>
-      <c r="BI7" s="99"/>
+      <c r="AF7" s="105"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="105"/>
+      <c r="AI7" s="105"/>
+      <c r="AJ7" s="105"/>
+      <c r="AK7" s="105"/>
+      <c r="AL7" s="105"/>
+      <c r="AM7" s="105"/>
+      <c r="AN7" s="105"/>
+      <c r="AO7" s="105"/>
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="105"/>
+      <c r="AY7" s="105"/>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="105"/>
+      <c r="BC7" s="105"/>
+      <c r="BD7" s="105"/>
+      <c r="BE7" s="105"/>
+      <c r="BF7" s="105"/>
+      <c r="BG7" s="105"/>
+      <c r="BH7" s="105"/>
+      <c r="BI7" s="105"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -15497,23 +15489,23 @@
       <c r="IX12" s="1"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
       <c r="P13" s="108" t="s">
         <v>6</v>
       </c>
@@ -26416,11 +26408,29 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="P13:AS13"/>
+    <mergeCell ref="AT13:BI13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
     <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:BI4"/>
@@ -26437,29 +26447,11 @@
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="P13:AS13"/>
-    <mergeCell ref="AT13:BI13"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -26478,7 +26470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IX116"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A79" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
@@ -26490,87 +26482,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="89" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="90" t="str">
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="95" t="str">
         <f>クラス仕様!R1</f>
         <v>商品購入</v>
       </c>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="89" t="s">
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="90" t="str">
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="95" t="str">
         <f>クラス仕様!AE1</f>
         <v>商品検索</v>
       </c>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90"/>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="89" t="s">
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="95"/>
+      <c r="AM1" s="95"/>
+      <c r="AN1" s="95"/>
+      <c r="AO1" s="95"/>
+      <c r="AP1" s="95"/>
+      <c r="AQ1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="90" t="s">
+      <c r="AR1" s="96"/>
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
-      <c r="AW1" s="90"/>
-      <c r="AX1" s="90"/>
-      <c r="AY1" s="90"/>
-      <c r="AZ1" s="90"/>
-      <c r="BA1" s="89" t="s">
+      <c r="AU1" s="95"/>
+      <c r="AV1" s="95"/>
+      <c r="AW1" s="95"/>
+      <c r="AX1" s="95"/>
+      <c r="AY1" s="95"/>
+      <c r="AZ1" s="95"/>
+      <c r="BA1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="89"/>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="91">
+      <c r="BB1" s="96"/>
+      <c r="BC1" s="96"/>
+      <c r="BD1" s="92">
         <v>45537</v>
       </c>
-      <c r="BE1" s="91"/>
-      <c r="BF1" s="91"/>
-      <c r="BG1" s="91"/>
-      <c r="BH1" s="91"/>
-      <c r="BI1" s="91"/>
+      <c r="BE1" s="92"/>
+      <c r="BF1" s="92"/>
+      <c r="BG1" s="92"/>
+      <c r="BH1" s="92"/>
+      <c r="BI1" s="92"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -26770,82 +26762,82 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="89" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="89" t="s">
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="90" t="str">
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="95" t="str">
         <f>クラス仕様!G5</f>
         <v>SearchResultServlet</v>
       </c>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="90"/>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="90"/>
-      <c r="AK2" s="90"/>
-      <c r="AL2" s="90"/>
-      <c r="AM2" s="90"/>
-      <c r="AN2" s="90"/>
-      <c r="AO2" s="90"/>
-      <c r="AP2" s="90"/>
-      <c r="AQ2" s="89" t="s">
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="95"/>
+      <c r="AI2" s="95"/>
+      <c r="AJ2" s="95"/>
+      <c r="AK2" s="95"/>
+      <c r="AL2" s="95"/>
+      <c r="AM2" s="95"/>
+      <c r="AN2" s="95"/>
+      <c r="AO2" s="95"/>
+      <c r="AP2" s="95"/>
+      <c r="AQ2" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="89"/>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="90" t="s">
+      <c r="AR2" s="96"/>
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="AU2" s="90"/>
-      <c r="AV2" s="90"/>
-      <c r="AW2" s="90"/>
-      <c r="AX2" s="90"/>
-      <c r="AY2" s="90"/>
-      <c r="AZ2" s="90"/>
-      <c r="BA2" s="89" t="s">
+      <c r="AU2" s="95"/>
+      <c r="AV2" s="95"/>
+      <c r="AW2" s="95"/>
+      <c r="AX2" s="95"/>
+      <c r="AY2" s="95"/>
+      <c r="AZ2" s="95"/>
+      <c r="BA2" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="BB2" s="89"/>
-      <c r="BC2" s="89"/>
-      <c r="BD2" s="91">
+      <c r="BB2" s="96"/>
+      <c r="BC2" s="96"/>
+      <c r="BD2" s="92">
         <v>45566</v>
       </c>
-      <c r="BE2" s="91"/>
-      <c r="BF2" s="91"/>
-      <c r="BG2" s="91"/>
-      <c r="BH2" s="91"/>
-      <c r="BI2" s="91"/>
+      <c r="BE2" s="92"/>
+      <c r="BF2" s="92"/>
+      <c r="BG2" s="92"/>
+      <c r="BH2" s="92"/>
+      <c r="BI2" s="92"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -27045,71 +27037,71 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97" t="s">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="97"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="97"/>
-      <c r="AH4" s="97"/>
-      <c r="AI4" s="97"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="97"/>
-      <c r="AL4" s="97"/>
-      <c r="AM4" s="97"/>
-      <c r="AN4" s="97"/>
-      <c r="AO4" s="97"/>
-      <c r="AP4" s="97"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="97"/>
-      <c r="AS4" s="97"/>
-      <c r="AT4" s="97"/>
-      <c r="AU4" s="97"/>
-      <c r="AV4" s="97"/>
-      <c r="AW4" s="97"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="97"/>
-      <c r="AZ4" s="97"/>
-      <c r="BA4" s="97"/>
-      <c r="BB4" s="97"/>
-      <c r="BC4" s="97"/>
-      <c r="BD4" s="97"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="97"/>
-      <c r="BG4" s="97"/>
-      <c r="BH4" s="97"/>
-      <c r="BI4" s="97"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="90"/>
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="90"/>
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -27309,71 +27301,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="97" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="97"/>
-      <c r="AB5" s="97"/>
-      <c r="AC5" s="97"/>
-      <c r="AD5" s="97"/>
-      <c r="AE5" s="97"/>
-      <c r="AF5" s="97"/>
-      <c r="AG5" s="97"/>
-      <c r="AH5" s="97"/>
-      <c r="AI5" s="97"/>
-      <c r="AJ5" s="97"/>
-      <c r="AK5" s="97"/>
-      <c r="AL5" s="97"/>
-      <c r="AM5" s="97"/>
-      <c r="AN5" s="97"/>
-      <c r="AO5" s="97"/>
-      <c r="AP5" s="97"/>
-      <c r="AQ5" s="97"/>
-      <c r="AR5" s="97"/>
-      <c r="AS5" s="97"/>
-      <c r="AT5" s="97"/>
-      <c r="AU5" s="97"/>
-      <c r="AV5" s="97"/>
-      <c r="AW5" s="97"/>
-      <c r="AX5" s="97"/>
-      <c r="AY5" s="97"/>
-      <c r="AZ5" s="97"/>
-      <c r="BA5" s="97"/>
-      <c r="BB5" s="97"/>
-      <c r="BC5" s="97"/>
-      <c r="BD5" s="97"/>
-      <c r="BE5" s="97"/>
-      <c r="BF5" s="97"/>
-      <c r="BG5" s="97"/>
-      <c r="BH5" s="97"/>
-      <c r="BI5" s="97"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="90"/>
+      <c r="AE5" s="90"/>
+      <c r="AF5" s="90"/>
+      <c r="AG5" s="90"/>
+      <c r="AH5" s="90"/>
+      <c r="AI5" s="90"/>
+      <c r="AJ5" s="90"/>
+      <c r="AK5" s="90"/>
+      <c r="AL5" s="90"/>
+      <c r="AM5" s="90"/>
+      <c r="AN5" s="90"/>
+      <c r="AO5" s="90"/>
+      <c r="AP5" s="90"/>
+      <c r="AQ5" s="90"/>
+      <c r="AR5" s="90"/>
+      <c r="AS5" s="90"/>
+      <c r="AT5" s="90"/>
+      <c r="AU5" s="90"/>
+      <c r="AV5" s="90"/>
+      <c r="AW5" s="90"/>
+      <c r="AX5" s="90"/>
+      <c r="AY5" s="90"/>
+      <c r="AZ5" s="90"/>
+      <c r="BA5" s="90"/>
+      <c r="BB5" s="90"/>
+      <c r="BC5" s="90"/>
+      <c r="BD5" s="90"/>
+      <c r="BE5" s="90"/>
+      <c r="BF5" s="90"/>
+      <c r="BG5" s="90"/>
+      <c r="BH5" s="90"/>
+      <c r="BI5" s="90"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -27833,75 +27825,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99" t="s">
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99" t="s">
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="99"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="99"/>
-      <c r="W7" s="99"/>
-      <c r="X7" s="99"/>
-      <c r="Y7" s="99"/>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="99"/>
-      <c r="AD7" s="99"/>
-      <c r="AE7" s="99" t="s">
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="AF7" s="99"/>
-      <c r="AG7" s="99"/>
-      <c r="AH7" s="99"/>
-      <c r="AI7" s="99"/>
-      <c r="AJ7" s="99"/>
-      <c r="AK7" s="99"/>
-      <c r="AL7" s="99"/>
-      <c r="AM7" s="99"/>
-      <c r="AN7" s="99"/>
-      <c r="AO7" s="99"/>
-      <c r="AP7" s="99"/>
-      <c r="AQ7" s="99"/>
-      <c r="AR7" s="99"/>
-      <c r="AS7" s="99"/>
-      <c r="AT7" s="99"/>
-      <c r="AU7" s="99"/>
-      <c r="AV7" s="99"/>
-      <c r="AW7" s="99"/>
-      <c r="AX7" s="99"/>
-      <c r="AY7" s="99"/>
-      <c r="AZ7" s="99"/>
-      <c r="BA7" s="99"/>
-      <c r="BB7" s="99"/>
-      <c r="BC7" s="99"/>
-      <c r="BD7" s="99"/>
-      <c r="BE7" s="99"/>
-      <c r="BF7" s="99"/>
-      <c r="BG7" s="99"/>
-      <c r="BH7" s="99"/>
-      <c r="BI7" s="99"/>
+      <c r="AF7" s="105"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="105"/>
+      <c r="AI7" s="105"/>
+      <c r="AJ7" s="105"/>
+      <c r="AK7" s="105"/>
+      <c r="AL7" s="105"/>
+      <c r="AM7" s="105"/>
+      <c r="AN7" s="105"/>
+      <c r="AO7" s="105"/>
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="105"/>
+      <c r="AY7" s="105"/>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="105"/>
+      <c r="BC7" s="105"/>
+      <c r="BD7" s="105"/>
+      <c r="BE7" s="105"/>
+      <c r="BF7" s="105"/>
+      <c r="BG7" s="105"/>
+      <c r="BH7" s="105"/>
+      <c r="BI7" s="105"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -51413,7 +51405,7 @@
       <c r="O97" s="47"/>
       <c r="P97" s="44"/>
       <c r="Q97" s="39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R97" s="37"/>
       <c r="S97" s="37"/>
@@ -51677,7 +51669,7 @@
       <c r="O98" s="47"/>
       <c r="P98" s="44"/>
       <c r="Q98" s="39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="R98" s="37"/>
       <c r="S98" s="37"/>
@@ -51941,7 +51933,7 @@
       <c r="O99" s="47"/>
       <c r="P99" s="44"/>
       <c r="Q99" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R99" s="37"/>
       <c r="S99" s="37"/>
@@ -52205,7 +52197,7 @@
       <c r="O100" s="47"/>
       <c r="P100" s="44"/>
       <c r="Q100" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="R100" s="37"/>
       <c r="S100" s="37"/>
@@ -52469,7 +52461,7 @@
       <c r="O101" s="47"/>
       <c r="P101" s="44"/>
       <c r="Q101" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R101" s="37"/>
       <c r="S101" s="37"/>
@@ -56645,29 +56637,11 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AT13:BI13"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="P13:AS13"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:BI4"/>
     <mergeCell ref="A5:F5"/>
@@ -56684,11 +56658,29 @@
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="AT13:BI13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
+    <mergeCell ref="P13:AS13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -56707,6 +56699,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -56838,15 +56839,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -56854,6 +56846,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E88503-2BF5-4213-82B7-01925F2C7A20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27446016-DB91-4EAC-B347-E10B099FE93C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -56871,14 +56871,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E88503-2BF5-4213-82B7-01925F2C7A20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFC473E1-630C-47C0-8277-41F4549C3C72}">
   <ds:schemaRefs>
